--- a/FireMeta_Rproj/inputs/Studies_Summary/Fire_name_Lat_Long.xlsx
+++ b/FireMeta_Rproj/inputs/Studies_Summary/Fire_name_Lat_Long.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/cava304/GitHub/rc_sfa-rc-3-wenas-meta/FireMeta_Rproj/inputs/Studies_Summary/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{D14B6ADC-1547-0049-A0C9-02859E577E93}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0FA9CE08-E0B4-384B-9BC0-17DB8DC46716}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="35700" yWindow="2520" windowWidth="27240" windowHeight="16200" xr2:uid="{8C258C6F-044A-E849-9C14-F26FA5F5AA92}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="99">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="94">
   <si>
     <t>Study</t>
   </si>
@@ -95,12 +95,6 @@
     <t>Hewlett Gulch_High Park fire</t>
   </si>
   <si>
-    <t>Klose et al. 2015</t>
-  </si>
-  <si>
-    <t>Jesusita Fire</t>
-  </si>
-  <si>
     <t>Mast &amp; Clow, 2008</t>
   </si>
   <si>
@@ -245,24 +239,12 @@
     <t>Trout_Creek</t>
   </si>
   <si>
-    <t>Could_Creek</t>
-  </si>
-  <si>
     <t>Middle_Fork</t>
   </si>
   <si>
     <t>North_Fork</t>
   </si>
   <si>
-    <t>Reference</t>
-  </si>
-  <si>
-    <t>Partially burn</t>
-  </si>
-  <si>
-    <t>Burn</t>
-  </si>
-  <si>
     <t>Coal</t>
   </si>
   <si>
@@ -333,6 +315,9 @@
   </si>
   <si>
     <t>PNF</t>
+  </si>
+  <si>
+    <t>Cold_Creek</t>
   </si>
 </sst>
 </file>
@@ -342,7 +327,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.000"/>
   </numFmts>
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -404,6 +389,18 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -431,7 +428,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -442,10 +439,15 @@
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="164" fontId="4" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -760,11 +762,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FE608700-CF3C-DE4E-8B7D-38FBD72A91DD}">
-  <dimension ref="A1:F85"/>
+  <dimension ref="A1:K81"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A31" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F83" sqref="F83:F85"/>
+      <pane ySplit="1" topLeftCell="A67" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A24" sqref="A24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -779,7 +781,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="C1" s="2" t="s">
         <v>1</v>
@@ -791,7 +793,7 @@
         <v>3</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.2">
@@ -806,7 +808,7 @@
     <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3" s="4"/>
       <c r="B3" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="D3">
         <v>61.4</v>
@@ -821,7 +823,7 @@
     <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A4" s="4"/>
       <c r="B4" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="D4">
         <v>61.133333</v>
@@ -845,7 +847,7 @@
     <row r="6" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A6" s="4"/>
       <c r="B6" s="4" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="D6">
         <v>34.472966</v>
@@ -860,7 +862,7 @@
     <row r="7" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A7" s="4"/>
       <c r="B7" s="4" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="D7">
         <v>34.477563000000004</v>
@@ -875,7 +877,7 @@
     <row r="8" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A8" s="4"/>
       <c r="B8" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="D8">
         <v>34.475085999999997</v>
@@ -890,7 +892,7 @@
     <row r="9" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A9" s="4"/>
       <c r="B9" s="4" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="D9">
         <v>35.526656000000003</v>
@@ -916,7 +918,7 @@
     <row r="11" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A11" s="4"/>
       <c r="B11" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="D11">
         <v>40.133513999999998</v>
@@ -931,7 +933,7 @@
     <row r="12" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A12" s="4"/>
       <c r="B12" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="D12">
         <v>40.180647</v>
@@ -946,7 +948,7 @@
     <row r="13" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A13" s="4"/>
       <c r="B13" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="D13">
         <v>40.191034999999999</v>
@@ -961,7 +963,7 @@
     <row r="14" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A14" s="4"/>
       <c r="B14" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="D14">
         <v>40.158754000000002</v>
@@ -976,7 +978,7 @@
     <row r="15" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A15" s="4"/>
       <c r="B15" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="D15">
         <v>40.200989</v>
@@ -991,7 +993,7 @@
     <row r="16" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A16" s="4"/>
       <c r="B16" s="4" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="D16">
         <v>40.192393000000003</v>
@@ -1006,7 +1008,7 @@
     <row r="17" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A17" s="4"/>
       <c r="B17" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="D17">
         <v>39.987803999999997</v>
@@ -1021,7 +1023,7 @@
     <row r="18" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A18" s="4"/>
       <c r="B18" s="4" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="D18">
         <v>40.234889000000003</v>
@@ -1036,7 +1038,7 @@
     <row r="19" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A19" s="4"/>
       <c r="B19" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="D19">
         <v>40.071703999999997</v>
@@ -1051,7 +1053,7 @@
     <row r="20" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A20" s="4"/>
       <c r="B20" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="D20">
         <v>40.071703999999997</v>
@@ -1075,7 +1077,7 @@
     <row r="22" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A22" s="4"/>
       <c r="B22" s="4" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="D22">
         <v>44.515999999999998</v>
@@ -1090,7 +1092,7 @@
     <row r="23" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A23" s="4"/>
       <c r="B23" s="4" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="D23">
         <v>44.555</v>
@@ -1103,7 +1105,7 @@
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A24" s="12" t="s">
+      <c r="A24" s="16" t="s">
         <v>12</v>
       </c>
       <c r="B24" s="4"/>
@@ -1116,7 +1118,7 @@
     <row r="25" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A25" s="4"/>
       <c r="B25" s="4" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="D25">
         <v>49.704340000000002</v>
@@ -1125,29 +1127,37 @@
         <v>-116.118877</v>
       </c>
       <c r="F25">
-        <v>209</v>
+        <v>20.9</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A26" s="4"/>
       <c r="B26" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="D26" s="10"/>
-      <c r="E26" s="10"/>
+        <v>56</v>
+      </c>
+      <c r="D26" s="17">
+        <v>49.712888</v>
+      </c>
+      <c r="E26" s="17">
+        <v>-116.12221700000001</v>
+      </c>
       <c r="F26">
-        <v>345</v>
+        <v>34.5</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A27" s="4"/>
       <c r="B27" s="4" t="s">
-        <v>59</v>
-      </c>
-      <c r="D27" s="10"/>
-      <c r="E27" s="10"/>
+        <v>57</v>
+      </c>
+      <c r="D27" s="18">
+        <v>49.706719</v>
+      </c>
+      <c r="E27" s="18">
+        <v>-116.140608</v>
+      </c>
       <c r="F27">
-        <v>378</v>
+        <v>37.799999999999997</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.2">
@@ -1164,7 +1174,7 @@
     <row r="29" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A29" s="4"/>
       <c r="B29" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="D29">
         <v>48.81409</v>
@@ -1179,7 +1189,7 @@
     <row r="30" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A30" s="4"/>
       <c r="B30" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="D30">
         <v>48.793787000000002</v>
@@ -1194,7 +1204,7 @@
     <row r="31" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A31" s="4"/>
       <c r="B31" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="D31">
         <v>48.802771999999997</v>
@@ -1209,7 +1219,7 @@
     <row r="32" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A32" s="4"/>
       <c r="B32" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="D32">
         <v>48.688412999999997</v>
@@ -1224,7 +1234,7 @@
     <row r="33" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A33" s="4"/>
       <c r="B33" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="D33">
         <v>48.902925000000003</v>
@@ -1239,7 +1249,7 @@
     <row r="34" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A34" s="4"/>
       <c r="B34" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="D34">
         <v>48.814951999999998</v>
@@ -1254,7 +1264,7 @@
     <row r="35" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A35" s="4"/>
       <c r="B35" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="D35">
         <v>48.936976000000001</v>
@@ -1269,7 +1279,7 @@
     <row r="36" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A36" s="4"/>
       <c r="B36" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="D36">
         <v>48.866349</v>
@@ -1282,7 +1292,7 @@
       </c>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A37" s="12" t="s">
+      <c r="A37" s="11" t="s">
         <v>16</v>
       </c>
       <c r="C37" t="s">
@@ -1292,522 +1302,590 @@
     <row r="38" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A38" s="4"/>
       <c r="B38" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="D38">
-        <v>38.916015999999999</v>
+        <v>38.883760000000002</v>
       </c>
       <c r="E38">
-        <v>-120.281718</v>
-      </c>
-      <c r="F38" s="11"/>
+        <v>-119.978005</v>
+      </c>
+      <c r="F38" s="10"/>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A39" s="4"/>
       <c r="B39" t="s">
-        <v>69</v>
+        <v>93</v>
       </c>
       <c r="D39">
-        <v>38.916015999999999</v>
+        <v>38.898688999999997</v>
       </c>
       <c r="E39">
-        <v>-120.281718</v>
-      </c>
-      <c r="F39" s="11"/>
+        <v>-119.948785</v>
+      </c>
+      <c r="F39" s="10"/>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A40" s="4"/>
       <c r="B40" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="D40">
-        <v>38.916015999999999</v>
+        <v>38.958700999999998</v>
       </c>
       <c r="E40">
-        <v>-120.281718</v>
-      </c>
-      <c r="F40" s="11"/>
+        <v>-120.920501</v>
+      </c>
+      <c r="F40" s="10"/>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A41" s="4"/>
       <c r="B41" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="D41">
-        <v>38.916015999999999</v>
+        <v>39.000053000000001</v>
       </c>
       <c r="E41">
-        <v>-120.281718</v>
-      </c>
-      <c r="F41" s="11"/>
+        <v>-120.93990700000001</v>
+      </c>
+      <c r="F41" s="10"/>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A42" s="12" t="s">
+      <c r="A42" s="4" t="s">
         <v>19</v>
       </c>
       <c r="B42" s="4"/>
       <c r="C42" t="s">
         <v>20</v>
       </c>
+      <c r="D42" s="5"/>
+      <c r="E42" s="5"/>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A43" s="4"/>
-      <c r="B43" s="4" t="s">
-        <v>72</v>
+      <c r="B43" t="s">
+        <v>69</v>
       </c>
       <c r="D43">
-        <v>34.503</v>
+        <v>39.906348000000001</v>
       </c>
       <c r="E43">
-        <v>-119.73099999999999</v>
-      </c>
-      <c r="F43" s="11"/>
+        <v>-105.37748499999999</v>
+      </c>
+      <c r="F43">
+        <v>96.4</v>
+      </c>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A44" s="4"/>
-      <c r="B44" s="4" t="s">
-        <v>73</v>
-      </c>
-      <c r="D44" s="11"/>
-      <c r="E44" s="11"/>
-      <c r="F44" s="11"/>
+      <c r="B44" t="s">
+        <v>70</v>
+      </c>
+      <c r="D44">
+        <v>48.422220000000003</v>
+      </c>
+      <c r="E44">
+        <v>-113.70055549999999</v>
+      </c>
+      <c r="F44">
+        <v>47.3</v>
+      </c>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A45" s="4"/>
-      <c r="B45" s="4" t="s">
-        <v>74</v>
-      </c>
-      <c r="D45" s="11"/>
-      <c r="E45" s="11"/>
-      <c r="F45" s="11"/>
+      <c r="B45" t="s">
+        <v>71</v>
+      </c>
+      <c r="D45">
+        <v>48.54888888</v>
+      </c>
+      <c r="E45">
+        <v>-113.9858333</v>
+      </c>
+      <c r="F45">
+        <v>42.6</v>
+      </c>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A46" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="B46" s="4"/>
-      <c r="C46" t="s">
-        <v>22</v>
-      </c>
-      <c r="D46" s="5"/>
-      <c r="E46" s="5"/>
+      <c r="A46" s="4"/>
+      <c r="B46" t="s">
+        <v>72</v>
+      </c>
+      <c r="D46">
+        <v>48.635277780000003</v>
+      </c>
+      <c r="E46">
+        <v>-113.86694439999999</v>
+      </c>
+      <c r="F46">
+        <v>450</v>
+      </c>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A47" s="4"/>
       <c r="B47" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="D47">
-        <v>39.906348000000001</v>
+        <v>48.635277780000003</v>
       </c>
       <c r="E47">
-        <v>-105.37748499999999</v>
+        <v>-113.86694439999999</v>
       </c>
       <c r="F47">
-        <v>96.4</v>
+        <v>282</v>
       </c>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A48" s="4"/>
-      <c r="B48" t="s">
-        <v>76</v>
+      <c r="A48" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="B48" s="4"/>
+      <c r="C48" s="6" t="s">
+        <v>22</v>
       </c>
       <c r="D48">
-        <v>48.422220000000003</v>
+        <v>40.033332999999999</v>
       </c>
       <c r="E48">
-        <v>-113.70055549999999</v>
-      </c>
-      <c r="F48">
-        <v>47.3</v>
-      </c>
-    </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.2">
+        <v>-105.416667</v>
+      </c>
+    </row>
+    <row r="49" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A49" s="4"/>
       <c r="B49" t="s">
-        <v>77</v>
-      </c>
-      <c r="D49">
-        <v>48.54888888</v>
-      </c>
-      <c r="E49">
-        <v>-113.9858333</v>
+        <v>74</v>
+      </c>
+      <c r="C49" s="6"/>
+      <c r="D49" s="6">
+        <v>40.039045999999999</v>
+      </c>
+      <c r="E49" s="14">
+        <v>-105.393878</v>
       </c>
       <c r="F49">
-        <v>42.6</v>
-      </c>
-    </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.2">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="50" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A50" s="4"/>
       <c r="B50" t="s">
-        <v>78</v>
-      </c>
-      <c r="D50">
-        <v>48.635277780000003</v>
-      </c>
-      <c r="E50">
-        <v>-113.86694439999999</v>
+        <v>75</v>
+      </c>
+      <c r="C50" s="6"/>
+      <c r="D50" s="6">
+        <v>40.041668000000001</v>
+      </c>
+      <c r="E50" s="14">
+        <v>-105.364823</v>
       </c>
       <c r="F50">
-        <v>450</v>
-      </c>
-    </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.2">
+        <v>500</v>
+      </c>
+      <c r="H50" s="6"/>
+      <c r="I50" s="14"/>
+    </row>
+    <row r="51" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A51" s="4"/>
       <c r="B51" t="s">
-        <v>79</v>
-      </c>
-      <c r="D51">
-        <v>48.635277780000003</v>
-      </c>
-      <c r="E51">
-        <v>-113.86694439999999</v>
+        <v>76</v>
+      </c>
+      <c r="C51" s="6"/>
+      <c r="D51" s="6">
+        <v>40.015500000000003</v>
+      </c>
+      <c r="E51" s="14">
+        <v>-105.324566</v>
       </c>
       <c r="F51">
-        <v>282</v>
-      </c>
-    </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A52" s="12" t="s">
-        <v>23</v>
-      </c>
-      <c r="B52" s="4"/>
-      <c r="C52" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="D52">
-        <v>40.033332999999999</v>
-      </c>
-      <c r="E52">
-        <v>-105.416667</v>
-      </c>
-    </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.2">
+        <v>631</v>
+      </c>
+      <c r="G51" s="6"/>
+      <c r="H51" s="14"/>
+      <c r="K51" s="6"/>
+    </row>
+    <row r="52" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A52" s="4"/>
+      <c r="B52" t="s">
+        <v>77</v>
+      </c>
+      <c r="C52" s="6"/>
+      <c r="D52" s="6">
+        <v>40.036102999999997</v>
+      </c>
+      <c r="E52" s="14">
+        <v>-105.43910099999999</v>
+      </c>
+      <c r="F52">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="53" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A53" s="4"/>
       <c r="B53" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="C53" s="6"/>
-      <c r="D53" s="11"/>
-      <c r="E53" s="11"/>
+      <c r="D53" s="13">
+        <v>40.037790999999999</v>
+      </c>
+      <c r="E53" s="15">
+        <v>-105.42124699999999</v>
+      </c>
       <c r="F53">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A54" s="4"/>
-      <c r="B54" t="s">
-        <v>81</v>
-      </c>
-      <c r="C54" s="6"/>
-      <c r="D54" s="11"/>
-      <c r="E54" s="11"/>
-      <c r="F54">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.2">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="54" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A54" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="B54" s="4"/>
+      <c r="C54" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="D54">
+        <v>40.050263700000002</v>
+      </c>
+      <c r="E54">
+        <v>-105.3666599</v>
+      </c>
+    </row>
+    <row r="55" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A55" s="4"/>
       <c r="B55" t="s">
-        <v>82</v>
+        <v>74</v>
       </c>
       <c r="C55" s="6"/>
-      <c r="D55" s="11"/>
-      <c r="E55" s="11"/>
+      <c r="D55" s="6">
+        <v>40.039045999999999</v>
+      </c>
+      <c r="E55" s="14">
+        <v>-105.393878</v>
+      </c>
       <c r="F55">
-        <v>63.1</v>
-      </c>
-    </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.2">
+        <v>370</v>
+      </c>
+      <c r="H55" s="13"/>
+      <c r="I55" s="15"/>
+    </row>
+    <row r="56" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A56" s="4"/>
       <c r="B56" t="s">
-        <v>83</v>
+        <v>75</v>
       </c>
       <c r="C56" s="6"/>
-      <c r="D56" s="11"/>
-      <c r="E56" s="11"/>
+      <c r="D56" s="6">
+        <v>40.041668000000001</v>
+      </c>
+      <c r="E56" s="14">
+        <v>-105.364823</v>
+      </c>
       <c r="F56">
-        <v>25.9</v>
-      </c>
-    </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.2">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="57" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A57" s="4"/>
       <c r="B57" t="s">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="C57" s="6"/>
-      <c r="D57" s="11"/>
-      <c r="E57" s="11"/>
+      <c r="D57" s="6">
+        <v>40.015500000000003</v>
+      </c>
+      <c r="E57" s="14">
+        <v>-105.324566</v>
+      </c>
       <c r="F57">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A58" s="12" t="s">
+        <v>631</v>
+      </c>
+    </row>
+    <row r="58" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A58" s="4"/>
+      <c r="B58" t="s">
+        <v>77</v>
+      </c>
+      <c r="C58" s="6"/>
+      <c r="D58" s="6">
+        <v>40.036102999999997</v>
+      </c>
+      <c r="E58" s="14">
+        <v>-105.43910099999999</v>
+      </c>
+      <c r="F58">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="59" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A59" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="B59" s="4"/>
+      <c r="C59" t="s">
         <v>25</v>
       </c>
-      <c r="B58" s="4"/>
-      <c r="C58" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="D58">
-        <v>40.050263700000002</v>
-      </c>
-      <c r="E58">
-        <v>-105.3666599</v>
-      </c>
-    </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A59" s="4"/>
-      <c r="B59" t="s">
+      <c r="D59">
+        <v>36.095348999999999</v>
+      </c>
+      <c r="E59">
+        <v>-82.265000000000001</v>
+      </c>
+    </row>
+    <row r="60" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A60" s="4"/>
+      <c r="B60" s="4" t="s">
         <v>80</v>
       </c>
-      <c r="C59" s="6"/>
-      <c r="D59" s="11"/>
-      <c r="E59" s="11"/>
-      <c r="F59">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A60" s="4"/>
-      <c r="B60" t="s">
-        <v>81</v>
-      </c>
-      <c r="C60" s="6"/>
-      <c r="D60" s="11"/>
-      <c r="E60" s="11"/>
+      <c r="D60">
+        <v>34.937945999999997</v>
+      </c>
+      <c r="E60">
+        <v>-83.093596000000005</v>
+      </c>
       <c r="F60">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.2">
+        <v>36.6</v>
+      </c>
+    </row>
+    <row r="61" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A61" s="4"/>
       <c r="B61" t="s">
-        <v>82</v>
-      </c>
-      <c r="C61" s="6"/>
-      <c r="D61" s="11"/>
-      <c r="E61" s="11"/>
+        <v>79</v>
+      </c>
+      <c r="D61">
+        <v>34.920959000000003</v>
+      </c>
+      <c r="E61">
+        <v>-83.092200000000005</v>
+      </c>
       <c r="F61">
-        <v>63.1</v>
-      </c>
-    </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A62" s="4"/>
-      <c r="B62" t="s">
-        <v>83</v>
-      </c>
-      <c r="C62" s="6"/>
-      <c r="D62" s="11"/>
-      <c r="E62" s="11"/>
-      <c r="F62">
-        <v>25.9</v>
-      </c>
-    </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A63" s="4" t="s">
+        <v>21.8</v>
+      </c>
+    </row>
+    <row r="62" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A62" s="11" t="s">
         <v>26</v>
       </c>
-      <c r="B63" s="4"/>
-      <c r="C63" t="s">
+      <c r="B62" s="4"/>
+      <c r="C62" t="s">
         <v>27</v>
       </c>
+    </row>
+    <row r="63" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A63" s="4"/>
+      <c r="B63" s="4" t="s">
+        <v>84</v>
+      </c>
       <c r="D63">
-        <v>36.095348999999999</v>
+        <v>38.868000000000002</v>
       </c>
       <c r="E63">
-        <v>-82.265000000000001</v>
-      </c>
-    </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.2">
+        <v>-120.062</v>
+      </c>
+      <c r="F63">
+        <v>66.400000000000006</v>
+      </c>
+    </row>
+    <row r="64" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A64" s="4"/>
       <c r="B64" s="4" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="D64">
-        <v>34.937945999999997</v>
+        <v>38.880000000000003</v>
       </c>
       <c r="E64">
-        <v>-83.093596000000005</v>
-      </c>
-      <c r="F64">
-        <v>36.6</v>
-      </c>
+        <v>-120.041</v>
+      </c>
+      <c r="F64" s="10"/>
     </row>
     <row r="65" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A65" s="4"/>
-      <c r="B65" t="s">
-        <v>85</v>
+      <c r="B65" s="4" t="s">
+        <v>82</v>
       </c>
       <c r="D65">
-        <v>34.920959000000003</v>
+        <v>38.878999999999998</v>
       </c>
       <c r="E65">
-        <v>-83.092200000000005</v>
+        <v>-120.03</v>
       </c>
       <c r="F65">
-        <v>21.8</v>
+        <v>83.9</v>
       </c>
     </row>
     <row r="66" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A66" s="12" t="s">
+      <c r="A66" s="4"/>
+      <c r="B66" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="D66">
+        <v>38.872999999999998</v>
+      </c>
+      <c r="E66">
+        <v>-120.01300000000001</v>
+      </c>
+      <c r="F66">
+        <v>150.30000000000001</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A67" s="11" t="s">
         <v>28</v>
       </c>
-      <c r="B66" s="4"/>
-      <c r="C66" t="s">
+      <c r="B67" s="4"/>
+      <c r="C67" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A67" s="4"/>
-      <c r="B67" s="4" t="s">
-        <v>90</v>
-      </c>
-      <c r="D67">
-        <v>38.868000000000002</v>
-      </c>
-      <c r="E67">
-        <v>-120.062</v>
-      </c>
-      <c r="F67">
-        <v>66.400000000000006</v>
-      </c>
+      <c r="D67" s="8"/>
+      <c r="E67" s="8"/>
     </row>
     <row r="68" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A68" s="4"/>
-      <c r="B68" s="4" t="s">
-        <v>87</v>
-      </c>
-      <c r="D68">
-        <v>38.880000000000003</v>
-      </c>
-      <c r="E68">
-        <v>-120.041</v>
-      </c>
-      <c r="F68" s="11"/>
+      <c r="B68" t="s">
+        <v>85</v>
+      </c>
+      <c r="D68" s="12"/>
+      <c r="E68" s="12"/>
+      <c r="F68">
+        <v>68</v>
+      </c>
     </row>
     <row r="69" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A69" s="4"/>
-      <c r="B69" s="4" t="s">
-        <v>88</v>
-      </c>
-      <c r="D69">
-        <v>38.878999999999998</v>
-      </c>
-      <c r="E69">
-        <v>-120.03</v>
-      </c>
+      <c r="B69" t="s">
+        <v>86</v>
+      </c>
+      <c r="D69" s="12"/>
+      <c r="E69" s="12"/>
       <c r="F69">
-        <v>83.9</v>
+        <v>280</v>
       </c>
     </row>
     <row r="70" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A70" s="4"/>
-      <c r="B70" s="4" t="s">
-        <v>89</v>
-      </c>
-      <c r="D70">
-        <v>38.872999999999998</v>
-      </c>
-      <c r="E70">
-        <v>-120.01300000000001</v>
-      </c>
-      <c r="F70">
-        <v>150.30000000000001</v>
+      <c r="A70" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="B70" s="4"/>
+      <c r="C70" s="6" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="71" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A71" s="12" t="s">
-        <v>30</v>
-      </c>
-      <c r="B71" s="4"/>
-      <c r="C71" t="s">
-        <v>31</v>
-      </c>
-      <c r="D71" s="8"/>
-      <c r="E71" s="8"/>
+      <c r="A71" s="4"/>
+      <c r="B71" t="s">
+        <v>87</v>
+      </c>
+      <c r="C71" s="6"/>
+      <c r="D71">
+        <v>38.451371999999999</v>
+      </c>
+      <c r="E71">
+        <v>122.056381</v>
+      </c>
+      <c r="F71">
+        <v>78</v>
+      </c>
     </row>
     <row r="72" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A72" s="4"/>
-      <c r="B72" t="s">
-        <v>91</v>
-      </c>
-      <c r="D72" s="13"/>
-      <c r="E72" s="13"/>
+      <c r="B72" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="C72" s="6"/>
+      <c r="D72" s="8">
+        <v>38.923563999999999</v>
+      </c>
+      <c r="E72" s="8">
+        <v>122.32647799999999</v>
+      </c>
       <c r="F72">
-        <v>68</v>
+        <v>3017</v>
       </c>
     </row>
     <row r="73" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A73" s="4"/>
-      <c r="B73" t="s">
-        <v>92</v>
-      </c>
-      <c r="D73" s="13"/>
-      <c r="E73" s="13"/>
-      <c r="F73">
-        <v>280</v>
-      </c>
+      <c r="B73" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="C73" s="6"/>
+      <c r="D73">
+        <v>38.512031</v>
+      </c>
+      <c r="E73">
+        <v>122.097228</v>
+      </c>
+      <c r="F73" s="10"/>
     </row>
     <row r="74" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A74" s="12" t="s">
+      <c r="A74" s="11" t="s">
         <v>32</v>
       </c>
       <c r="B74" s="4"/>
-      <c r="C74" s="6" t="s">
+      <c r="C74" t="s">
         <v>33</v>
       </c>
+      <c r="D74" s="9"/>
+      <c r="E74" s="9"/>
     </row>
     <row r="75" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A75" s="4"/>
-      <c r="B75" t="s">
-        <v>93</v>
-      </c>
-      <c r="C75" s="6"/>
-      <c r="D75" s="11"/>
-      <c r="E75" s="11"/>
+      <c r="B75" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="D75">
+        <v>40.728676</v>
+      </c>
+      <c r="E75">
+        <v>-105.844109</v>
+      </c>
       <c r="F75">
-        <v>78</v>
+        <v>6184.6</v>
       </c>
     </row>
     <row r="76" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A76" s="4"/>
       <c r="B76" s="4" t="s">
-        <v>94</v>
-      </c>
-      <c r="C76" s="6"/>
-      <c r="D76" s="11"/>
-      <c r="E76" s="11"/>
+        <v>91</v>
+      </c>
+      <c r="D76">
+        <v>40.709603999999999</v>
+      </c>
+      <c r="E76">
+        <v>-105.233305</v>
+      </c>
       <c r="F76">
-        <v>3017</v>
+        <v>9632.6</v>
       </c>
     </row>
     <row r="77" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A77" s="4"/>
       <c r="B77" s="4" t="s">
-        <v>95</v>
-      </c>
-      <c r="C77" s="6"/>
-      <c r="D77" s="11"/>
-      <c r="E77" s="11"/>
-      <c r="F77" s="11"/>
+        <v>92</v>
+      </c>
+      <c r="D77">
+        <v>40.701225999999998</v>
+      </c>
+      <c r="E77">
+        <v>-105.757445</v>
+      </c>
+      <c r="F77">
+        <v>12551.5</v>
+      </c>
     </row>
     <row r="78" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A78" s="12" t="s">
+      <c r="A78" s="4" t="s">
         <v>34</v>
       </c>
       <c r="B78" s="4"/>
       <c r="C78" t="s">
-        <v>35</v>
-      </c>
-      <c r="D78" s="9"/>
-      <c r="E78" s="9"/>
+        <v>18</v>
+      </c>
     </row>
     <row r="79" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A79" s="4"/>
       <c r="B79" s="4" t="s">
-        <v>96</v>
+        <v>90</v>
       </c>
       <c r="D79">
         <v>40.728676</v>
@@ -1820,9 +1898,8 @@
       </c>
     </row>
     <row r="80" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A80" s="4"/>
       <c r="B80" s="4" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="D80">
         <v>40.709603999999999</v>
@@ -1834,10 +1911,9 @@
         <v>9632.6</v>
       </c>
     </row>
-    <row r="81" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A81" s="4"/>
+    <row r="81" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B81" s="4" t="s">
-        <v>98</v>
+        <v>91</v>
       </c>
       <c r="D81">
         <v>40.701225999999998</v>
@@ -1846,57 +1922,6 @@
         <v>-105.757445</v>
       </c>
       <c r="F81">
-        <v>12551.5</v>
-      </c>
-    </row>
-    <row r="82" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A82" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="B82" s="4"/>
-      <c r="C82" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="83" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="B83" s="4" t="s">
-        <v>96</v>
-      </c>
-      <c r="D83">
-        <v>40.728676</v>
-      </c>
-      <c r="E83">
-        <v>-105.844109</v>
-      </c>
-      <c r="F83">
-        <v>6184.6</v>
-      </c>
-    </row>
-    <row r="84" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="B84" s="4" t="s">
-        <v>98</v>
-      </c>
-      <c r="D84">
-        <v>40.709603999999999</v>
-      </c>
-      <c r="E84">
-        <v>-105.233305</v>
-      </c>
-      <c r="F84">
-        <v>9632.6</v>
-      </c>
-    </row>
-    <row r="85" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="B85" s="4" t="s">
-        <v>97</v>
-      </c>
-      <c r="D85">
-        <v>40.701225999999998</v>
-      </c>
-      <c r="E85">
-        <v>-105.757445</v>
-      </c>
-      <c r="F85">
         <v>12551.5</v>
       </c>
     </row>

--- a/FireMeta_Rproj/inputs/Studies_Summary/Fire_name_Lat_Long.xlsx
+++ b/FireMeta_Rproj/inputs/Studies_Summary/Fire_name_Lat_Long.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/cava304/GitHub/rc_sfa-rc-3-wenas-meta/FireMeta_Rproj/inputs/Studies_Summary/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0FA9CE08-E0B4-384B-9BC0-17DB8DC46716}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{85095A61-225B-624C-8421-773B19927405}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="35700" yWindow="2520" windowWidth="27240" windowHeight="16200" xr2:uid="{8C258C6F-044A-E849-9C14-F26FA5F5AA92}"/>
+    <workbookView xWindow="30240" yWindow="0" windowWidth="38400" windowHeight="24000" xr2:uid="{8C258C6F-044A-E849-9C14-F26FA5F5AA92}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -765,8 +765,8 @@
   <dimension ref="A1:K81"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A67" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A24" sqref="A24"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D3" sqref="D3:E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1927,5 +1927,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
 </file>
--- a/FireMeta_Rproj/inputs/Studies_Summary/Fire_name_Lat_Long.xlsx
+++ b/FireMeta_Rproj/inputs/Studies_Summary/Fire_name_Lat_Long.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/cava304/GitHub/rc_sfa-rc-3-wenas-meta/FireMeta_Rproj/inputs/Studies_Summary/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{85095A61-225B-624C-8421-773B19927405}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4C24A021-4ABD-C64F-9345-E4A73E2A256C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="30240" yWindow="0" windowWidth="38400" windowHeight="24000" xr2:uid="{8C258C6F-044A-E849-9C14-F26FA5F5AA92}"/>
+    <workbookView xWindow="0" yWindow="740" windowWidth="30240" windowHeight="18900" xr2:uid="{8C258C6F-044A-E849-9C14-F26FA5F5AA92}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="94">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="327" uniqueCount="106">
   <si>
     <t>Study</t>
   </si>
@@ -89,18 +89,9 @@
     <t>Hickenbottom et al. 2023</t>
   </si>
   <si>
-    <t>Caldor Fire(2021)_Mosquito Fire (2002)</t>
-  </si>
-  <si>
-    <t>Hewlett Gulch_High Park fire</t>
-  </si>
-  <si>
     <t>Mast &amp; Clow, 2008</t>
   </si>
   <si>
-    <t>Rampage Fire (2003)_Others in Glacier NP</t>
-  </si>
-  <si>
     <t>Murphy et al. 2015</t>
   </si>
   <si>
@@ -149,9 +140,6 @@
     <t>San Onofre</t>
   </si>
   <si>
-    <t>Size</t>
-  </si>
-  <si>
     <t>Gaviota</t>
   </si>
   <si>
@@ -318,6 +306,91 @@
   </si>
   <si>
     <t>Cold_Creek</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="9"/>
+        <rFont val="Calibri (Body)"/>
+      </rPr>
+      <t>Caldor Fire(2021)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>_Mosquito Fire (2002)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Hewlett Gulch_</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="9"/>
+        <rFont val="Calibri (Body)"/>
+      </rPr>
+      <t>High Park fire</t>
+    </r>
+  </si>
+  <si>
+    <t>Watershed_Size</t>
+  </si>
+  <si>
+    <t>Reports_Size</t>
+  </si>
+  <si>
+    <t>Burn_Percentage</t>
+  </si>
+  <si>
+    <t>Reports_Burn_Percentage</t>
+  </si>
+  <si>
+    <t>Y</t>
+  </si>
+  <si>
+    <t>&gt;90%</t>
+  </si>
+  <si>
+    <t>Reports_Coords</t>
+  </si>
+  <si>
+    <t>N</t>
+  </si>
+  <si>
+    <t>N_Hampton</t>
+  </si>
+  <si>
+    <t>N_Google</t>
+  </si>
+  <si>
+    <t>NA</t>
+  </si>
+  <si>
+    <r>
+      <t>Rampage Fire (2003)_</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri (Body)"/>
+      </rPr>
+      <t>Robert Fire (2003)_Trapper Fire (2003)</t>
+    </r>
+  </si>
+  <si>
+    <t>N_Hampton_has USGS Q Gauge</t>
+  </si>
+  <si>
+    <t>N_Hampton has values</t>
   </si>
 </sst>
 </file>
@@ -327,7 +400,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.000"/>
   </numFmts>
-  <fonts count="11" x14ac:knownFonts="1">
+  <fonts count="14" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -401,8 +474,26 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color theme="9"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="9"/>
+      <name val="Calibri (Body)"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="9"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -412,6 +503,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -428,26 +525,29 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="4" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="7" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -766,7 +866,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D3" sqref="D3:E3"/>
+      <selection pane="bottomLeft" activeCell="J81" sqref="J81"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -774,14 +874,19 @@
     <col min="1" max="1" width="23.5" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="17.5" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="38.1640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.5" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="15.1640625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="28.1640625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="22.83203125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="C1" s="2" t="s">
         <v>1</v>
@@ -793,22 +898,34 @@
         <v>3</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A2" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" s="13" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="4"/>
-      <c r="C2" t="s">
+      <c r="B2" s="11"/>
+      <c r="C2" s="13" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A3" s="4"/>
       <c r="B3" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="D3">
         <v>61.4</v>
@@ -819,11 +936,23 @@
       <c r="F3">
         <v>134</v>
       </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G3">
+        <v>0</v>
+      </c>
+      <c r="H3" t="s">
+        <v>96</v>
+      </c>
+      <c r="I3" t="s">
+        <v>96</v>
+      </c>
+      <c r="J3" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A4" s="4"/>
       <c r="B4" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="D4">
         <v>61.133333</v>
@@ -834,20 +963,32 @@
       <c r="F4">
         <v>321</v>
       </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A5" s="4" t="s">
+      <c r="G4" t="s">
+        <v>97</v>
+      </c>
+      <c r="H4" t="s">
+        <v>96</v>
+      </c>
+      <c r="I4" t="s">
+        <v>96</v>
+      </c>
+      <c r="J4" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" s="13" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="B5" s="4"/>
-      <c r="C5" t="s">
+      <c r="B5" s="11"/>
+      <c r="C5" s="12" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A6" s="4"/>
       <c r="B6" s="4" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="D6">
         <v>34.472966</v>
@@ -858,11 +999,23 @@
       <c r="F6">
         <v>5.26</v>
       </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G6">
+        <v>82</v>
+      </c>
+      <c r="H6" t="s">
+        <v>96</v>
+      </c>
+      <c r="I6" t="s">
+        <v>96</v>
+      </c>
+      <c r="J6" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A7" s="4"/>
       <c r="B7" s="4" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="D7">
         <v>34.477563000000004</v>
@@ -873,11 +1026,23 @@
       <c r="F7">
         <v>52.16</v>
       </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G7">
+        <v>12</v>
+      </c>
+      <c r="H7" t="s">
+        <v>96</v>
+      </c>
+      <c r="I7" t="s">
+        <v>96</v>
+      </c>
+      <c r="J7" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A8" s="4"/>
       <c r="B8" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="D8">
         <v>34.475085999999997</v>
@@ -886,13 +1051,25 @@
         <v>-120.14228</v>
       </c>
       <c r="F8">
-        <v>108.5</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
+        <v>10.85</v>
+      </c>
+      <c r="G8">
+        <v>18</v>
+      </c>
+      <c r="H8" t="s">
+        <v>96</v>
+      </c>
+      <c r="I8" t="s">
+        <v>96</v>
+      </c>
+      <c r="J8" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A9" s="4"/>
       <c r="B9" s="4" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="D9">
         <v>35.526656000000003</v>
@@ -903,22 +1080,34 @@
       <c r="F9">
         <v>5.74</v>
       </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A10" s="4" t="s">
+      <c r="G9" t="s">
+        <v>102</v>
+      </c>
+      <c r="H9" t="s">
+        <v>96</v>
+      </c>
+      <c r="I9" t="s">
+        <v>99</v>
+      </c>
+      <c r="J9" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" s="13" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="B10" s="4"/>
-      <c r="C10" t="s">
+      <c r="B10" s="11"/>
+      <c r="C10" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="D10" s="6"/>
-      <c r="E10" s="6"/>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="D10" s="14"/>
+      <c r="E10" s="14"/>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A11" s="4"/>
       <c r="B11" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="D11">
         <v>40.133513999999998</v>
@@ -929,11 +1118,23 @@
       <c r="F11">
         <v>219</v>
       </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G11">
+        <v>67</v>
+      </c>
+      <c r="H11" t="s">
+        <v>96</v>
+      </c>
+      <c r="I11" t="s">
+        <v>96</v>
+      </c>
+      <c r="J11" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A12" s="4"/>
       <c r="B12" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="D12">
         <v>40.180647</v>
@@ -944,11 +1145,23 @@
       <c r="F12">
         <v>30</v>
       </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G12">
+        <v>0</v>
+      </c>
+      <c r="H12" t="s">
+        <v>96</v>
+      </c>
+      <c r="I12" t="s">
+        <v>96</v>
+      </c>
+      <c r="J12" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A13" s="4"/>
       <c r="B13" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="D13">
         <v>40.191034999999999</v>
@@ -959,11 +1172,23 @@
       <c r="F13">
         <v>324</v>
       </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G13">
+        <v>0</v>
+      </c>
+      <c r="H13" t="s">
+        <v>96</v>
+      </c>
+      <c r="I13" t="s">
+        <v>96</v>
+      </c>
+      <c r="J13" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A14" s="4"/>
       <c r="B14" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="D14">
         <v>40.158754000000002</v>
@@ -974,11 +1199,23 @@
       <c r="F14">
         <v>280</v>
       </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G14">
+        <v>0</v>
+      </c>
+      <c r="H14" t="s">
+        <v>96</v>
+      </c>
+      <c r="I14" t="s">
+        <v>96</v>
+      </c>
+      <c r="J14" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A15" s="4"/>
       <c r="B15" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="D15">
         <v>40.200989</v>
@@ -989,11 +1226,23 @@
       <c r="F15">
         <v>47</v>
       </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G15">
+        <v>0</v>
+      </c>
+      <c r="H15" t="s">
+        <v>96</v>
+      </c>
+      <c r="I15" t="s">
+        <v>96</v>
+      </c>
+      <c r="J15" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A16" s="4"/>
       <c r="B16" s="4" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="D16">
         <v>40.192393000000003</v>
@@ -1004,11 +1253,23 @@
       <c r="F16">
         <v>3</v>
       </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G16">
+        <v>0</v>
+      </c>
+      <c r="H16" t="s">
+        <v>96</v>
+      </c>
+      <c r="I16" t="s">
+        <v>96</v>
+      </c>
+      <c r="J16" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A17" s="4"/>
       <c r="B17" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="D17">
         <v>39.987803999999997</v>
@@ -1019,11 +1280,23 @@
       <c r="F17">
         <v>54</v>
       </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G17">
+        <v>90</v>
+      </c>
+      <c r="H17" t="s">
+        <v>96</v>
+      </c>
+      <c r="I17" t="s">
+        <v>96</v>
+      </c>
+      <c r="J17" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A18" s="4"/>
       <c r="B18" s="4" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="D18">
         <v>40.234889000000003</v>
@@ -1034,11 +1307,23 @@
       <c r="F18">
         <v>1769</v>
       </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G18">
+        <v>0</v>
+      </c>
+      <c r="H18" t="s">
+        <v>96</v>
+      </c>
+      <c r="I18" t="s">
+        <v>96</v>
+      </c>
+      <c r="J18" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A19" s="4"/>
       <c r="B19" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="D19">
         <v>40.071703999999997</v>
@@ -1049,11 +1334,23 @@
       <c r="F19">
         <v>1712</v>
       </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G19">
+        <v>24</v>
+      </c>
+      <c r="H19" t="s">
+        <v>96</v>
+      </c>
+      <c r="I19" t="s">
+        <v>96</v>
+      </c>
+      <c r="J19" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A20" s="4"/>
       <c r="B20" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="D20">
         <v>40.071703999999997</v>
@@ -1064,20 +1361,32 @@
       <c r="F20">
         <v>1650</v>
       </c>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A21" s="4" t="s">
+      <c r="G20">
+        <v>25</v>
+      </c>
+      <c r="H20" t="s">
+        <v>96</v>
+      </c>
+      <c r="I20" t="s">
+        <v>96</v>
+      </c>
+      <c r="J20" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" s="13" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A21" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="B21" s="4"/>
-      <c r="C21" t="s">
+      <c r="B21" s="11"/>
+      <c r="C21" s="12" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A22" s="4"/>
       <c r="B22" s="4" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="D22">
         <v>44.515999999999998</v>
@@ -1088,11 +1397,23 @@
       <c r="F22">
         <v>494.6</v>
       </c>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G22" t="s">
+        <v>102</v>
+      </c>
+      <c r="H22" t="s">
+        <v>96</v>
+      </c>
+      <c r="I22" t="s">
+        <v>99</v>
+      </c>
+      <c r="J22" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A23" s="4"/>
       <c r="B23" s="4" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="D23">
         <v>44.555</v>
@@ -1103,22 +1424,34 @@
       <c r="F23">
         <v>642.29999999999995</v>
       </c>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A24" s="16" t="s">
+      <c r="G23" t="s">
+        <v>102</v>
+      </c>
+      <c r="H23" t="s">
+        <v>96</v>
+      </c>
+      <c r="I23" t="s">
+        <v>99</v>
+      </c>
+      <c r="J23" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" s="13" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A24" s="15" t="s">
         <v>12</v>
       </c>
-      <c r="B24" s="4"/>
-      <c r="C24" t="s">
+      <c r="B24" s="11"/>
+      <c r="C24" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="D24" s="5"/>
-      <c r="E24" s="5"/>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="D24" s="16"/>
+      <c r="E24" s="16"/>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A25" s="4"/>
       <c r="B25" s="4" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="D25">
         <v>49.704340000000002</v>
@@ -1129,52 +1462,88 @@
       <c r="F25">
         <v>20.9</v>
       </c>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G25">
+        <v>26.1</v>
+      </c>
+      <c r="H25" t="s">
+        <v>96</v>
+      </c>
+      <c r="I25" t="s">
+        <v>96</v>
+      </c>
+      <c r="J25" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A26" s="4"/>
       <c r="B26" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="D26" s="17">
+        <v>52</v>
+      </c>
+      <c r="D26">
         <v>49.712888</v>
       </c>
-      <c r="E26" s="17">
+      <c r="E26">
         <v>-116.12221700000001</v>
       </c>
       <c r="F26">
         <v>34.5</v>
       </c>
-    </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G26">
+        <v>32.799999999999997</v>
+      </c>
+      <c r="H26" t="s">
+        <v>96</v>
+      </c>
+      <c r="I26" t="s">
+        <v>96</v>
+      </c>
+      <c r="J26" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A27" s="4"/>
       <c r="B27" s="4" t="s">
-        <v>57</v>
-      </c>
-      <c r="D27" s="18">
+        <v>53</v>
+      </c>
+      <c r="D27">
         <v>49.706719</v>
       </c>
-      <c r="E27" s="18">
+      <c r="E27">
         <v>-116.140608</v>
       </c>
       <c r="F27">
         <v>37.799999999999997</v>
       </c>
-    </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A28" s="4" t="s">
+      <c r="G27">
+        <v>0</v>
+      </c>
+      <c r="H27" t="s">
+        <v>96</v>
+      </c>
+      <c r="I27" t="s">
+        <v>96</v>
+      </c>
+      <c r="J27" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10" s="13" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A28" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="B28" s="4"/>
-      <c r="C28" t="s">
+      <c r="B28" s="11"/>
+      <c r="C28" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="D28" s="7"/>
-      <c r="E28" s="7"/>
-    </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="D28" s="17"/>
+      <c r="E28" s="17"/>
+    </row>
+    <row r="29" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A29" s="4"/>
       <c r="B29" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="D29">
         <v>48.81409</v>
@@ -1182,14 +1551,26 @@
       <c r="E29">
         <v>-114.39971</v>
       </c>
-      <c r="F29" s="7">
+      <c r="F29" s="21">
         <v>1.83</v>
       </c>
-    </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G29">
+        <v>95.6</v>
+      </c>
+      <c r="H29" t="s">
+        <v>96</v>
+      </c>
+      <c r="I29" t="s">
+        <v>96</v>
+      </c>
+      <c r="J29" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A30" s="4"/>
       <c r="B30" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="D30">
         <v>48.793787000000002</v>
@@ -1197,14 +1578,26 @@
       <c r="E30">
         <v>-114.49179100000001</v>
       </c>
-      <c r="F30" s="7">
+      <c r="F30" s="21">
         <v>2.38</v>
       </c>
-    </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G30">
+        <v>0</v>
+      </c>
+      <c r="H30" t="s">
+        <v>96</v>
+      </c>
+      <c r="I30" t="s">
+        <v>96</v>
+      </c>
+      <c r="J30" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A31" s="4"/>
       <c r="B31" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="D31">
         <v>48.802771999999997</v>
@@ -1212,14 +1605,26 @@
       <c r="E31">
         <v>-114.32894</v>
       </c>
-      <c r="F31" s="7">
+      <c r="F31" s="21">
         <v>64</v>
       </c>
-    </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G31">
+        <v>16.2</v>
+      </c>
+      <c r="H31" t="s">
+        <v>96</v>
+      </c>
+      <c r="I31" t="s">
+        <v>96</v>
+      </c>
+      <c r="J31" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A32" s="4"/>
       <c r="B32" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="D32">
         <v>48.688412999999997</v>
@@ -1227,14 +1632,26 @@
       <c r="E32">
         <v>-114.19973899999999</v>
       </c>
-      <c r="F32" s="7">
+      <c r="F32" s="21">
         <v>211.59</v>
       </c>
-    </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G32">
+        <v>0</v>
+      </c>
+      <c r="H32" t="s">
+        <v>96</v>
+      </c>
+      <c r="I32" t="s">
+        <v>96</v>
+      </c>
+      <c r="J32" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A33" s="4"/>
       <c r="B33" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="D33">
         <v>48.902925000000003</v>
@@ -1242,14 +1659,26 @@
       <c r="E33">
         <v>-114.183566</v>
       </c>
-      <c r="F33" s="7">
-        <v>105.98</v>
-      </c>
-    </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="F33" s="21">
+        <v>238.08</v>
+      </c>
+      <c r="G33">
+        <v>0</v>
+      </c>
+      <c r="H33" t="s">
+        <v>96</v>
+      </c>
+      <c r="I33" t="s">
+        <v>96</v>
+      </c>
+      <c r="J33" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A34" s="4"/>
       <c r="B34" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="D34">
         <v>48.814951999999998</v>
@@ -1257,14 +1686,26 @@
       <c r="E34">
         <v>-113.983313</v>
       </c>
-      <c r="F34" s="7">
-        <v>238.08</v>
-      </c>
-    </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="F34" s="21">
+        <v>105.98</v>
+      </c>
+      <c r="G34">
+        <v>9.9</v>
+      </c>
+      <c r="H34" t="s">
+        <v>96</v>
+      </c>
+      <c r="I34" t="s">
+        <v>96</v>
+      </c>
+      <c r="J34" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A35" s="4"/>
       <c r="B35" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="D35">
         <v>48.936976000000001</v>
@@ -1272,14 +1713,26 @@
       <c r="E35">
         <v>-114.079685</v>
       </c>
-      <c r="F35" s="7">
+      <c r="F35" s="21">
         <v>130.13</v>
       </c>
-    </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G35">
+        <v>11.3</v>
+      </c>
+      <c r="H35" t="s">
+        <v>96</v>
+      </c>
+      <c r="I35" t="s">
+        <v>96</v>
+      </c>
+      <c r="J35" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A36" s="4"/>
       <c r="B36" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="D36">
         <v>48.866349</v>
@@ -1287,22 +1740,34 @@
       <c r="E36">
         <v>-114.02640599999999</v>
       </c>
-      <c r="F36" s="7">
+      <c r="F36" s="21">
         <v>136.29</v>
       </c>
-    </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A37" s="11" t="s">
+      <c r="G36">
+        <v>29.4</v>
+      </c>
+      <c r="H36" t="s">
+        <v>96</v>
+      </c>
+      <c r="I36" t="s">
+        <v>96</v>
+      </c>
+      <c r="J36" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10" s="13" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A37" s="15" t="s">
         <v>16</v>
       </c>
-      <c r="C37" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="C37" s="13" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="38" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A38" s="4"/>
       <c r="B38" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="D38">
         <v>38.883760000000002</v>
@@ -1310,12 +1775,24 @@
       <c r="E38">
         <v>-119.978005</v>
       </c>
-      <c r="F38" s="10"/>
-    </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="F38" s="7"/>
+      <c r="G38" t="s">
+        <v>102</v>
+      </c>
+      <c r="H38" t="s">
+        <v>99</v>
+      </c>
+      <c r="I38" t="s">
+        <v>99</v>
+      </c>
+      <c r="J38" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="39" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A39" s="4"/>
       <c r="B39" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="D39">
         <v>38.898688999999997</v>
@@ -1323,12 +1800,24 @@
       <c r="E39">
         <v>-119.948785</v>
       </c>
-      <c r="F39" s="10"/>
-    </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="F39" s="7"/>
+      <c r="G39" t="s">
+        <v>102</v>
+      </c>
+      <c r="H39" t="s">
+        <v>99</v>
+      </c>
+      <c r="I39" t="s">
+        <v>99</v>
+      </c>
+      <c r="J39" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="40" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A40" s="4"/>
       <c r="B40" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="D40">
         <v>38.958700999999998</v>
@@ -1336,12 +1825,24 @@
       <c r="E40">
         <v>-120.920501</v>
       </c>
-      <c r="F40" s="10"/>
-    </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="F40" s="7"/>
+      <c r="G40" t="s">
+        <v>102</v>
+      </c>
+      <c r="H40" t="s">
+        <v>99</v>
+      </c>
+      <c r="I40" t="s">
+        <v>99</v>
+      </c>
+      <c r="J40" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="41" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A41" s="4"/>
       <c r="B41" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="D41">
         <v>39.000053000000001</v>
@@ -1349,23 +1850,35 @@
       <c r="E41">
         <v>-120.93990700000001</v>
       </c>
-      <c r="F41" s="10"/>
-    </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A42" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="B42" s="4"/>
-      <c r="C42" t="s">
-        <v>20</v>
-      </c>
-      <c r="D42" s="5"/>
-      <c r="E42" s="5"/>
-    </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="F41" s="7"/>
+      <c r="G41" t="s">
+        <v>102</v>
+      </c>
+      <c r="H41" t="s">
+        <v>99</v>
+      </c>
+      <c r="I41" t="s">
+        <v>99</v>
+      </c>
+      <c r="J41" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="42" spans="1:10" s="13" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A42" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="B42" s="11"/>
+      <c r="C42" s="12" t="s">
+        <v>103</v>
+      </c>
+      <c r="D42" s="16"/>
+      <c r="E42" s="16"/>
+    </row>
+    <row r="43" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A43" s="4"/>
       <c r="B43" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="D43">
         <v>39.906348000000001</v>
@@ -1376,11 +1889,23 @@
       <c r="F43">
         <v>96.4</v>
       </c>
-    </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G43">
+        <v>51</v>
+      </c>
+      <c r="H43" t="s">
+        <v>96</v>
+      </c>
+      <c r="I43" t="s">
+        <v>96</v>
+      </c>
+      <c r="J43" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="44" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A44" s="4"/>
       <c r="B44" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="D44">
         <v>48.422220000000003</v>
@@ -1391,11 +1916,23 @@
       <c r="F44">
         <v>47.3</v>
       </c>
-    </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G44">
+        <v>0</v>
+      </c>
+      <c r="H44" t="s">
+        <v>96</v>
+      </c>
+      <c r="I44" t="s">
+        <v>96</v>
+      </c>
+      <c r="J44" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="45" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A45" s="4"/>
       <c r="B45" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="D45">
         <v>48.54888888</v>
@@ -1406,11 +1943,23 @@
       <c r="F45">
         <v>42.6</v>
       </c>
-    </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G45">
+        <v>73</v>
+      </c>
+      <c r="H45" t="s">
+        <v>96</v>
+      </c>
+      <c r="I45" t="s">
+        <v>96</v>
+      </c>
+      <c r="J45" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="46" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A46" s="4"/>
       <c r="B46" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="D46">
         <v>48.635277780000003</v>
@@ -1421,11 +1970,23 @@
       <c r="F46">
         <v>450</v>
       </c>
-    </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G46">
+        <v>30</v>
+      </c>
+      <c r="H46" t="s">
+        <v>96</v>
+      </c>
+      <c r="I46" t="s">
+        <v>96</v>
+      </c>
+      <c r="J46" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="47" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A47" s="4"/>
       <c r="B47" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="D47">
         <v>48.635277780000003</v>
@@ -1436,207 +1997,321 @@
       <c r="F47">
         <v>282</v>
       </c>
-    </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A48" s="11" t="s">
-        <v>21</v>
-      </c>
-      <c r="B48" s="4"/>
-      <c r="C48" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="D48">
+      <c r="G47">
+        <v>26</v>
+      </c>
+      <c r="H47" t="s">
+        <v>96</v>
+      </c>
+      <c r="I47" t="s">
+        <v>96</v>
+      </c>
+      <c r="J47" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="48" spans="1:10" s="13" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A48" s="15" t="s">
+        <v>18</v>
+      </c>
+      <c r="B48" s="11"/>
+      <c r="C48" s="18" t="s">
+        <v>19</v>
+      </c>
+      <c r="D48" s="13">
         <v>40.033332999999999</v>
       </c>
-      <c r="E48">
+      <c r="E48" s="13">
         <v>-105.416667</v>
       </c>
     </row>
     <row r="49" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A49" s="4"/>
       <c r="B49" t="s">
-        <v>74</v>
-      </c>
-      <c r="C49" s="6"/>
-      <c r="D49" s="6">
+        <v>70</v>
+      </c>
+      <c r="C49" s="5"/>
+      <c r="D49" s="5">
         <v>40.039045999999999</v>
       </c>
-      <c r="E49" s="14">
+      <c r="E49" s="9">
         <v>-105.393878</v>
       </c>
       <c r="F49">
         <v>370</v>
+      </c>
+      <c r="G49" t="s">
+        <v>102</v>
+      </c>
+      <c r="H49" t="s">
+        <v>100</v>
+      </c>
+      <c r="I49" t="s">
+        <v>99</v>
+      </c>
+      <c r="J49" t="s">
+        <v>101</v>
       </c>
     </row>
     <row r="50" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A50" s="4"/>
       <c r="B50" t="s">
-        <v>75</v>
-      </c>
-      <c r="C50" s="6"/>
-      <c r="D50" s="6">
+        <v>71</v>
+      </c>
+      <c r="C50" s="5"/>
+      <c r="D50" s="5">
         <v>40.041668000000001</v>
       </c>
-      <c r="E50" s="14">
+      <c r="E50" s="9">
         <v>-105.364823</v>
       </c>
       <c r="F50">
         <v>500</v>
       </c>
-      <c r="H50" s="6"/>
-      <c r="I50" s="14"/>
+      <c r="G50" t="s">
+        <v>102</v>
+      </c>
+      <c r="H50" t="s">
+        <v>104</v>
+      </c>
+      <c r="I50" t="s">
+        <v>99</v>
+      </c>
+      <c r="J50" t="s">
+        <v>101</v>
+      </c>
     </row>
     <row r="51" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A51" s="4"/>
       <c r="B51" t="s">
-        <v>76</v>
-      </c>
-      <c r="C51" s="6"/>
-      <c r="D51" s="6">
+        <v>72</v>
+      </c>
+      <c r="C51" s="5"/>
+      <c r="D51" s="5">
         <v>40.015500000000003</v>
       </c>
-      <c r="E51" s="14">
+      <c r="E51" s="9">
         <v>-105.324566</v>
       </c>
       <c r="F51">
         <v>631</v>
       </c>
-      <c r="G51" s="6"/>
-      <c r="H51" s="14"/>
-      <c r="K51" s="6"/>
+      <c r="G51" t="s">
+        <v>102</v>
+      </c>
+      <c r="H51" t="s">
+        <v>104</v>
+      </c>
+      <c r="I51" t="s">
+        <v>99</v>
+      </c>
+      <c r="J51" t="s">
+        <v>101</v>
+      </c>
+      <c r="K51" s="5"/>
     </row>
     <row r="52" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A52" s="4"/>
       <c r="B52" t="s">
-        <v>77</v>
-      </c>
-      <c r="C52" s="6"/>
-      <c r="D52" s="6">
+        <v>73</v>
+      </c>
+      <c r="C52" s="5"/>
+      <c r="D52" s="5">
         <v>40.036102999999997</v>
       </c>
-      <c r="E52" s="14">
+      <c r="E52" s="9">
         <v>-105.43910099999999</v>
       </c>
       <c r="F52">
         <v>259</v>
+      </c>
+      <c r="G52" t="s">
+        <v>102</v>
+      </c>
+      <c r="H52" t="s">
+        <v>100</v>
+      </c>
+      <c r="I52" t="s">
+        <v>99</v>
+      </c>
+      <c r="J52" t="s">
+        <v>101</v>
       </c>
     </row>
     <row r="53" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A53" s="4"/>
       <c r="B53" t="s">
-        <v>78</v>
-      </c>
-      <c r="C53" s="6"/>
-      <c r="D53" s="13">
+        <v>74</v>
+      </c>
+      <c r="C53" s="5"/>
+      <c r="D53">
         <v>40.037790999999999</v>
       </c>
-      <c r="E53" s="15">
+      <c r="E53" s="10">
         <v>-105.42124699999999</v>
       </c>
       <c r="F53">
         <v>290</v>
       </c>
-    </row>
-    <row r="54" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A54" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="B54" s="4"/>
-      <c r="C54" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="D54">
+      <c r="G53" t="s">
+        <v>102</v>
+      </c>
+      <c r="H53" t="s">
+        <v>100</v>
+      </c>
+      <c r="I53" t="s">
+        <v>99</v>
+      </c>
+      <c r="J53" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="54" spans="1:11" s="13" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A54" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="B54" s="11"/>
+      <c r="C54" s="18" t="s">
+        <v>19</v>
+      </c>
+      <c r="D54" s="13">
         <v>40.050263700000002</v>
       </c>
-      <c r="E54">
+      <c r="E54" s="13">
         <v>-105.3666599</v>
       </c>
     </row>
     <row r="55" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A55" s="4"/>
       <c r="B55" t="s">
-        <v>74</v>
-      </c>
-      <c r="C55" s="6"/>
-      <c r="D55" s="6">
+        <v>70</v>
+      </c>
+      <c r="C55" s="5"/>
+      <c r="D55" s="5">
         <v>40.039045999999999</v>
       </c>
-      <c r="E55" s="14">
+      <c r="E55" s="9">
         <v>-105.393878</v>
       </c>
       <c r="F55">
         <v>370</v>
       </c>
-      <c r="H55" s="13"/>
-      <c r="I55" s="15"/>
+      <c r="G55" t="s">
+        <v>102</v>
+      </c>
+      <c r="H55" t="s">
+        <v>100</v>
+      </c>
+      <c r="I55" t="s">
+        <v>99</v>
+      </c>
+      <c r="J55" t="s">
+        <v>101</v>
+      </c>
     </row>
     <row r="56" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A56" s="4"/>
       <c r="B56" t="s">
-        <v>75</v>
-      </c>
-      <c r="C56" s="6"/>
-      <c r="D56" s="6">
+        <v>71</v>
+      </c>
+      <c r="C56" s="5"/>
+      <c r="D56" s="5">
         <v>40.041668000000001</v>
       </c>
-      <c r="E56" s="14">
+      <c r="E56" s="9">
         <v>-105.364823</v>
       </c>
       <c r="F56">
         <v>500</v>
+      </c>
+      <c r="G56" t="s">
+        <v>102</v>
+      </c>
+      <c r="H56" t="s">
+        <v>104</v>
+      </c>
+      <c r="I56" t="s">
+        <v>99</v>
+      </c>
+      <c r="J56" t="s">
+        <v>101</v>
       </c>
     </row>
     <row r="57" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A57" s="4"/>
       <c r="B57" t="s">
-        <v>76</v>
-      </c>
-      <c r="C57" s="6"/>
-      <c r="D57" s="6">
+        <v>72</v>
+      </c>
+      <c r="C57" s="5"/>
+      <c r="D57" s="5">
         <v>40.015500000000003</v>
       </c>
-      <c r="E57" s="14">
+      <c r="E57" s="9">
         <v>-105.324566</v>
       </c>
       <c r="F57">
         <v>631</v>
+      </c>
+      <c r="G57" t="s">
+        <v>102</v>
+      </c>
+      <c r="H57" t="s">
+        <v>104</v>
+      </c>
+      <c r="I57" t="s">
+        <v>99</v>
+      </c>
+      <c r="J57" t="s">
+        <v>101</v>
       </c>
     </row>
     <row r="58" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A58" s="4"/>
       <c r="B58" t="s">
-        <v>77</v>
-      </c>
-      <c r="C58" s="6"/>
-      <c r="D58" s="6">
+        <v>73</v>
+      </c>
+      <c r="C58" s="5"/>
+      <c r="D58" s="5">
         <v>40.036102999999997</v>
       </c>
-      <c r="E58" s="14">
+      <c r="E58" s="9">
         <v>-105.43910099999999</v>
       </c>
       <c r="F58">
         <v>259</v>
       </c>
-    </row>
-    <row r="59" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A59" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="B59" s="4"/>
-      <c r="C59" t="s">
-        <v>25</v>
-      </c>
-      <c r="D59">
+      <c r="G58" t="s">
+        <v>102</v>
+      </c>
+      <c r="H58" t="s">
+        <v>100</v>
+      </c>
+      <c r="I58" t="s">
+        <v>99</v>
+      </c>
+      <c r="J58" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="59" spans="1:11" s="13" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A59" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="B59" s="11"/>
+      <c r="C59" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="D59" s="13">
         <v>36.095348999999999</v>
       </c>
-      <c r="E59">
+      <c r="E59" s="13">
         <v>-82.265000000000001</v>
       </c>
     </row>
     <row r="60" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A60" s="4"/>
       <c r="B60" s="4" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="D60">
         <v>34.937945999999997</v>
@@ -1646,12 +2321,24 @@
       </c>
       <c r="F60">
         <v>36.6</v>
+      </c>
+      <c r="G60">
+        <v>0</v>
+      </c>
+      <c r="H60" t="s">
+        <v>96</v>
+      </c>
+      <c r="I60" t="s">
+        <v>96</v>
+      </c>
+      <c r="J60" t="s">
+        <v>100</v>
       </c>
     </row>
     <row r="61" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A61" s="4"/>
       <c r="B61" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="D61">
         <v>34.920959000000003</v>
@@ -1662,20 +2349,32 @@
       <c r="F61">
         <v>21.8</v>
       </c>
-    </row>
-    <row r="62" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A62" s="11" t="s">
-        <v>26</v>
-      </c>
-      <c r="B62" s="4"/>
-      <c r="C62" t="s">
-        <v>27</v>
+      <c r="G61">
+        <v>31.3</v>
+      </c>
+      <c r="H61" t="s">
+        <v>96</v>
+      </c>
+      <c r="I61" t="s">
+        <v>96</v>
+      </c>
+      <c r="J61" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="62" spans="1:11" s="13" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A62" s="15" t="s">
+        <v>23</v>
+      </c>
+      <c r="B62" s="11"/>
+      <c r="C62" s="12" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="63" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A63" s="4"/>
       <c r="B63" s="4" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="D63">
         <v>38.868000000000002</v>
@@ -1685,12 +2384,24 @@
       </c>
       <c r="F63">
         <v>66.400000000000006</v>
+      </c>
+      <c r="G63">
+        <v>74</v>
+      </c>
+      <c r="H63" t="s">
+        <v>96</v>
+      </c>
+      <c r="I63" t="s">
+        <v>96</v>
+      </c>
+      <c r="J63" t="s">
+        <v>101</v>
       </c>
     </row>
     <row r="64" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A64" s="4"/>
       <c r="B64" s="4" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="D64">
         <v>38.880000000000003</v>
@@ -1698,12 +2409,24 @@
       <c r="E64">
         <v>-120.041</v>
       </c>
-      <c r="F64" s="10"/>
-    </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="F64" s="7"/>
+      <c r="G64" t="s">
+        <v>102</v>
+      </c>
+      <c r="H64" t="s">
+        <v>99</v>
+      </c>
+      <c r="I64" t="s">
+        <v>99</v>
+      </c>
+      <c r="J64" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="65" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A65" s="4"/>
       <c r="B65" s="4" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="D65">
         <v>38.878999999999998</v>
@@ -1714,11 +2437,23 @@
       <c r="F65">
         <v>83.9</v>
       </c>
-    </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G65">
+        <v>41</v>
+      </c>
+      <c r="H65" t="s">
+        <v>96</v>
+      </c>
+      <c r="I65" t="s">
+        <v>96</v>
+      </c>
+      <c r="J65" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="66" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A66" s="4"/>
       <c r="B66" s="4" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="D66">
         <v>38.872999999999998</v>
@@ -1729,55 +2464,91 @@
       <c r="F66">
         <v>150.30000000000001</v>
       </c>
-    </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A67" s="11" t="s">
-        <v>28</v>
-      </c>
-      <c r="B67" s="4"/>
-      <c r="C67" t="s">
-        <v>29</v>
-      </c>
-      <c r="D67" s="8"/>
-      <c r="E67" s="8"/>
-    </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G66">
+        <v>56</v>
+      </c>
+      <c r="H66" t="s">
+        <v>96</v>
+      </c>
+      <c r="I66" t="s">
+        <v>96</v>
+      </c>
+      <c r="J66" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="67" spans="1:10" s="13" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A67" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="B67" s="11"/>
+      <c r="C67" s="13" t="s">
+        <v>26</v>
+      </c>
+      <c r="D67" s="19"/>
+      <c r="E67" s="19"/>
+    </row>
+    <row r="68" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A68" s="4"/>
       <c r="B68" t="s">
-        <v>85</v>
-      </c>
-      <c r="D68" s="12"/>
-      <c r="E68" s="12"/>
+        <v>81</v>
+      </c>
+      <c r="D68" s="8"/>
+      <c r="E68" s="8"/>
       <c r="F68">
         <v>68</v>
       </c>
-    </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G68" t="s">
+        <v>102</v>
+      </c>
+      <c r="H68" t="s">
+        <v>96</v>
+      </c>
+      <c r="I68" t="s">
+        <v>105</v>
+      </c>
+      <c r="J68" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="69" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A69" s="4"/>
       <c r="B69" t="s">
-        <v>86</v>
-      </c>
-      <c r="D69" s="12"/>
-      <c r="E69" s="12"/>
+        <v>82</v>
+      </c>
+      <c r="D69" s="8"/>
+      <c r="E69" s="8"/>
       <c r="F69">
         <v>280</v>
       </c>
-    </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A70" s="11" t="s">
-        <v>30</v>
-      </c>
-      <c r="B70" s="4"/>
-      <c r="C70" s="6" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G69" t="s">
+        <v>102</v>
+      </c>
+      <c r="H69" t="s">
+        <v>96</v>
+      </c>
+      <c r="I69" t="s">
+        <v>105</v>
+      </c>
+      <c r="J69" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="70" spans="1:10" s="13" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A70" s="15" t="s">
+        <v>27</v>
+      </c>
+      <c r="B70" s="11"/>
+      <c r="C70" s="18" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="71" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A71" s="4"/>
       <c r="B71" t="s">
-        <v>87</v>
-      </c>
-      <c r="C71" s="6"/>
+        <v>83</v>
+      </c>
+      <c r="C71" s="5"/>
       <c r="D71">
         <v>38.451371999999999</v>
       </c>
@@ -1787,52 +2558,88 @@
       <c r="F71">
         <v>78</v>
       </c>
-    </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G71" t="s">
+        <v>102</v>
+      </c>
+      <c r="H71" t="s">
+        <v>96</v>
+      </c>
+      <c r="I71" t="s">
+        <v>99</v>
+      </c>
+      <c r="J71" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="72" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A72" s="4"/>
       <c r="B72" s="4" t="s">
-        <v>88</v>
-      </c>
-      <c r="C72" s="6"/>
-      <c r="D72" s="8">
+        <v>84</v>
+      </c>
+      <c r="C72" s="5"/>
+      <c r="D72" s="6">
         <v>38.923563999999999</v>
       </c>
-      <c r="E72" s="8">
+      <c r="E72" s="6">
         <v>122.32647799999999</v>
       </c>
       <c r="F72">
         <v>3017</v>
       </c>
-    </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G72" t="s">
+        <v>102</v>
+      </c>
+      <c r="H72" t="s">
+        <v>96</v>
+      </c>
+      <c r="I72" t="s">
+        <v>99</v>
+      </c>
+      <c r="J72" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="73" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A73" s="4"/>
       <c r="B73" s="4" t="s">
-        <v>89</v>
-      </c>
-      <c r="C73" s="6"/>
+        <v>85</v>
+      </c>
+      <c r="C73" s="5"/>
       <c r="D73">
         <v>38.512031</v>
       </c>
       <c r="E73">
         <v>122.097228</v>
       </c>
-      <c r="F73" s="10"/>
-    </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A74" s="11" t="s">
-        <v>32</v>
-      </c>
-      <c r="B74" s="4"/>
-      <c r="C74" t="s">
-        <v>33</v>
-      </c>
-      <c r="D74" s="9"/>
-      <c r="E74" s="9"/>
-    </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="F73" s="7"/>
+      <c r="G73" t="s">
+        <v>102</v>
+      </c>
+      <c r="H73" t="s">
+        <v>99</v>
+      </c>
+      <c r="I73" t="s">
+        <v>99</v>
+      </c>
+      <c r="J73" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="74" spans="1:10" s="13" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A74" s="15" t="s">
+        <v>29</v>
+      </c>
+      <c r="B74" s="11"/>
+      <c r="C74" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="D74" s="20"/>
+      <c r="E74" s="20"/>
+    </row>
+    <row r="75" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A75" s="4"/>
       <c r="B75" s="4" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="D75">
         <v>40.728676</v>
@@ -1843,11 +2650,23 @@
       <c r="F75">
         <v>6184.6</v>
       </c>
-    </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G75" t="s">
+        <v>102</v>
+      </c>
+      <c r="H75" t="s">
+        <v>100</v>
+      </c>
+      <c r="I75" t="s">
+        <v>105</v>
+      </c>
+      <c r="J75" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="76" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A76" s="4"/>
       <c r="B76" s="4" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="D76">
         <v>40.709603999999999</v>
@@ -1858,11 +2677,23 @@
       <c r="F76">
         <v>9632.6</v>
       </c>
-    </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G76" t="s">
+        <v>102</v>
+      </c>
+      <c r="H76" t="s">
+        <v>100</v>
+      </c>
+      <c r="I76" t="s">
+        <v>105</v>
+      </c>
+      <c r="J76" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="77" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A77" s="4"/>
       <c r="B77" s="4" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="D77">
         <v>40.701225999999998</v>
@@ -1873,19 +2704,31 @@
       <c r="F77">
         <v>12551.5</v>
       </c>
-    </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A78" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="B78" s="4"/>
-      <c r="C78" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G77" t="s">
+        <v>102</v>
+      </c>
+      <c r="H77" t="s">
+        <v>100</v>
+      </c>
+      <c r="I77" t="s">
+        <v>105</v>
+      </c>
+      <c r="J77" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="78" spans="1:10" s="13" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A78" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="B78" s="11"/>
+      <c r="C78" s="13" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="79" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B79" s="4" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="D79">
         <v>40.728676</v>
@@ -1896,10 +2739,22 @@
       <c r="F79">
         <v>6184.6</v>
       </c>
-    </row>
-    <row r="80" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G79" t="s">
+        <v>102</v>
+      </c>
+      <c r="H79" t="s">
+        <v>100</v>
+      </c>
+      <c r="I79" t="s">
+        <v>105</v>
+      </c>
+      <c r="J79" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="80" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B80" s="4" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="D80">
         <v>40.709603999999999</v>
@@ -1910,10 +2765,22 @@
       <c r="F80">
         <v>9632.6</v>
       </c>
-    </row>
-    <row r="81" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="G80" t="s">
+        <v>102</v>
+      </c>
+      <c r="H80" t="s">
+        <v>100</v>
+      </c>
+      <c r="I80" t="s">
+        <v>105</v>
+      </c>
+      <c r="J80" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="81" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B81" s="4" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="D81">
         <v>40.701225999999998</v>
@@ -1923,6 +2790,18 @@
       </c>
       <c r="F81">
         <v>12551.5</v>
+      </c>
+      <c r="G81" t="s">
+        <v>102</v>
+      </c>
+      <c r="H81" t="s">
+        <v>100</v>
+      </c>
+      <c r="I81" t="s">
+        <v>105</v>
+      </c>
+      <c r="J81" t="s">
+        <v>100</v>
       </c>
     </row>
   </sheetData>

--- a/FireMeta_Rproj/inputs/Studies_Summary/Fire_name_Lat_Long.xlsx
+++ b/FireMeta_Rproj/inputs/Studies_Summary/Fire_name_Lat_Long.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/cava304/GitHub/rc_sfa-rc-3-wenas-meta/FireMeta_Rproj/inputs/Studies_Summary/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4C24A021-4ABD-C64F-9345-E4A73E2A256C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4BA2E940-EFEE-EC41-BE41-F14841817A03}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="740" windowWidth="30240" windowHeight="18900" xr2:uid="{8C258C6F-044A-E849-9C14-F26FA5F5AA92}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="17260" activeTab="1" xr2:uid="{8C258C6F-044A-E849-9C14-F26FA5F5AA92}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Temporal Normalization Studies" sheetId="1" r:id="rId1"/>
+    <sheet name="Fires we don’t have yet" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -36,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="327" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="350" uniqueCount="125">
   <si>
     <t>Study</t>
   </si>
@@ -65,9 +66,6 @@
     <t>Crandall et al. 2021</t>
   </si>
   <si>
-    <t>Pole Creek Fire Complex</t>
-  </si>
-  <si>
     <t>Gerla &amp; Galloway, 1998</t>
   </si>
   <si>
@@ -102,9 +100,6 @@
   </si>
   <si>
     <t>Neary &amp; Currier, 1982</t>
-  </si>
-  <si>
-    <t>Jumping Branch Wildfire</t>
   </si>
   <si>
     <t>Oliver et al. 2012</t>
@@ -328,19 +323,6 @@
     </r>
   </si>
   <si>
-    <r>
-      <t>Hewlett Gulch_</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="9"/>
-        <rFont val="Calibri (Body)"/>
-      </rPr>
-      <t>High Park fire</t>
-    </r>
-  </si>
-  <si>
     <t>Watershed_Size</t>
   </si>
   <si>
@@ -392,6 +374,92 @@
   <si>
     <t>N_Hampton has values</t>
   </si>
+  <si>
+    <t>Pole Creek Fire Complex (2008)</t>
+  </si>
+  <si>
+    <t>Jumping Branch Wildfire (1978)</t>
+  </si>
+  <si>
+    <r>
+      <t>Hewlett Gulch (2012)_</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="9"/>
+        <rFont val="Calibri (Body)"/>
+      </rPr>
+      <t>High Park fire</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="9"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> (2012)</t>
+    </r>
+  </si>
+  <si>
+    <t>Anaktuvuk River wildfire (2007)</t>
+  </si>
+  <si>
+    <t>Boundary Fire (2004)</t>
+  </si>
+  <si>
+    <t>Jesusita Fire</t>
+  </si>
+  <si>
+    <t>Lost Creek Wildfire (2003)</t>
+  </si>
+  <si>
+    <t>No name given (2002)</t>
+  </si>
+  <si>
+    <t>No name given (2007)</t>
+  </si>
+  <si>
+    <t>Yosemite NP Fire</t>
+  </si>
+  <si>
+    <t>Mosquito Fire (2002)</t>
+  </si>
+  <si>
+    <t>Trapper Fire (2003)</t>
+  </si>
+  <si>
+    <t>Jumping Branch Fire (1978)</t>
+  </si>
+  <si>
+    <t>Safety Harbor fire (1970)</t>
+  </si>
+  <si>
+    <t>Fire Name</t>
+  </si>
+  <si>
+    <t>Matt Fire (1985)</t>
+  </si>
+  <si>
+    <t>Tellico Fire (2016)</t>
+  </si>
+  <si>
+    <t>Hewlett Gulch (2012)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> –119.71012 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">37.534037	</t>
+  </si>
+  <si>
+    <t xml:space="preserve">44.9108	</t>
+  </si>
+  <si>
+    <t xml:space="preserve">44.578525	</t>
+  </si>
 </sst>
 </file>
 
@@ -400,7 +468,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.000"/>
   </numFmts>
-  <fonts count="14" x14ac:knownFonts="1">
+  <fonts count="15" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -492,6 +560,12 @@
       <name val="Calibri"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF211D1E"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="4">
     <fill>
@@ -525,7 +599,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="35">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -548,6 +622,19 @@
     <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="164" fontId="7" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -864,9 +951,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FE608700-CF3C-DE4E-8B7D-38FBD72A91DD}">
   <dimension ref="A1:K81"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="J81" sqref="J81"/>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A34" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D40" sqref="D40:E40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -886,7 +973,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C1" s="2" t="s">
         <v>1</v>
@@ -898,19 +985,19 @@
         <v>3</v>
       </c>
       <c r="F1" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="I1" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="G1" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="I1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>95</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>98</v>
       </c>
     </row>
     <row r="2" spans="1:10" s="13" customFormat="1" x14ac:dyDescent="0.2">
@@ -925,7 +1012,7 @@
     <row r="3" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A3" s="4"/>
       <c r="B3" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="D3">
         <v>61.4</v>
@@ -940,19 +1027,19 @@
         <v>0</v>
       </c>
       <c r="H3" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="I3" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="J3" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A4" s="4"/>
       <c r="B4" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="D4">
         <v>61.133333</v>
@@ -964,16 +1051,16 @@
         <v>321</v>
       </c>
       <c r="G4" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="H4" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="I4" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="J4" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
     </row>
     <row r="5" spans="1:10" s="13" customFormat="1" x14ac:dyDescent="0.2">
@@ -988,7 +1075,7 @@
     <row r="6" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A6" s="4"/>
       <c r="B6" s="4" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="D6">
         <v>34.472966</v>
@@ -1003,19 +1090,19 @@
         <v>82</v>
       </c>
       <c r="H6" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="I6" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="J6" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A7" s="4"/>
       <c r="B7" s="4" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="D7">
         <v>34.477563000000004</v>
@@ -1030,19 +1117,19 @@
         <v>12</v>
       </c>
       <c r="H7" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="I7" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="J7" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A8" s="4"/>
       <c r="B8" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="D8">
         <v>34.475085999999997</v>
@@ -1057,19 +1144,19 @@
         <v>18</v>
       </c>
       <c r="H8" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="I8" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="J8" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A9" s="4"/>
       <c r="B9" s="4" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D9">
         <v>35.526656000000003</v>
@@ -1081,16 +1168,16 @@
         <v>5.74</v>
       </c>
       <c r="G9" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="H9" t="s">
+        <v>93</v>
+      </c>
+      <c r="I9" t="s">
         <v>96</v>
       </c>
-      <c r="I9" t="s">
-        <v>99</v>
-      </c>
       <c r="J9" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
     </row>
     <row r="10" spans="1:10" s="13" customFormat="1" x14ac:dyDescent="0.2">
@@ -1099,7 +1186,7 @@
       </c>
       <c r="B10" s="11"/>
       <c r="C10" s="13" t="s">
-        <v>9</v>
+        <v>103</v>
       </c>
       <c r="D10" s="14"/>
       <c r="E10" s="14"/>
@@ -1107,7 +1194,7 @@
     <row r="11" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A11" s="4"/>
       <c r="B11" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="D11">
         <v>40.133513999999998</v>
@@ -1122,19 +1209,19 @@
         <v>67</v>
       </c>
       <c r="H11" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="I11" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="J11" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A12" s="4"/>
       <c r="B12" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="D12">
         <v>40.180647</v>
@@ -1149,19 +1236,19 @@
         <v>0</v>
       </c>
       <c r="H12" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="I12" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="J12" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A13" s="4"/>
       <c r="B13" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="D13">
         <v>40.191034999999999</v>
@@ -1176,19 +1263,19 @@
         <v>0</v>
       </c>
       <c r="H13" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="I13" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="J13" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A14" s="4"/>
       <c r="B14" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="D14">
         <v>40.158754000000002</v>
@@ -1203,19 +1290,19 @@
         <v>0</v>
       </c>
       <c r="H14" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="I14" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="J14" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A15" s="4"/>
       <c r="B15" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="D15">
         <v>40.200989</v>
@@ -1230,19 +1317,19 @@
         <v>0</v>
       </c>
       <c r="H15" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="I15" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="J15" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A16" s="4"/>
       <c r="B16" s="4" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="D16">
         <v>40.192393000000003</v>
@@ -1257,19 +1344,19 @@
         <v>0</v>
       </c>
       <c r="H16" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="I16" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="J16" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A17" s="4"/>
       <c r="B17" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="D17">
         <v>39.987803999999997</v>
@@ -1284,19 +1371,19 @@
         <v>90</v>
       </c>
       <c r="H17" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="I17" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="J17" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A18" s="4"/>
       <c r="B18" s="4" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="D18">
         <v>40.234889000000003</v>
@@ -1311,19 +1398,19 @@
         <v>0</v>
       </c>
       <c r="H18" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="I18" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="J18" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A19" s="4"/>
       <c r="B19" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="D19">
         <v>40.071703999999997</v>
@@ -1338,19 +1425,19 @@
         <v>24</v>
       </c>
       <c r="H19" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="I19" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="J19" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A20" s="4"/>
       <c r="B20" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="D20">
         <v>40.071703999999997</v>
@@ -1365,28 +1452,28 @@
         <v>25</v>
       </c>
       <c r="H20" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="I20" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="J20" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
     </row>
     <row r="21" spans="1:10" s="13" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A21" s="11" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B21" s="11"/>
       <c r="C21" s="12" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A22" s="4"/>
       <c r="B22" s="4" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="D22">
         <v>44.515999999999998</v>
@@ -1398,22 +1485,22 @@
         <v>494.6</v>
       </c>
       <c r="G22" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="H22" t="s">
+        <v>93</v>
+      </c>
+      <c r="I22" t="s">
         <v>96</v>
       </c>
-      <c r="I22" t="s">
-        <v>99</v>
-      </c>
       <c r="J22" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A23" s="4"/>
       <c r="B23" s="4" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="D23">
         <v>44.555</v>
@@ -1425,25 +1512,25 @@
         <v>642.29999999999995</v>
       </c>
       <c r="G23" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="H23" t="s">
+        <v>93</v>
+      </c>
+      <c r="I23" t="s">
         <v>96</v>
       </c>
-      <c r="I23" t="s">
-        <v>99</v>
-      </c>
       <c r="J23" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
     </row>
     <row r="24" spans="1:10" s="13" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A24" s="15" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B24" s="11"/>
       <c r="C24" s="13" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D24" s="16"/>
       <c r="E24" s="16"/>
@@ -1451,7 +1538,7 @@
     <row r="25" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A25" s="4"/>
       <c r="B25" s="4" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="D25">
         <v>49.704340000000002</v>
@@ -1466,19 +1553,19 @@
         <v>26.1</v>
       </c>
       <c r="H25" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="I25" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="J25" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A26" s="4"/>
       <c r="B26" s="4" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="D26">
         <v>49.712888</v>
@@ -1493,19 +1580,19 @@
         <v>32.799999999999997</v>
       </c>
       <c r="H26" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="I26" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="J26" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A27" s="4"/>
       <c r="B27" s="4" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="D27">
         <v>49.706719</v>
@@ -1520,22 +1607,22 @@
         <v>0</v>
       </c>
       <c r="H27" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="I27" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="J27" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
     </row>
     <row r="28" spans="1:10" s="13" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A28" s="11" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B28" s="11"/>
       <c r="C28" s="12" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D28" s="17"/>
       <c r="E28" s="17"/>
@@ -1543,7 +1630,7 @@
     <row r="29" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A29" s="4"/>
       <c r="B29" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="D29">
         <v>48.81409</v>
@@ -1558,19 +1645,19 @@
         <v>95.6</v>
       </c>
       <c r="H29" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="I29" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="J29" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A30" s="4"/>
       <c r="B30" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="D30">
         <v>48.793787000000002</v>
@@ -1585,19 +1672,19 @@
         <v>0</v>
       </c>
       <c r="H30" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="I30" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="J30" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
     </row>
     <row r="31" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A31" s="4"/>
       <c r="B31" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="D31">
         <v>48.802771999999997</v>
@@ -1612,19 +1699,19 @@
         <v>16.2</v>
       </c>
       <c r="H31" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="I31" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="J31" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
     </row>
     <row r="32" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A32" s="4"/>
       <c r="B32" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="D32">
         <v>48.688412999999997</v>
@@ -1639,19 +1726,19 @@
         <v>0</v>
       </c>
       <c r="H32" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="I32" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="J32" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
     </row>
     <row r="33" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A33" s="4"/>
       <c r="B33" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="D33">
         <v>48.902925000000003</v>
@@ -1666,19 +1753,19 @@
         <v>0</v>
       </c>
       <c r="H33" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="I33" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="J33" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
     </row>
     <row r="34" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A34" s="4"/>
       <c r="B34" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="D34">
         <v>48.814951999999998</v>
@@ -1693,19 +1780,19 @@
         <v>9.9</v>
       </c>
       <c r="H34" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="I34" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="J34" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
     </row>
     <row r="35" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A35" s="4"/>
       <c r="B35" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="D35">
         <v>48.936976000000001</v>
@@ -1720,19 +1807,19 @@
         <v>11.3</v>
       </c>
       <c r="H35" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="I35" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="J35" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
     </row>
     <row r="36" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A36" s="4"/>
       <c r="B36" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="D36">
         <v>48.866349</v>
@@ -1747,27 +1834,27 @@
         <v>29.4</v>
       </c>
       <c r="H36" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="I36" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="J36" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
     </row>
     <row r="37" spans="1:10" s="13" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A37" s="15" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C37" s="13" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
     </row>
     <row r="38" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A38" s="4"/>
       <c r="B38" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="D38">
         <v>38.883760000000002</v>
@@ -1777,22 +1864,22 @@
       </c>
       <c r="F38" s="7"/>
       <c r="G38" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="H38" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="I38" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="J38" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
     </row>
     <row r="39" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A39" s="4"/>
       <c r="B39" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="D39">
         <v>38.898688999999997</v>
@@ -1802,22 +1889,22 @@
       </c>
       <c r="F39" s="7"/>
       <c r="G39" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="H39" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="I39" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="J39" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
     </row>
     <row r="40" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A40" s="4"/>
       <c r="B40" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="D40">
         <v>38.958700999999998</v>
@@ -1827,22 +1914,22 @@
       </c>
       <c r="F40" s="7"/>
       <c r="G40" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="H40" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="I40" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="J40" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
     </row>
     <row r="41" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A41" s="4"/>
       <c r="B41" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="D41">
         <v>39.000053000000001</v>
@@ -1852,25 +1939,25 @@
       </c>
       <c r="F41" s="7"/>
       <c r="G41" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="H41" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="I41" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="J41" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
     </row>
     <row r="42" spans="1:10" s="13" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A42" s="11" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B42" s="11"/>
       <c r="C42" s="12" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="D42" s="16"/>
       <c r="E42" s="16"/>
@@ -1878,7 +1965,7 @@
     <row r="43" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A43" s="4"/>
       <c r="B43" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="D43">
         <v>39.906348000000001</v>
@@ -1893,19 +1980,19 @@
         <v>51</v>
       </c>
       <c r="H43" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="I43" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="J43" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
     </row>
     <row r="44" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A44" s="4"/>
       <c r="B44" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="D44">
         <v>48.422220000000003</v>
@@ -1920,19 +2007,19 @@
         <v>0</v>
       </c>
       <c r="H44" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="I44" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="J44" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
     </row>
     <row r="45" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A45" s="4"/>
       <c r="B45" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="D45">
         <v>48.54888888</v>
@@ -1947,19 +2034,19 @@
         <v>73</v>
       </c>
       <c r="H45" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="I45" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="J45" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
     </row>
     <row r="46" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A46" s="4"/>
       <c r="B46" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="D46">
         <v>48.635277780000003</v>
@@ -1974,19 +2061,19 @@
         <v>30</v>
       </c>
       <c r="H46" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="I46" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="J46" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
     </row>
     <row r="47" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A47" s="4"/>
       <c r="B47" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="D47">
         <v>48.635277780000003</v>
@@ -2001,22 +2088,22 @@
         <v>26</v>
       </c>
       <c r="H47" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="I47" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="J47" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
     </row>
     <row r="48" spans="1:10" s="13" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A48" s="15" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B48" s="11"/>
       <c r="C48" s="18" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D48" s="13">
         <v>40.033332999999999</v>
@@ -2028,7 +2115,7 @@
     <row r="49" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A49" s="4"/>
       <c r="B49" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="C49" s="5"/>
       <c r="D49" s="5">
@@ -2041,22 +2128,22 @@
         <v>370</v>
       </c>
       <c r="G49" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="H49" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="I49" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="J49" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
     </row>
     <row r="50" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A50" s="4"/>
       <c r="B50" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="C50" s="5"/>
       <c r="D50" s="5">
@@ -2069,22 +2156,22 @@
         <v>500</v>
       </c>
       <c r="G50" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="H50" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="I50" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="J50" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
     </row>
     <row r="51" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A51" s="4"/>
       <c r="B51" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="C51" s="5"/>
       <c r="D51" s="5">
@@ -2097,23 +2184,23 @@
         <v>631</v>
       </c>
       <c r="G51" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="H51" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="I51" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="J51" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="K51" s="5"/>
     </row>
     <row r="52" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A52" s="4"/>
       <c r="B52" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="C52" s="5"/>
       <c r="D52" s="5">
@@ -2126,22 +2213,22 @@
         <v>259</v>
       </c>
       <c r="G52" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="H52" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="I52" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="J52" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
     </row>
     <row r="53" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A53" s="4"/>
       <c r="B53" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="C53" s="5"/>
       <c r="D53">
@@ -2154,25 +2241,25 @@
         <v>290</v>
       </c>
       <c r="G53" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="H53" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="I53" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="J53" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
     </row>
     <row r="54" spans="1:11" s="13" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A54" s="15" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B54" s="11"/>
       <c r="C54" s="18" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D54" s="13">
         <v>40.050263700000002</v>
@@ -2184,7 +2271,7 @@
     <row r="55" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A55" s="4"/>
       <c r="B55" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="C55" s="5"/>
       <c r="D55" s="5">
@@ -2197,22 +2284,22 @@
         <v>370</v>
       </c>
       <c r="G55" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="H55" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="I55" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="J55" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
     </row>
     <row r="56" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A56" s="4"/>
       <c r="B56" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="C56" s="5"/>
       <c r="D56" s="5">
@@ -2225,22 +2312,22 @@
         <v>500</v>
       </c>
       <c r="G56" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="H56" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="I56" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="J56" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
     </row>
     <row r="57" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A57" s="4"/>
       <c r="B57" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="C57" s="5"/>
       <c r="D57" s="5">
@@ -2253,22 +2340,22 @@
         <v>631</v>
       </c>
       <c r="G57" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="H57" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="I57" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="J57" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
     </row>
     <row r="58" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A58" s="4"/>
       <c r="B58" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="C58" s="5"/>
       <c r="D58" s="5">
@@ -2281,25 +2368,25 @@
         <v>259</v>
       </c>
       <c r="G58" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="H58" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="I58" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="J58" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
     </row>
     <row r="59" spans="1:11" s="13" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A59" s="11" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B59" s="11"/>
       <c r="C59" s="13" t="s">
-        <v>22</v>
+        <v>104</v>
       </c>
       <c r="D59" s="13">
         <v>36.095348999999999</v>
@@ -2311,7 +2398,7 @@
     <row r="60" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A60" s="4"/>
       <c r="B60" s="4" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="D60">
         <v>34.937945999999997</v>
@@ -2326,19 +2413,19 @@
         <v>0</v>
       </c>
       <c r="H60" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="I60" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="J60" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
     </row>
     <row r="61" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A61" s="4"/>
       <c r="B61" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="D61">
         <v>34.920959000000003</v>
@@ -2353,28 +2440,28 @@
         <v>31.3</v>
       </c>
       <c r="H61" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="I61" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="J61" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
     </row>
     <row r="62" spans="1:11" s="13" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A62" s="15" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B62" s="11"/>
       <c r="C62" s="12" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
     </row>
     <row r="63" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A63" s="4"/>
       <c r="B63" s="4" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="D63">
         <v>38.868000000000002</v>
@@ -2389,19 +2476,19 @@
         <v>74</v>
       </c>
       <c r="H63" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="I63" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="J63" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
     </row>
     <row r="64" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A64" s="4"/>
       <c r="B64" s="4" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="D64">
         <v>38.880000000000003</v>
@@ -2411,22 +2498,22 @@
       </c>
       <c r="F64" s="7"/>
       <c r="G64" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="H64" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="I64" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="J64" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
     </row>
     <row r="65" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A65" s="4"/>
       <c r="B65" s="4" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="D65">
         <v>38.878999999999998</v>
@@ -2441,19 +2528,19 @@
         <v>41</v>
       </c>
       <c r="H65" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="I65" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="J65" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
     </row>
     <row r="66" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A66" s="4"/>
       <c r="B66" s="4" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="D66">
         <v>38.872999999999998</v>
@@ -2468,22 +2555,22 @@
         <v>56</v>
       </c>
       <c r="H66" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="I66" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="J66" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
     </row>
     <row r="67" spans="1:10" s="13" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A67" s="15" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B67" s="11"/>
       <c r="C67" s="13" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D67" s="19"/>
       <c r="E67" s="19"/>
@@ -2491,7 +2578,7 @@
     <row r="68" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A68" s="4"/>
       <c r="B68" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="D68" s="8"/>
       <c r="E68" s="8"/>
@@ -2499,22 +2586,22 @@
         <v>68</v>
       </c>
       <c r="G68" t="s">
+        <v>99</v>
+      </c>
+      <c r="H68" t="s">
+        <v>93</v>
+      </c>
+      <c r="I68" t="s">
         <v>102</v>
       </c>
-      <c r="H68" t="s">
+      <c r="J68" t="s">
         <v>96</v>
-      </c>
-      <c r="I68" t="s">
-        <v>105</v>
-      </c>
-      <c r="J68" t="s">
-        <v>99</v>
       </c>
     </row>
     <row r="69" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A69" s="4"/>
       <c r="B69" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="D69" s="8"/>
       <c r="E69" s="8"/>
@@ -2522,31 +2609,31 @@
         <v>280</v>
       </c>
       <c r="G69" t="s">
+        <v>99</v>
+      </c>
+      <c r="H69" t="s">
+        <v>93</v>
+      </c>
+      <c r="I69" t="s">
         <v>102</v>
       </c>
-      <c r="H69" t="s">
+      <c r="J69" t="s">
         <v>96</v>
-      </c>
-      <c r="I69" t="s">
-        <v>105</v>
-      </c>
-      <c r="J69" t="s">
-        <v>99</v>
       </c>
     </row>
     <row r="70" spans="1:10" s="13" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A70" s="15" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B70" s="11"/>
       <c r="C70" s="18" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
     <row r="71" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A71" s="4"/>
       <c r="B71" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="C71" s="5"/>
       <c r="D71">
@@ -2559,22 +2646,22 @@
         <v>78</v>
       </c>
       <c r="G71" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="H71" t="s">
+        <v>93</v>
+      </c>
+      <c r="I71" t="s">
         <v>96</v>
       </c>
-      <c r="I71" t="s">
-        <v>99</v>
-      </c>
       <c r="J71" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
     </row>
     <row r="72" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A72" s="4"/>
       <c r="B72" s="4" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="C72" s="5"/>
       <c r="D72" s="6">
@@ -2587,22 +2674,22 @@
         <v>3017</v>
       </c>
       <c r="G72" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="H72" t="s">
+        <v>93</v>
+      </c>
+      <c r="I72" t="s">
         <v>96</v>
       </c>
-      <c r="I72" t="s">
-        <v>99</v>
-      </c>
       <c r="J72" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
     </row>
     <row r="73" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A73" s="4"/>
       <c r="B73" s="4" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="C73" s="5"/>
       <c r="D73">
@@ -2613,25 +2700,25 @@
       </c>
       <c r="F73" s="7"/>
       <c r="G73" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="H73" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="I73" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="J73" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
     </row>
     <row r="74" spans="1:10" s="13" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A74" s="15" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B74" s="11"/>
       <c r="C74" s="12" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="D74" s="20"/>
       <c r="E74" s="20"/>
@@ -2639,7 +2726,7 @@
     <row r="75" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A75" s="4"/>
       <c r="B75" s="4" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="D75">
         <v>40.728676</v>
@@ -2651,22 +2738,22 @@
         <v>6184.6</v>
       </c>
       <c r="G75" t="s">
+        <v>99</v>
+      </c>
+      <c r="H75" t="s">
+        <v>97</v>
+      </c>
+      <c r="I75" t="s">
         <v>102</v>
       </c>
-      <c r="H75" t="s">
-        <v>100</v>
-      </c>
-      <c r="I75" t="s">
-        <v>105</v>
-      </c>
       <c r="J75" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
     </row>
     <row r="76" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A76" s="4"/>
       <c r="B76" s="4" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="D76">
         <v>40.709603999999999</v>
@@ -2678,22 +2765,22 @@
         <v>9632.6</v>
       </c>
       <c r="G76" t="s">
+        <v>99</v>
+      </c>
+      <c r="H76" t="s">
+        <v>97</v>
+      </c>
+      <c r="I76" t="s">
         <v>102</v>
       </c>
-      <c r="H76" t="s">
-        <v>100</v>
-      </c>
-      <c r="I76" t="s">
-        <v>105</v>
-      </c>
       <c r="J76" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
     </row>
     <row r="77" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A77" s="4"/>
       <c r="B77" s="4" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="D77">
         <v>40.701225999999998</v>
@@ -2705,30 +2792,30 @@
         <v>12551.5</v>
       </c>
       <c r="G77" t="s">
+        <v>99</v>
+      </c>
+      <c r="H77" t="s">
+        <v>97</v>
+      </c>
+      <c r="I77" t="s">
         <v>102</v>
       </c>
-      <c r="H77" t="s">
-        <v>100</v>
-      </c>
-      <c r="I77" t="s">
-        <v>105</v>
-      </c>
       <c r="J77" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
     </row>
     <row r="78" spans="1:10" s="13" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A78" s="11" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B78" s="11"/>
       <c r="C78" s="13" t="s">
-        <v>91</v>
+        <v>105</v>
       </c>
     </row>
     <row r="79" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B79" s="4" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="D79">
         <v>40.728676</v>
@@ -2740,21 +2827,21 @@
         <v>6184.6</v>
       </c>
       <c r="G79" t="s">
+        <v>99</v>
+      </c>
+      <c r="H79" t="s">
+        <v>97</v>
+      </c>
+      <c r="I79" t="s">
         <v>102</v>
       </c>
-      <c r="H79" t="s">
-        <v>100</v>
-      </c>
-      <c r="I79" t="s">
-        <v>105</v>
-      </c>
       <c r="J79" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
     </row>
     <row r="80" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B80" s="4" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="D80">
         <v>40.709603999999999</v>
@@ -2766,21 +2853,21 @@
         <v>9632.6</v>
       </c>
       <c r="G80" t="s">
+        <v>99</v>
+      </c>
+      <c r="H80" t="s">
+        <v>97</v>
+      </c>
+      <c r="I80" t="s">
         <v>102</v>
       </c>
-      <c r="H80" t="s">
-        <v>100</v>
-      </c>
-      <c r="I80" t="s">
-        <v>105</v>
-      </c>
       <c r="J80" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
     </row>
     <row r="81" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B81" s="4" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="D81">
         <v>40.701225999999998</v>
@@ -2792,20 +2879,356 @@
         <v>12551.5</v>
       </c>
       <c r="G81" t="s">
+        <v>99</v>
+      </c>
+      <c r="H81" t="s">
+        <v>97</v>
+      </c>
+      <c r="I81" t="s">
         <v>102</v>
       </c>
-      <c r="H81" t="s">
-        <v>100</v>
-      </c>
-      <c r="I81" t="s">
-        <v>105</v>
-      </c>
       <c r="J81" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C17DF85F-2C1F-F649-BAF1-80C86400E080}">
+  <dimension ref="A1:L78"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E15" sqref="E15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="38.1640625" style="22" bestFit="1" customWidth="1"/>
+    <col min="2" max="4" width="10.83203125" style="22"/>
+    <col min="5" max="5" width="38.1640625" style="22" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="10.83203125" style="22"/>
+    <col min="10" max="10" width="38.1640625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="24"/>
+      <c r="F1" s="25"/>
+      <c r="G1" s="25"/>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>106</v>
+      </c>
+      <c r="B2">
+        <v>69.166667000000004</v>
+      </c>
+      <c r="C2">
+        <v>-150.75</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>107</v>
+      </c>
+      <c r="B3">
+        <v>65.150000000000006</v>
+      </c>
+      <c r="C3">
+        <v>-147.5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>120</v>
+      </c>
+      <c r="B4">
+        <v>40.728676</v>
+      </c>
+      <c r="C4">
+        <v>-105.844109</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>108</v>
+      </c>
+      <c r="B5" s="23">
+        <v>34.460483000000004</v>
+      </c>
+      <c r="C5" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>115</v>
+      </c>
+      <c r="B6" s="22">
+        <v>36.095348999999999</v>
+      </c>
+      <c r="C6" s="22">
+        <v>-82.265000000000001</v>
+      </c>
+      <c r="E6" s="26"/>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>109</v>
+      </c>
+      <c r="B7">
+        <v>49.616667</v>
+      </c>
+      <c r="C7">
+        <v>-114.666667</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>118</v>
+      </c>
+      <c r="B8">
+        <v>49.704340000000002</v>
+      </c>
+      <c r="C8">
+        <v>-116.118877</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>113</v>
+      </c>
+      <c r="B9">
+        <v>38.958700999999998</v>
+      </c>
+      <c r="C9">
+        <v>-120.920501</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>110</v>
+      </c>
+      <c r="B10" t="s">
+        <v>124</v>
+      </c>
+      <c r="C10">
+        <v>-115.66604</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>111</v>
+      </c>
+      <c r="B11" t="s">
+        <v>123</v>
+      </c>
+      <c r="C11">
+        <v>-116.1031</v>
+      </c>
+      <c r="F11" s="27"/>
+      <c r="G11" s="27"/>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A12" s="22" t="s">
+        <v>5</v>
+      </c>
+      <c r="B12">
+        <v>61.4</v>
+      </c>
+      <c r="C12">
+        <v>-121.43300000000001</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>103</v>
+      </c>
+      <c r="B13">
+        <v>40.133513999999998</v>
+      </c>
+      <c r="C13">
+        <v>-111.771241</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>116</v>
+      </c>
+      <c r="B14" s="6">
+        <v>48.102674999999998</v>
+      </c>
+      <c r="C14" s="6">
+        <v>-120.35232000000001</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>119</v>
+      </c>
+      <c r="B15">
+        <v>35</v>
+      </c>
+      <c r="C15">
+        <v>-83</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
+        <v>114</v>
+      </c>
+      <c r="B16" s="5">
+        <v>48.801667000000002</v>
+      </c>
+      <c r="C16" s="5">
+        <v>113.856944</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
+        <v>112</v>
+      </c>
+      <c r="B17" t="s">
+        <v>122</v>
+      </c>
+      <c r="C17">
+        <v>-119.389139</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A20" s="26"/>
+    </row>
+    <row r="21" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A21" s="26"/>
+    </row>
+    <row r="22" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="K22" s="9"/>
+      <c r="L22" s="5"/>
+    </row>
+    <row r="24" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A24" s="26"/>
+      <c r="E24" s="26"/>
+    </row>
+    <row r="25" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A25" s="26"/>
+    </row>
+    <row r="26" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A26" s="26"/>
+    </row>
+    <row r="28" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="F28" s="28"/>
+      <c r="G28" s="28"/>
+    </row>
+    <row r="32" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="E32" s="26"/>
+      <c r="F32" s="29"/>
+      <c r="G32" s="29"/>
+    </row>
+    <row r="46" spans="5:7" x14ac:dyDescent="0.2">
+      <c r="E46" s="26"/>
+      <c r="F46" s="28"/>
+      <c r="G46" s="28"/>
+    </row>
+    <row r="52" spans="5:7" x14ac:dyDescent="0.2">
+      <c r="E52" s="30"/>
+    </row>
+    <row r="53" spans="5:7" x14ac:dyDescent="0.2">
+      <c r="E53" s="27"/>
+      <c r="F53" s="27"/>
+      <c r="G53" s="31"/>
+    </row>
+    <row r="54" spans="5:7" x14ac:dyDescent="0.2">
+      <c r="E54" s="27"/>
+      <c r="F54" s="27"/>
+      <c r="G54" s="31"/>
+    </row>
+    <row r="55" spans="5:7" x14ac:dyDescent="0.2">
+      <c r="E55" s="27"/>
+      <c r="F55" s="27"/>
+      <c r="G55" s="31"/>
+    </row>
+    <row r="56" spans="5:7" x14ac:dyDescent="0.2">
+      <c r="E56" s="27"/>
+      <c r="F56" s="27"/>
+      <c r="G56" s="31"/>
+    </row>
+    <row r="57" spans="5:7" x14ac:dyDescent="0.2">
+      <c r="E57" s="27"/>
+      <c r="G57" s="32"/>
+    </row>
+    <row r="58" spans="5:7" x14ac:dyDescent="0.2">
+      <c r="E58" s="30"/>
+    </row>
+    <row r="59" spans="5:7" x14ac:dyDescent="0.2">
+      <c r="E59" s="27"/>
+      <c r="F59" s="27"/>
+      <c r="G59" s="31"/>
+    </row>
+    <row r="60" spans="5:7" x14ac:dyDescent="0.2">
+      <c r="E60" s="27"/>
+      <c r="F60" s="27"/>
+      <c r="G60" s="31"/>
+    </row>
+    <row r="61" spans="5:7" x14ac:dyDescent="0.2">
+      <c r="E61" s="27"/>
+      <c r="F61" s="27"/>
+      <c r="G61" s="31"/>
+    </row>
+    <row r="62" spans="5:7" x14ac:dyDescent="0.2">
+      <c r="E62" s="27"/>
+      <c r="F62" s="27"/>
+      <c r="G62" s="31"/>
+    </row>
+    <row r="66" spans="5:7" x14ac:dyDescent="0.2">
+      <c r="E66" s="26"/>
+    </row>
+    <row r="71" spans="5:7" x14ac:dyDescent="0.2">
+      <c r="F71" s="33"/>
+      <c r="G71" s="33"/>
+    </row>
+    <row r="72" spans="5:7" x14ac:dyDescent="0.2">
+      <c r="F72" s="33"/>
+      <c r="G72" s="33"/>
+    </row>
+    <row r="73" spans="5:7" x14ac:dyDescent="0.2">
+      <c r="F73" s="33"/>
+      <c r="G73" s="33"/>
+    </row>
+    <row r="74" spans="5:7" x14ac:dyDescent="0.2">
+      <c r="E74" s="30"/>
+    </row>
+    <row r="75" spans="5:7" x14ac:dyDescent="0.2">
+      <c r="E75" s="27"/>
+    </row>
+    <row r="76" spans="5:7" x14ac:dyDescent="0.2">
+      <c r="E76" s="27"/>
+      <c r="F76" s="33"/>
+      <c r="G76" s="33"/>
+    </row>
+    <row r="77" spans="5:7" x14ac:dyDescent="0.2">
+      <c r="E77" s="27"/>
+    </row>
+    <row r="78" spans="5:7" x14ac:dyDescent="0.2">
+      <c r="E78" s="26"/>
+      <c r="F78" s="34"/>
+      <c r="G78" s="34"/>
+    </row>
+  </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="J2:L89">
+    <sortCondition ref="J1:J89"/>
+  </sortState>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/FireMeta_Rproj/inputs/Studies_Summary/Fire_name_Lat_Long.xlsx
+++ b/FireMeta_Rproj/inputs/Studies_Summary/Fire_name_Lat_Long.xlsx
@@ -8,13 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/cava304/GitHub/rc_sfa-rc-3-wenas-meta/FireMeta_Rproj/inputs/Studies_Summary/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4BA2E940-EFEE-EC41-BE41-F14841817A03}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1CD3FAA7-7B48-E44D-9513-25B89F7D683F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="17260" activeTab="1" xr2:uid="{8C258C6F-044A-E849-9C14-F26FA5F5AA92}"/>
+    <workbookView xWindow="35620" yWindow="700" windowWidth="30240" windowHeight="17260" xr2:uid="{8C258C6F-044A-E849-9C14-F26FA5F5AA92}"/>
   </bookViews>
   <sheets>
     <sheet name="Temporal Normalization Studies" sheetId="1" r:id="rId1"/>
-    <sheet name="Fires we don’t have yet" sheetId="2" r:id="rId2"/>
+    <sheet name="Katie_code_format" sheetId="3" r:id="rId2"/>
+    <sheet name="Fires we don’t have yet" sheetId="2" r:id="rId3"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -37,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="350" uniqueCount="125">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="437" uniqueCount="128">
   <si>
     <t>Study</t>
   </si>
@@ -459,6 +460,15 @@
   </si>
   <si>
     <t xml:space="preserve">44.578525	</t>
+  </si>
+  <si>
+    <t>site</t>
+  </si>
+  <si>
+    <t>latitude</t>
+  </si>
+  <si>
+    <t>longitude</t>
   </si>
 </sst>
 </file>
@@ -567,7 +577,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -586,6 +596,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -599,7 +615,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="35">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -622,19 +638,14 @@
     <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="164" fontId="7" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -951,9 +962,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FE608700-CF3C-DE4E-8B7D-38FBD72A91DD}">
   <dimension ref="A1:K81"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A34" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D40" sqref="D40:E40"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D22" activeCellId="1" sqref="B22:B23 D22:E23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1105,10 +1116,10 @@
         <v>32</v>
       </c>
       <c r="D7">
-        <v>34.477563000000004</v>
+        <v>34.484966</v>
       </c>
       <c r="E7">
-        <v>-120.21596599999999</v>
+        <v>-120.22992600000001</v>
       </c>
       <c r="F7">
         <v>52.16</v>
@@ -2898,19 +2909,884 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A1F70F01-B0DC-C845-8599-5B62D652F3A7}">
+  <dimension ref="A1:I46"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G1" sqref="G1:I10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="21" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>125</v>
+      </c>
+      <c r="B1" t="s">
+        <v>126</v>
+      </c>
+      <c r="C1" t="s">
+        <v>127</v>
+      </c>
+      <c r="G1" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="H1" s="7">
+        <v>40.133513999999998</v>
+      </c>
+      <c r="I1" s="7">
+        <v>-111.771241</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>56</v>
+      </c>
+      <c r="B2">
+        <v>48.814951999999998</v>
+      </c>
+      <c r="C2">
+        <v>-113.983313</v>
+      </c>
+      <c r="G2" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="H2" s="7">
+        <v>40.180647</v>
+      </c>
+      <c r="I2" s="7">
+        <v>-111.67166400000001</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>58</v>
+      </c>
+      <c r="B3">
+        <v>48.936976000000001</v>
+      </c>
+      <c r="C3">
+        <v>-114.079685</v>
+      </c>
+      <c r="G3" t="s">
+        <v>37</v>
+      </c>
+      <c r="H3">
+        <v>40.191034999999999</v>
+      </c>
+      <c r="I3">
+        <v>-111.65993899999999</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>59</v>
+      </c>
+      <c r="B4">
+        <v>48.866349</v>
+      </c>
+      <c r="C4">
+        <v>-114.02640599999999</v>
+      </c>
+      <c r="G4" t="s">
+        <v>38</v>
+      </c>
+      <c r="H4">
+        <v>40.158754000000002</v>
+      </c>
+      <c r="I4">
+        <v>-111.59730999999999</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>60</v>
+      </c>
+      <c r="B5">
+        <v>38.883760000000002</v>
+      </c>
+      <c r="C5">
+        <v>-119.978005</v>
+      </c>
+      <c r="G5" t="s">
+        <v>39</v>
+      </c>
+      <c r="H5">
+        <v>40.200989</v>
+      </c>
+      <c r="I5">
+        <v>-111.659265</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>87</v>
+      </c>
+      <c r="B6">
+        <v>38.898688999999997</v>
+      </c>
+      <c r="C6">
+        <v>-119.948785</v>
+      </c>
+      <c r="G6" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="H6">
+        <v>40.192393000000003</v>
+      </c>
+      <c r="I6">
+        <v>-111.652799</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>61</v>
+      </c>
+      <c r="B7">
+        <v>38.958700999999998</v>
+      </c>
+      <c r="C7">
+        <v>-120.920501</v>
+      </c>
+      <c r="G7" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="H7" s="7">
+        <v>39.987803999999997</v>
+      </c>
+      <c r="I7" s="7">
+        <v>-111.72989099999999</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>62</v>
+      </c>
+      <c r="B8">
+        <v>39.000053000000001</v>
+      </c>
+      <c r="C8">
+        <v>-120.93990700000001</v>
+      </c>
+      <c r="G8" s="28" t="s">
+        <v>42</v>
+      </c>
+      <c r="H8" s="29">
+        <v>40.234889000000003</v>
+      </c>
+      <c r="I8" s="29">
+        <v>-111.724869</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>63</v>
+      </c>
+      <c r="B9">
+        <v>39.906348000000001</v>
+      </c>
+      <c r="C9">
+        <v>-105.37748499999999</v>
+      </c>
+      <c r="G9" t="s">
+        <v>43</v>
+      </c>
+      <c r="H9">
+        <v>40.071703999999997</v>
+      </c>
+      <c r="I9">
+        <v>-111.57715</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>64</v>
+      </c>
+      <c r="B10">
+        <v>48.422220000000003</v>
+      </c>
+      <c r="C10">
+        <v>-113.70055549999999</v>
+      </c>
+      <c r="G10" s="29" t="s">
+        <v>44</v>
+      </c>
+      <c r="H10" s="29">
+        <v>40.071703999999997</v>
+      </c>
+      <c r="I10" s="29">
+        <v>-111.57715</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>65</v>
+      </c>
+      <c r="B11">
+        <v>48.54888888</v>
+      </c>
+      <c r="C11">
+        <v>-113.9858333</v>
+      </c>
+      <c r="G11" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="H11">
+        <v>44.515999999999998</v>
+      </c>
+      <c r="I11">
+        <v>-110.05</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>66</v>
+      </c>
+      <c r="B12">
+        <v>48.635277780000003</v>
+      </c>
+      <c r="C12">
+        <v>-113.86694439999999</v>
+      </c>
+      <c r="G12" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="H12">
+        <v>44.555</v>
+      </c>
+      <c r="I12">
+        <v>-110.069</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>67</v>
+      </c>
+      <c r="B13">
+        <v>48.635277780000003</v>
+      </c>
+      <c r="C13">
+        <v>-113.86694439999999</v>
+      </c>
+      <c r="G13" t="s">
+        <v>52</v>
+      </c>
+      <c r="H13">
+        <v>48.81409</v>
+      </c>
+      <c r="I13">
+        <v>-114.39971</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>68</v>
+      </c>
+      <c r="B14" s="5">
+        <v>40.039045999999999</v>
+      </c>
+      <c r="C14" s="9">
+        <v>-105.393878</v>
+      </c>
+      <c r="G14" t="s">
+        <v>53</v>
+      </c>
+      <c r="H14">
+        <v>48.793787000000002</v>
+      </c>
+      <c r="I14">
+        <v>-114.49179100000001</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>69</v>
+      </c>
+      <c r="B15" s="5">
+        <v>40.041668000000001</v>
+      </c>
+      <c r="C15" s="9">
+        <v>-105.364823</v>
+      </c>
+      <c r="G15" t="s">
+        <v>54</v>
+      </c>
+      <c r="H15">
+        <v>48.802771999999997</v>
+      </c>
+      <c r="I15">
+        <v>-114.32894</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
+        <v>70</v>
+      </c>
+      <c r="B16" s="5">
+        <v>40.015500000000003</v>
+      </c>
+      <c r="C16" s="9">
+        <v>-105.324566</v>
+      </c>
+      <c r="G16" t="s">
+        <v>55</v>
+      </c>
+      <c r="H16">
+        <v>48.688412999999997</v>
+      </c>
+      <c r="I16">
+        <v>-114.19973899999999</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
+        <v>71</v>
+      </c>
+      <c r="B17" s="5">
+        <v>40.036102999999997</v>
+      </c>
+      <c r="C17" s="9">
+        <v>-105.43910099999999</v>
+      </c>
+      <c r="G17" t="s">
+        <v>57</v>
+      </c>
+      <c r="H17">
+        <v>48.902925000000003</v>
+      </c>
+      <c r="I17">
+        <v>-114.183566</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
+        <v>72</v>
+      </c>
+      <c r="B18">
+        <v>40.037790999999999</v>
+      </c>
+      <c r="C18" s="10">
+        <v>-105.42124699999999</v>
+      </c>
+      <c r="G18" t="s">
+        <v>56</v>
+      </c>
+      <c r="H18">
+        <v>48.814951999999998</v>
+      </c>
+      <c r="I18">
+        <v>-113.983313</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
+        <v>68</v>
+      </c>
+      <c r="B19" s="5">
+        <v>40.039045999999999</v>
+      </c>
+      <c r="C19" s="9">
+        <v>-105.393878</v>
+      </c>
+      <c r="G19" t="s">
+        <v>58</v>
+      </c>
+      <c r="H19">
+        <v>48.936976000000001</v>
+      </c>
+      <c r="I19">
+        <v>-114.079685</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
+        <v>69</v>
+      </c>
+      <c r="B20" s="5">
+        <v>40.041668000000001</v>
+      </c>
+      <c r="C20" s="9">
+        <v>-105.364823</v>
+      </c>
+      <c r="G20" t="s">
+        <v>59</v>
+      </c>
+      <c r="H20">
+        <v>48.866349</v>
+      </c>
+      <c r="I20">
+        <v>-114.02640599999999</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A21" t="s">
+        <v>70</v>
+      </c>
+      <c r="B21" s="5">
+        <v>40.015500000000003</v>
+      </c>
+      <c r="C21" s="9">
+        <v>-105.324566</v>
+      </c>
+      <c r="G21" t="s">
+        <v>60</v>
+      </c>
+      <c r="H21">
+        <v>38.883760000000002</v>
+      </c>
+      <c r="I21">
+        <v>-119.978005</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A22" t="s">
+        <v>71</v>
+      </c>
+      <c r="B22" s="5">
+        <v>40.036102999999997</v>
+      </c>
+      <c r="C22" s="9">
+        <v>-105.43910099999999</v>
+      </c>
+      <c r="G22" t="s">
+        <v>87</v>
+      </c>
+      <c r="H22">
+        <v>38.898688999999997</v>
+      </c>
+      <c r="I22">
+        <v>-119.948785</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A23" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="B23">
+        <v>34.937945999999997</v>
+      </c>
+      <c r="C23">
+        <v>-83.093596000000005</v>
+      </c>
+      <c r="G23" t="s">
+        <v>61</v>
+      </c>
+      <c r="H23">
+        <v>38.958700999999998</v>
+      </c>
+      <c r="I23">
+        <v>-120.920501</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A24" t="s">
+        <v>73</v>
+      </c>
+      <c r="B24">
+        <v>34.920959000000003</v>
+      </c>
+      <c r="C24">
+        <v>-83.092200000000005</v>
+      </c>
+      <c r="G24" t="s">
+        <v>62</v>
+      </c>
+      <c r="H24">
+        <v>39.000053000000001</v>
+      </c>
+      <c r="I24">
+        <v>-120.93990700000001</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A25" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="B25">
+        <v>38.868000000000002</v>
+      </c>
+      <c r="C25">
+        <v>-120.062</v>
+      </c>
+      <c r="G25" t="s">
+        <v>63</v>
+      </c>
+      <c r="H25">
+        <v>39.906348000000001</v>
+      </c>
+      <c r="I25">
+        <v>-105.37748499999999</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A26" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="B26">
+        <v>38.880000000000003</v>
+      </c>
+      <c r="C26">
+        <v>-120.041</v>
+      </c>
+      <c r="G26" t="s">
+        <v>64</v>
+      </c>
+      <c r="H26">
+        <v>48.422220000000003</v>
+      </c>
+      <c r="I26">
+        <v>-113.70055549999999</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A27" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="B27">
+        <v>38.878999999999998</v>
+      </c>
+      <c r="C27">
+        <v>-120.03</v>
+      </c>
+      <c r="G27" t="s">
+        <v>65</v>
+      </c>
+      <c r="H27">
+        <v>48.54888888</v>
+      </c>
+      <c r="I27">
+        <v>-113.9858333</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A28" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="B28">
+        <v>38.872999999999998</v>
+      </c>
+      <c r="C28">
+        <v>-120.01300000000001</v>
+      </c>
+      <c r="G28" t="s">
+        <v>66</v>
+      </c>
+      <c r="H28">
+        <v>48.635277780000003</v>
+      </c>
+      <c r="I28">
+        <v>-113.86694439999999</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A29" t="s">
+        <v>79</v>
+      </c>
+      <c r="B29" s="6"/>
+      <c r="C29" s="6"/>
+      <c r="G29" t="s">
+        <v>67</v>
+      </c>
+      <c r="H29">
+        <v>48.635277780000003</v>
+      </c>
+      <c r="I29">
+        <v>-113.86694439999999</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A30" t="s">
+        <v>80</v>
+      </c>
+      <c r="B30" s="6"/>
+      <c r="C30" s="6"/>
+      <c r="G30" t="s">
+        <v>68</v>
+      </c>
+      <c r="H30" s="5">
+        <v>40.039045999999999</v>
+      </c>
+      <c r="I30" s="9">
+        <v>-105.393878</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A31" t="s">
+        <v>81</v>
+      </c>
+      <c r="B31">
+        <v>38.451371999999999</v>
+      </c>
+      <c r="C31">
+        <v>122.056381</v>
+      </c>
+      <c r="G31" t="s">
+        <v>69</v>
+      </c>
+      <c r="H31" s="5">
+        <v>40.041668000000001</v>
+      </c>
+      <c r="I31" s="9">
+        <v>-105.364823</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A32" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="B32" s="6">
+        <v>38.923563999999999</v>
+      </c>
+      <c r="C32" s="6">
+        <v>122.32647799999999</v>
+      </c>
+      <c r="G32" t="s">
+        <v>70</v>
+      </c>
+      <c r="H32" s="5">
+        <v>40.015500000000003</v>
+      </c>
+      <c r="I32" s="9">
+        <v>-105.324566</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A33" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="B33">
+        <v>38.512031</v>
+      </c>
+      <c r="C33">
+        <v>122.097228</v>
+      </c>
+      <c r="G33" t="s">
+        <v>71</v>
+      </c>
+      <c r="H33" s="5">
+        <v>40.036102999999997</v>
+      </c>
+      <c r="I33" s="9">
+        <v>-105.43910099999999</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A34" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="B34">
+        <v>40.728676</v>
+      </c>
+      <c r="C34">
+        <v>-105.844109</v>
+      </c>
+      <c r="G34" t="s">
+        <v>72</v>
+      </c>
+      <c r="H34">
+        <v>40.037790999999999</v>
+      </c>
+      <c r="I34" s="10">
+        <v>-105.42124699999999</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A35" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="B35">
+        <v>40.709603999999999</v>
+      </c>
+      <c r="C35">
+        <v>-105.233305</v>
+      </c>
+      <c r="G35" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="H35">
+        <v>34.937945999999997</v>
+      </c>
+      <c r="I35">
+        <v>-83.093596000000005</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A36" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="B36">
+        <v>40.701225999999998</v>
+      </c>
+      <c r="C36">
+        <v>-105.757445</v>
+      </c>
+      <c r="G36" t="s">
+        <v>73</v>
+      </c>
+      <c r="H36">
+        <v>34.920959000000003</v>
+      </c>
+      <c r="I36">
+        <v>-83.092200000000005</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A37" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="B37">
+        <v>40.728676</v>
+      </c>
+      <c r="C37">
+        <v>-105.844109</v>
+      </c>
+      <c r="G37" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="H37">
+        <v>38.868000000000002</v>
+      </c>
+      <c r="I37">
+        <v>-120.062</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A38" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="B38">
+        <v>40.709603999999999</v>
+      </c>
+      <c r="C38">
+        <v>-105.233305</v>
+      </c>
+      <c r="G38" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="H38">
+        <v>38.880000000000003</v>
+      </c>
+      <c r="I38">
+        <v>-120.041</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A39" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="B39">
+        <v>40.701225999999998</v>
+      </c>
+      <c r="C39">
+        <v>-105.757445</v>
+      </c>
+      <c r="G39" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="H39">
+        <v>38.878999999999998</v>
+      </c>
+      <c r="I39">
+        <v>-120.03</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="G40" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="H40">
+        <v>38.872999999999998</v>
+      </c>
+      <c r="I40">
+        <v>-120.01300000000001</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="G41" t="s">
+        <v>81</v>
+      </c>
+      <c r="H41">
+        <v>38.451371999999999</v>
+      </c>
+      <c r="I41">
+        <v>-122.056381</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="G42" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="H42" s="6">
+        <v>38.923563999999999</v>
+      </c>
+      <c r="I42" s="6">
+        <v>-122.32647799999999</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="G43" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="H43">
+        <v>38.512031</v>
+      </c>
+      <c r="I43">
+        <v>-122.097228</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="G44" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="H44">
+        <v>40.728676</v>
+      </c>
+      <c r="I44">
+        <v>-105.844109</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="G45" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="H45">
+        <v>40.709603999999999</v>
+      </c>
+      <c r="I45">
+        <v>-105.233305</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="G46" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="H46">
+        <v>40.701225999999998</v>
+      </c>
+      <c r="I46">
+        <v>-105.757445</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C17DF85F-2C1F-F649-BAF1-80C86400E080}">
   <dimension ref="A1:L78"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="38.1640625" style="22" bestFit="1" customWidth="1"/>
-    <col min="2" max="4" width="10.83203125" style="22"/>
-    <col min="5" max="5" width="38.1640625" style="22" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="10.83203125" style="22"/>
+    <col min="1" max="1" width="38.1640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="38.1640625" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="38.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -2924,9 +3800,9 @@
       <c r="C1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="24"/>
-      <c r="F1" s="25"/>
-      <c r="G1" s="25"/>
+      <c r="E1" s="2"/>
+      <c r="F1" s="3"/>
+      <c r="G1" s="3"/>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
@@ -2965,7 +3841,7 @@
       <c r="A5" t="s">
         <v>108</v>
       </c>
-      <c r="B5" s="23">
+      <c r="B5" s="22">
         <v>34.460483000000004</v>
       </c>
       <c r="C5" t="s">
@@ -2976,13 +3852,13 @@
       <c r="A6" t="s">
         <v>115</v>
       </c>
-      <c r="B6" s="22">
+      <c r="B6">
         <v>36.095348999999999</v>
       </c>
-      <c r="C6" s="22">
+      <c r="C6">
         <v>-82.265000000000001</v>
       </c>
-      <c r="E6" s="26"/>
+      <c r="E6" s="23"/>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
@@ -3038,11 +3914,11 @@
       <c r="C11">
         <v>-116.1031</v>
       </c>
-      <c r="F11" s="27"/>
-      <c r="G11" s="27"/>
+      <c r="F11" s="5"/>
+      <c r="G11" s="5"/>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A12" s="22" t="s">
+      <c r="A12" t="s">
         <v>5</v>
       </c>
       <c r="B12">
@@ -3108,122 +3984,122 @@
       </c>
     </row>
     <row r="20" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A20" s="26"/>
+      <c r="A20" s="23"/>
     </row>
     <row r="21" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A21" s="26"/>
+      <c r="A21" s="23"/>
     </row>
     <row r="22" spans="1:12" x14ac:dyDescent="0.2">
       <c r="K22" s="9"/>
       <c r="L22" s="5"/>
     </row>
     <row r="24" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A24" s="26"/>
-      <c r="E24" s="26"/>
+      <c r="A24" s="23"/>
+      <c r="E24" s="23"/>
     </row>
     <row r="25" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A25" s="26"/>
+      <c r="A25" s="23"/>
     </row>
     <row r="26" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A26" s="26"/>
+      <c r="A26" s="23"/>
     </row>
     <row r="28" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="F28" s="28"/>
-      <c r="G28" s="28"/>
+      <c r="F28" s="24"/>
+      <c r="G28" s="24"/>
     </row>
     <row r="32" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="E32" s="26"/>
-      <c r="F32" s="29"/>
-      <c r="G32" s="29"/>
+      <c r="E32" s="23"/>
+      <c r="F32" s="25"/>
+      <c r="G32" s="25"/>
     </row>
     <row r="46" spans="5:7" x14ac:dyDescent="0.2">
-      <c r="E46" s="26"/>
-      <c r="F46" s="28"/>
-      <c r="G46" s="28"/>
+      <c r="E46" s="23"/>
+      <c r="F46" s="24"/>
+      <c r="G46" s="24"/>
     </row>
     <row r="52" spans="5:7" x14ac:dyDescent="0.2">
-      <c r="E52" s="30"/>
+      <c r="E52" s="26"/>
     </row>
     <row r="53" spans="5:7" x14ac:dyDescent="0.2">
-      <c r="E53" s="27"/>
-      <c r="F53" s="27"/>
-      <c r="G53" s="31"/>
+      <c r="E53" s="5"/>
+      <c r="F53" s="5"/>
+      <c r="G53" s="9"/>
     </row>
     <row r="54" spans="5:7" x14ac:dyDescent="0.2">
-      <c r="E54" s="27"/>
-      <c r="F54" s="27"/>
-      <c r="G54" s="31"/>
+      <c r="E54" s="5"/>
+      <c r="F54" s="5"/>
+      <c r="G54" s="9"/>
     </row>
     <row r="55" spans="5:7" x14ac:dyDescent="0.2">
-      <c r="E55" s="27"/>
-      <c r="F55" s="27"/>
-      <c r="G55" s="31"/>
+      <c r="E55" s="5"/>
+      <c r="F55" s="5"/>
+      <c r="G55" s="9"/>
     </row>
     <row r="56" spans="5:7" x14ac:dyDescent="0.2">
-      <c r="E56" s="27"/>
-      <c r="F56" s="27"/>
-      <c r="G56" s="31"/>
+      <c r="E56" s="5"/>
+      <c r="F56" s="5"/>
+      <c r="G56" s="9"/>
     </row>
     <row r="57" spans="5:7" x14ac:dyDescent="0.2">
-      <c r="E57" s="27"/>
-      <c r="G57" s="32"/>
+      <c r="E57" s="5"/>
+      <c r="G57" s="10"/>
     </row>
     <row r="58" spans="5:7" x14ac:dyDescent="0.2">
-      <c r="E58" s="30"/>
+      <c r="E58" s="26"/>
     </row>
     <row r="59" spans="5:7" x14ac:dyDescent="0.2">
-      <c r="E59" s="27"/>
-      <c r="F59" s="27"/>
-      <c r="G59" s="31"/>
+      <c r="E59" s="5"/>
+      <c r="F59" s="5"/>
+      <c r="G59" s="9"/>
     </row>
     <row r="60" spans="5:7" x14ac:dyDescent="0.2">
-      <c r="E60" s="27"/>
-      <c r="F60" s="27"/>
-      <c r="G60" s="31"/>
+      <c r="E60" s="5"/>
+      <c r="F60" s="5"/>
+      <c r="G60" s="9"/>
     </row>
     <row r="61" spans="5:7" x14ac:dyDescent="0.2">
-      <c r="E61" s="27"/>
-      <c r="F61" s="27"/>
-      <c r="G61" s="31"/>
+      <c r="E61" s="5"/>
+      <c r="F61" s="5"/>
+      <c r="G61" s="9"/>
     </row>
     <row r="62" spans="5:7" x14ac:dyDescent="0.2">
-      <c r="E62" s="27"/>
-      <c r="F62" s="27"/>
-      <c r="G62" s="31"/>
+      <c r="E62" s="5"/>
+      <c r="F62" s="5"/>
+      <c r="G62" s="9"/>
     </row>
     <row r="66" spans="5:7" x14ac:dyDescent="0.2">
-      <c r="E66" s="26"/>
+      <c r="E66" s="23"/>
     </row>
     <row r="71" spans="5:7" x14ac:dyDescent="0.2">
-      <c r="F71" s="33"/>
-      <c r="G71" s="33"/>
+      <c r="F71" s="6"/>
+      <c r="G71" s="6"/>
     </row>
     <row r="72" spans="5:7" x14ac:dyDescent="0.2">
-      <c r="F72" s="33"/>
-      <c r="G72" s="33"/>
+      <c r="F72" s="6"/>
+      <c r="G72" s="6"/>
     </row>
     <row r="73" spans="5:7" x14ac:dyDescent="0.2">
-      <c r="F73" s="33"/>
-      <c r="G73" s="33"/>
+      <c r="F73" s="6"/>
+      <c r="G73" s="6"/>
     </row>
     <row r="74" spans="5:7" x14ac:dyDescent="0.2">
-      <c r="E74" s="30"/>
+      <c r="E74" s="26"/>
     </row>
     <row r="75" spans="5:7" x14ac:dyDescent="0.2">
-      <c r="E75" s="27"/>
+      <c r="E75" s="5"/>
     </row>
     <row r="76" spans="5:7" x14ac:dyDescent="0.2">
-      <c r="E76" s="27"/>
-      <c r="F76" s="33"/>
-      <c r="G76" s="33"/>
+      <c r="E76" s="5"/>
+      <c r="F76" s="6"/>
+      <c r="G76" s="6"/>
     </row>
     <row r="77" spans="5:7" x14ac:dyDescent="0.2">
-      <c r="E77" s="27"/>
+      <c r="E77" s="5"/>
     </row>
     <row r="78" spans="5:7" x14ac:dyDescent="0.2">
-      <c r="E78" s="26"/>
-      <c r="F78" s="34"/>
-      <c r="G78" s="34"/>
+      <c r="E78" s="23"/>
+      <c r="F78" s="27"/>
+      <c r="G78" s="27"/>
     </row>
   </sheetData>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="J2:L89">

--- a/FireMeta_Rproj/inputs/Studies_Summary/Fire_name_Lat_Long.xlsx
+++ b/FireMeta_Rproj/inputs/Studies_Summary/Fire_name_Lat_Long.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/cava304/GitHub/rc_sfa-rc-3-wenas-meta/FireMeta_Rproj/inputs/Studies_Summary/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1CD3FAA7-7B48-E44D-9513-25B89F7D683F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FD5F8090-9290-6D42-A072-1CC17D939B1A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="35620" yWindow="700" windowWidth="30240" windowHeight="17260" xr2:uid="{8C258C6F-044A-E849-9C14-F26FA5F5AA92}"/>
+    <workbookView xWindow="30240" yWindow="0" windowWidth="38400" windowHeight="24000" xr2:uid="{8C258C6F-044A-E849-9C14-F26FA5F5AA92}"/>
   </bookViews>
   <sheets>
     <sheet name="Temporal Normalization Studies" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="437" uniqueCount="128">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="519" uniqueCount="143">
   <si>
     <t>Study</t>
   </si>
@@ -469,6 +469,51 @@
   </si>
   <si>
     <t>longitude</t>
+  </si>
+  <si>
+    <t>Have_HUC?</t>
+  </si>
+  <si>
+    <t>N_Canada</t>
+  </si>
+  <si>
+    <t>Y_size is pretty off_sus_points didn’t work</t>
+  </si>
+  <si>
+    <t>In_katie_code</t>
+  </si>
+  <si>
+    <t>Y_cant confirm size cause its not in text</t>
+  </si>
+  <si>
+    <t>N_got_from_HUC</t>
+  </si>
+  <si>
+    <t>Y_Same_COMID_as_US2</t>
+  </si>
+  <si>
+    <t>N_too small I think</t>
+  </si>
+  <si>
+    <t>Y_need to add</t>
+  </si>
+  <si>
+    <t>Y_Same_COMID_as_Site_1</t>
+  </si>
+  <si>
+    <t>Y_needed to change Comid in code</t>
+  </si>
+  <si>
+    <t>Y_not quite the same watershed, and the sus points doesn’t get the exact one correctly</t>
+  </si>
+  <si>
+    <t>Y_way off, sus points get the correct watershed</t>
+  </si>
+  <si>
+    <t>Y_pretty far off, looks like it is a subset of the Benjamin slough COMID</t>
+  </si>
+  <si>
+    <t>Y_pretty far off, the sus points doesn’t get the correct watershed</t>
   </si>
 </sst>
 </file>
@@ -615,7 +660,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="30">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -624,7 +669,6 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -960,1946 +1004,2208 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FE608700-CF3C-DE4E-8B7D-38FBD72A91DD}">
-  <dimension ref="A1:K81"/>
+  <dimension ref="A1:L81"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D22" activeCellId="1" sqref="B22:B23 D22:E23"/>
+      <selection pane="bottomLeft" activeCell="A68" sqref="A68"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="23.5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="17.5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="38.1640625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.5" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="15.1640625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="28.1640625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="22.83203125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="4" customWidth="1"/>
+    <col min="2" max="2" width="23.5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17.5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="38.1640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.5" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="15.1640625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="28.1640625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="22.83203125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>131</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="D1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="E1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="F1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>95</v>
       </c>
-    </row>
-    <row r="2" spans="1:10" s="13" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="11" t="s">
+      <c r="L1" s="1" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" s="12" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="12" t="s">
+        <v>96</v>
+      </c>
+      <c r="B2" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="11"/>
-      <c r="C2" s="13" t="s">
+      <c r="C2" s="10"/>
+      <c r="D2" s="12" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A3" s="4"/>
-      <c r="B3" t="s">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="B3" s="4"/>
+      <c r="C3" t="s">
         <v>45</v>
       </c>
-      <c r="D3">
+      <c r="E3">
         <v>61.4</v>
       </c>
-      <c r="E3">
+      <c r="F3">
         <v>-121.43300000000001</v>
       </c>
-      <c r="F3">
+      <c r="G3">
         <v>134</v>
       </c>
-      <c r="G3">
+      <c r="H3">
         <v>0</v>
       </c>
-      <c r="H3" t="s">
-        <v>93</v>
-      </c>
       <c r="I3" t="s">
         <v>93</v>
       </c>
       <c r="J3" t="s">
         <v>93</v>
       </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A4" s="4"/>
-      <c r="B4" t="s">
+      <c r="K3" t="s">
+        <v>93</v>
+      </c>
+      <c r="L3" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="B4" s="4"/>
+      <c r="C4" t="s">
         <v>46</v>
       </c>
-      <c r="D4">
+      <c r="E4">
         <v>61.133333</v>
       </c>
-      <c r="E4">
+      <c r="F4">
         <v>-120.283333</v>
       </c>
-      <c r="F4">
+      <c r="G4">
         <v>321</v>
       </c>
-      <c r="G4" t="s">
+      <c r="H4" t="s">
         <v>94</v>
       </c>
-      <c r="H4" t="s">
-        <v>93</v>
-      </c>
       <c r="I4" t="s">
         <v>93</v>
       </c>
       <c r="J4" t="s">
         <v>93</v>
       </c>
-    </row>
-    <row r="5" spans="1:10" s="13" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="11" t="s">
+      <c r="K4" t="s">
+        <v>93</v>
+      </c>
+      <c r="L4" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" s="12" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="12" t="s">
+        <v>93</v>
+      </c>
+      <c r="B5" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="B5" s="11"/>
-      <c r="C5" s="12" t="s">
+      <c r="C5" s="10"/>
+      <c r="D5" s="11" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A6" s="4"/>
-      <c r="B6" s="4" t="s">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="B6" s="4"/>
+      <c r="C6" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="D6">
+      <c r="E6">
         <v>34.472966</v>
       </c>
-      <c r="E6">
+      <c r="F6">
         <v>-120.187279</v>
       </c>
-      <c r="F6">
+      <c r="G6">
         <v>5.26</v>
       </c>
-      <c r="G6">
+      <c r="H6">
         <v>82</v>
       </c>
-      <c r="H6" t="s">
-        <v>93</v>
-      </c>
       <c r="I6" t="s">
         <v>93</v>
       </c>
       <c r="J6" t="s">
+        <v>93</v>
+      </c>
+      <c r="K6" t="s">
         <v>97</v>
       </c>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A7" s="4"/>
-      <c r="B7" s="4" t="s">
+      <c r="L6" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="B7" s="4"/>
+      <c r="C7" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="D7">
+      <c r="E7">
         <v>34.484966</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>-120.22992600000001</v>
       </c>
-      <c r="F7">
+      <c r="G7">
         <v>52.16</v>
       </c>
-      <c r="G7">
+      <c r="H7">
         <v>12</v>
       </c>
-      <c r="H7" t="s">
-        <v>93</v>
-      </c>
       <c r="I7" t="s">
         <v>93</v>
       </c>
       <c r="J7" t="s">
+        <v>93</v>
+      </c>
+      <c r="K7" t="s">
         <v>97</v>
       </c>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A8" s="4"/>
-      <c r="B8" t="s">
+      <c r="L7" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="B8" s="4"/>
+      <c r="C8" t="s">
         <v>33</v>
       </c>
-      <c r="D8">
+      <c r="E8">
         <v>34.475085999999997</v>
       </c>
-      <c r="E8">
+      <c r="F8">
         <v>-120.14228</v>
       </c>
-      <c r="F8">
+      <c r="G8">
         <v>10.85</v>
       </c>
-      <c r="G8">
+      <c r="H8">
         <v>18</v>
       </c>
-      <c r="H8" t="s">
-        <v>93</v>
-      </c>
       <c r="I8" t="s">
         <v>93</v>
       </c>
       <c r="J8" t="s">
+        <v>93</v>
+      </c>
+      <c r="K8" t="s">
         <v>97</v>
       </c>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A9" s="4"/>
-      <c r="B9" s="4" t="s">
+      <c r="L8" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="B9" s="4"/>
+      <c r="C9" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="D9">
+      <c r="E9">
         <v>35.526656000000003</v>
       </c>
-      <c r="E9">
+      <c r="F9">
         <v>-118.856815</v>
       </c>
-      <c r="F9">
+      <c r="G9">
         <v>5.74</v>
       </c>
-      <c r="G9" t="s">
+      <c r="H9" t="s">
         <v>99</v>
       </c>
-      <c r="H9" t="s">
-        <v>93</v>
-      </c>
       <c r="I9" t="s">
+        <v>93</v>
+      </c>
+      <c r="J9" t="s">
         <v>96</v>
       </c>
-      <c r="J9" t="s">
+      <c r="K9" t="s">
         <v>97</v>
       </c>
-    </row>
-    <row r="10" spans="1:10" s="13" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="11" t="s">
+      <c r="L9" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" s="12" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="12" t="s">
+        <v>93</v>
+      </c>
+      <c r="B10" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="B10" s="11"/>
-      <c r="C10" s="13" t="s">
+      <c r="C10" s="10"/>
+      <c r="D10" s="12" t="s">
         <v>103</v>
       </c>
-      <c r="D10" s="14"/>
-      <c r="E10" s="14"/>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A11" s="4"/>
-      <c r="B11" t="s">
+      <c r="E10" s="13"/>
+      <c r="F10" s="13"/>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="B11" s="4"/>
+      <c r="C11" t="s">
         <v>35</v>
       </c>
-      <c r="D11">
+      <c r="E11">
         <v>40.133513999999998</v>
       </c>
-      <c r="E11">
+      <c r="F11">
         <v>-111.771241</v>
       </c>
-      <c r="F11">
+      <c r="G11">
         <v>219</v>
       </c>
-      <c r="G11">
+      <c r="H11">
         <v>67</v>
       </c>
-      <c r="H11" t="s">
-        <v>93</v>
-      </c>
       <c r="I11" t="s">
         <v>93</v>
       </c>
       <c r="J11" t="s">
+        <v>93</v>
+      </c>
+      <c r="K11" t="s">
         <v>98</v>
       </c>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A12" s="4"/>
-      <c r="B12" t="s">
+      <c r="L11" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="B12" s="4"/>
+      <c r="C12" t="s">
         <v>36</v>
       </c>
-      <c r="D12">
+      <c r="E12">
         <v>40.180647</v>
       </c>
-      <c r="E12">
+      <c r="F12">
         <v>-111.67166400000001</v>
       </c>
-      <c r="F12">
+      <c r="G12">
         <v>30</v>
       </c>
-      <c r="G12">
+      <c r="H12">
         <v>0</v>
       </c>
-      <c r="H12" t="s">
-        <v>93</v>
-      </c>
       <c r="I12" t="s">
         <v>93</v>
       </c>
       <c r="J12" t="s">
+        <v>93</v>
+      </c>
+      <c r="K12" t="s">
         <v>98</v>
       </c>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A13" s="4"/>
-      <c r="B13" t="s">
+      <c r="L12" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="B13" s="4"/>
+      <c r="C13" t="s">
         <v>37</v>
       </c>
-      <c r="D13">
+      <c r="E13">
         <v>40.191034999999999</v>
       </c>
-      <c r="E13">
+      <c r="F13">
         <v>-111.65993899999999</v>
       </c>
-      <c r="F13">
+      <c r="G13">
         <v>324</v>
       </c>
-      <c r="G13">
+      <c r="H13">
         <v>0</v>
       </c>
-      <c r="H13" t="s">
-        <v>93</v>
-      </c>
       <c r="I13" t="s">
         <v>93</v>
       </c>
       <c r="J13" t="s">
+        <v>93</v>
+      </c>
+      <c r="K13" t="s">
         <v>98</v>
       </c>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A14" s="4"/>
-      <c r="B14" t="s">
+      <c r="L13" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="B14" s="4"/>
+      <c r="C14" t="s">
         <v>38</v>
       </c>
-      <c r="D14">
+      <c r="E14">
         <v>40.158754000000002</v>
       </c>
-      <c r="E14">
+      <c r="F14">
         <v>-111.59730999999999</v>
       </c>
-      <c r="F14">
+      <c r="G14">
         <v>280</v>
       </c>
-      <c r="G14">
+      <c r="H14">
         <v>0</v>
       </c>
-      <c r="H14" t="s">
-        <v>93</v>
-      </c>
       <c r="I14" t="s">
         <v>93</v>
       </c>
       <c r="J14" t="s">
+        <v>93</v>
+      </c>
+      <c r="K14" t="s">
         <v>98</v>
       </c>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A15" s="4"/>
-      <c r="B15" t="s">
+      <c r="L14" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="B15" s="4"/>
+      <c r="C15" t="s">
         <v>39</v>
       </c>
-      <c r="D15">
+      <c r="E15">
         <v>40.200989</v>
       </c>
-      <c r="E15">
+      <c r="F15">
         <v>-111.659265</v>
       </c>
-      <c r="F15">
+      <c r="G15">
         <v>47</v>
       </c>
-      <c r="G15">
+      <c r="H15">
         <v>0</v>
       </c>
-      <c r="H15" t="s">
-        <v>93</v>
-      </c>
       <c r="I15" t="s">
         <v>93</v>
       </c>
       <c r="J15" t="s">
+        <v>93</v>
+      </c>
+      <c r="K15" t="s">
         <v>98</v>
       </c>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A16" s="4"/>
-      <c r="B16" s="4" t="s">
+      <c r="L15" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="B16" s="4"/>
+      <c r="C16" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="D16">
+      <c r="E16">
         <v>40.192393000000003</v>
       </c>
-      <c r="E16">
+      <c r="F16">
         <v>-111.652799</v>
       </c>
-      <c r="F16">
+      <c r="G16">
         <v>3</v>
       </c>
-      <c r="G16">
+      <c r="H16">
         <v>0</v>
       </c>
-      <c r="H16" t="s">
-        <v>93</v>
-      </c>
       <c r="I16" t="s">
         <v>93</v>
       </c>
       <c r="J16" t="s">
+        <v>93</v>
+      </c>
+      <c r="K16" t="s">
         <v>98</v>
       </c>
-    </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A17" s="4"/>
-      <c r="B17" t="s">
+      <c r="L16" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="B17" s="4"/>
+      <c r="C17" t="s">
         <v>41</v>
       </c>
-      <c r="D17">
+      <c r="E17">
         <v>39.987803999999997</v>
       </c>
-      <c r="E17">
+      <c r="F17">
         <v>-111.72989099999999</v>
       </c>
-      <c r="F17">
+      <c r="G17">
         <v>54</v>
       </c>
-      <c r="G17">
+      <c r="H17">
         <v>90</v>
       </c>
-      <c r="H17" t="s">
-        <v>93</v>
-      </c>
       <c r="I17" t="s">
         <v>93</v>
       </c>
       <c r="J17" t="s">
+        <v>93</v>
+      </c>
+      <c r="K17" t="s">
         <v>98</v>
       </c>
-    </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A18" s="4"/>
-      <c r="B18" s="4" t="s">
+      <c r="L17" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="B18" s="4"/>
+      <c r="C18" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="D18">
+      <c r="E18">
         <v>40.234889000000003</v>
       </c>
-      <c r="E18">
+      <c r="F18">
         <v>-111.724869</v>
       </c>
-      <c r="F18">
+      <c r="G18">
         <v>1769</v>
       </c>
-      <c r="G18">
+      <c r="H18">
         <v>0</v>
       </c>
-      <c r="H18" t="s">
-        <v>93</v>
-      </c>
       <c r="I18" t="s">
         <v>93</v>
       </c>
       <c r="J18" t="s">
+        <v>93</v>
+      </c>
+      <c r="K18" t="s">
         <v>98</v>
       </c>
-    </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A19" s="4"/>
-      <c r="B19" t="s">
+      <c r="L18" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="B19" s="4"/>
+      <c r="C19" t="s">
         <v>43</v>
       </c>
-      <c r="D19">
+      <c r="E19">
         <v>40.071703999999997</v>
       </c>
-      <c r="E19">
+      <c r="F19">
         <v>-111.57715</v>
       </c>
-      <c r="F19">
+      <c r="G19">
         <v>1712</v>
       </c>
-      <c r="G19">
+      <c r="H19">
         <v>24</v>
       </c>
-      <c r="H19" t="s">
-        <v>93</v>
-      </c>
       <c r="I19" t="s">
         <v>93</v>
       </c>
       <c r="J19" t="s">
+        <v>93</v>
+      </c>
+      <c r="K19" t="s">
         <v>98</v>
       </c>
-    </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A20" s="4"/>
-      <c r="B20" t="s">
+      <c r="L19" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="B20" s="4"/>
+      <c r="C20" t="s">
         <v>44</v>
       </c>
-      <c r="D20">
+      <c r="E20">
         <v>40.071703999999997</v>
       </c>
-      <c r="E20">
+      <c r="F20">
         <v>-111.57715</v>
       </c>
-      <c r="F20">
+      <c r="G20">
         <v>1650</v>
       </c>
-      <c r="G20">
+      <c r="H20">
         <v>25</v>
       </c>
-      <c r="H20" t="s">
-        <v>93</v>
-      </c>
       <c r="I20" t="s">
         <v>93</v>
       </c>
       <c r="J20" t="s">
+        <v>93</v>
+      </c>
+      <c r="K20" t="s">
         <v>98</v>
       </c>
-    </row>
-    <row r="21" spans="1:10" s="13" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="11" t="s">
+      <c r="L20" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12" s="12" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A21" s="12" t="s">
+        <v>93</v>
+      </c>
+      <c r="B21" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="B21" s="11"/>
-      <c r="C21" s="12" t="s">
+      <c r="C21" s="10"/>
+      <c r="D21" s="11" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A22" s="4"/>
-      <c r="B22" s="4" t="s">
+    <row r="22" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="B22" s="4"/>
+      <c r="C22" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="D22">
-        <v>44.515999999999998</v>
-      </c>
-      <c r="E22">
-        <v>-110.05</v>
-      </c>
-      <c r="F22">
+      <c r="E22" s="8">
+        <v>44.512949999999996</v>
+      </c>
+      <c r="F22" s="5">
+        <v>-109.984156</v>
+      </c>
+      <c r="G22">
         <v>494.6</v>
       </c>
-      <c r="G22" t="s">
+      <c r="H22" t="s">
         <v>99</v>
       </c>
-      <c r="H22" t="s">
-        <v>93</v>
-      </c>
       <c r="I22" t="s">
+        <v>93</v>
+      </c>
+      <c r="J22" t="s">
         <v>96</v>
       </c>
-      <c r="J22" t="s">
+      <c r="K22" t="s">
         <v>97</v>
       </c>
-    </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A23" s="4"/>
-      <c r="B23" s="4" t="s">
+      <c r="L22" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="B23" s="4"/>
+      <c r="C23" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="D23">
-        <v>44.555</v>
-      </c>
-      <c r="E23">
-        <v>-110.069</v>
-      </c>
-      <c r="F23">
+      <c r="E23" s="8">
+        <v>44.558208</v>
+      </c>
+      <c r="F23" s="5">
+        <v>-109.995153</v>
+      </c>
+      <c r="G23">
         <v>642.29999999999995</v>
       </c>
-      <c r="G23" t="s">
+      <c r="H23" t="s">
         <v>99</v>
       </c>
-      <c r="H23" t="s">
-        <v>93</v>
-      </c>
       <c r="I23" t="s">
+        <v>93</v>
+      </c>
+      <c r="J23" t="s">
         <v>96</v>
       </c>
-      <c r="J23" t="s">
+      <c r="K23" t="s">
         <v>97</v>
       </c>
-    </row>
-    <row r="24" spans="1:10" s="13" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="15" t="s">
+      <c r="L23" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12" s="12" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A24" s="12" t="s">
+        <v>96</v>
+      </c>
+      <c r="B24" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="B24" s="11"/>
-      <c r="C24" s="13" t="s">
+      <c r="C24" s="10"/>
+      <c r="D24" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="D24" s="16"/>
-      <c r="E24" s="16"/>
-    </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A25" s="4"/>
-      <c r="B25" s="4" t="s">
+      <c r="E24" s="15"/>
+      <c r="F24" s="15"/>
+    </row>
+    <row r="25" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="B25" s="4"/>
+      <c r="C25" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="D25">
+      <c r="E25">
         <v>49.704340000000002</v>
       </c>
-      <c r="E25">
+      <c r="F25">
         <v>-116.118877</v>
       </c>
-      <c r="F25">
+      <c r="G25">
         <v>20.9</v>
       </c>
-      <c r="G25">
+      <c r="H25">
         <v>26.1</v>
       </c>
-      <c r="H25" t="s">
-        <v>93</v>
-      </c>
       <c r="I25" t="s">
         <v>93</v>
       </c>
       <c r="J25" t="s">
+        <v>93</v>
+      </c>
+      <c r="K25" t="s">
         <v>98</v>
       </c>
-    </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A26" s="4"/>
-      <c r="B26" s="4" t="s">
+      <c r="L25" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="26" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="B26" s="4"/>
+      <c r="C26" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="D26">
+      <c r="E26">
         <v>49.712888</v>
       </c>
-      <c r="E26">
+      <c r="F26">
         <v>-116.12221700000001</v>
       </c>
-      <c r="F26">
+      <c r="G26">
         <v>34.5</v>
       </c>
-      <c r="G26">
+      <c r="H26">
         <v>32.799999999999997</v>
       </c>
-      <c r="H26" t="s">
-        <v>93</v>
-      </c>
       <c r="I26" t="s">
         <v>93</v>
       </c>
       <c r="J26" t="s">
+        <v>93</v>
+      </c>
+      <c r="K26" t="s">
         <v>98</v>
       </c>
-    </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A27" s="4"/>
-      <c r="B27" s="4" t="s">
+      <c r="L26" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="27" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="B27" s="4"/>
+      <c r="C27" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="D27">
+      <c r="E27">
         <v>49.706719</v>
       </c>
-      <c r="E27">
+      <c r="F27">
         <v>-116.140608</v>
       </c>
-      <c r="F27">
+      <c r="G27">
         <v>37.799999999999997</v>
       </c>
-      <c r="G27">
+      <c r="H27">
         <v>0</v>
       </c>
-      <c r="H27" t="s">
-        <v>93</v>
-      </c>
       <c r="I27" t="s">
         <v>93</v>
       </c>
       <c r="J27" t="s">
+        <v>93</v>
+      </c>
+      <c r="K27" t="s">
         <v>98</v>
       </c>
-    </row>
-    <row r="28" spans="1:10" s="13" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="11" t="s">
+      <c r="L27" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="28" spans="1:12" s="12" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A28" s="12" t="s">
+        <v>93</v>
+      </c>
+      <c r="B28" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="B28" s="11"/>
-      <c r="C28" s="12" t="s">
+      <c r="C28" s="10"/>
+      <c r="D28" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="D28" s="17"/>
-      <c r="E28" s="17"/>
-    </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A29" s="4"/>
-      <c r="B29" t="s">
+      <c r="E28" s="16"/>
+      <c r="F28" s="16"/>
+    </row>
+    <row r="29" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="B29" s="4"/>
+      <c r="C29" t="s">
         <v>52</v>
       </c>
-      <c r="D29">
+      <c r="E29">
         <v>48.81409</v>
       </c>
-      <c r="E29">
+      <c r="F29">
         <v>-114.39971</v>
       </c>
-      <c r="F29" s="21">
+      <c r="G29" s="20">
         <v>1.83</v>
       </c>
-      <c r="G29">
+      <c r="H29">
         <v>95.6</v>
       </c>
-      <c r="H29" t="s">
-        <v>93</v>
-      </c>
       <c r="I29" t="s">
         <v>93</v>
       </c>
       <c r="J29" t="s">
+        <v>93</v>
+      </c>
+      <c r="K29" t="s">
         <v>97</v>
       </c>
-    </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A30" s="4"/>
-      <c r="B30" t="s">
+      <c r="L29" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="30" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="B30" s="4"/>
+      <c r="C30" t="s">
         <v>53</v>
       </c>
-      <c r="D30">
+      <c r="E30">
         <v>48.793787000000002</v>
       </c>
-      <c r="E30">
+      <c r="F30">
         <v>-114.49179100000001</v>
       </c>
-      <c r="F30" s="21">
+      <c r="G30" s="20">
         <v>2.38</v>
       </c>
-      <c r="G30">
+      <c r="H30">
         <v>0</v>
       </c>
-      <c r="H30" t="s">
-        <v>93</v>
-      </c>
       <c r="I30" t="s">
         <v>93</v>
       </c>
       <c r="J30" t="s">
+        <v>93</v>
+      </c>
+      <c r="K30" t="s">
         <v>97</v>
       </c>
-    </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A31" s="4"/>
-      <c r="B31" t="s">
+      <c r="L30" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="31" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="B31" s="4"/>
+      <c r="C31" t="s">
         <v>54</v>
       </c>
-      <c r="D31">
+      <c r="E31">
         <v>48.802771999999997</v>
       </c>
-      <c r="E31">
+      <c r="F31">
         <v>-114.32894</v>
       </c>
-      <c r="F31" s="21">
+      <c r="G31" s="20">
         <v>64</v>
       </c>
-      <c r="G31">
+      <c r="H31">
         <v>16.2</v>
       </c>
-      <c r="H31" t="s">
-        <v>93</v>
-      </c>
       <c r="I31" t="s">
         <v>93</v>
       </c>
       <c r="J31" t="s">
+        <v>93</v>
+      </c>
+      <c r="K31" t="s">
         <v>97</v>
       </c>
-    </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A32" s="4"/>
-      <c r="B32" t="s">
+      <c r="L31" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="32" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="B32" s="4"/>
+      <c r="C32" t="s">
         <v>55</v>
       </c>
-      <c r="D32">
+      <c r="E32">
         <v>48.688412999999997</v>
       </c>
-      <c r="E32">
+      <c r="F32">
         <v>-114.19973899999999</v>
       </c>
-      <c r="F32" s="21">
+      <c r="G32" s="20">
         <v>211.59</v>
       </c>
-      <c r="G32">
+      <c r="H32">
         <v>0</v>
       </c>
-      <c r="H32" t="s">
-        <v>93</v>
-      </c>
       <c r="I32" t="s">
         <v>93</v>
       </c>
       <c r="J32" t="s">
+        <v>93</v>
+      </c>
+      <c r="K32" t="s">
         <v>97</v>
       </c>
-    </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A33" s="4"/>
-      <c r="B33" t="s">
+      <c r="L32" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="33" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="B33" s="4"/>
+      <c r="C33" t="s">
         <v>57</v>
       </c>
-      <c r="D33">
+      <c r="E33">
         <v>48.902925000000003</v>
       </c>
-      <c r="E33">
+      <c r="F33">
         <v>-114.183566</v>
       </c>
-      <c r="F33" s="21">
+      <c r="G33" s="20">
         <v>238.08</v>
       </c>
-      <c r="G33">
+      <c r="H33">
         <v>0</v>
       </c>
-      <c r="H33" t="s">
-        <v>93</v>
-      </c>
       <c r="I33" t="s">
         <v>93</v>
       </c>
       <c r="J33" t="s">
+        <v>93</v>
+      </c>
+      <c r="K33" t="s">
         <v>97</v>
       </c>
-    </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A34" s="4"/>
-      <c r="B34" t="s">
+      <c r="L33" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="34" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="B34" s="4"/>
+      <c r="C34" t="s">
         <v>56</v>
       </c>
-      <c r="D34">
+      <c r="E34">
         <v>48.814951999999998</v>
       </c>
-      <c r="E34">
+      <c r="F34">
         <v>-113.983313</v>
       </c>
-      <c r="F34" s="21">
+      <c r="G34" s="20">
         <v>105.98</v>
       </c>
-      <c r="G34">
+      <c r="H34">
         <v>9.9</v>
       </c>
-      <c r="H34" t="s">
-        <v>93</v>
-      </c>
       <c r="I34" t="s">
         <v>93</v>
       </c>
       <c r="J34" t="s">
+        <v>93</v>
+      </c>
+      <c r="K34" t="s">
         <v>97</v>
       </c>
-    </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A35" s="4"/>
-      <c r="B35" t="s">
+      <c r="L34" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="35" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="B35" s="4"/>
+      <c r="C35" t="s">
         <v>58</v>
       </c>
-      <c r="D35">
+      <c r="E35">
         <v>48.936976000000001</v>
       </c>
-      <c r="E35">
+      <c r="F35">
         <v>-114.079685</v>
       </c>
-      <c r="F35" s="21">
+      <c r="G35" s="20">
         <v>130.13</v>
       </c>
-      <c r="G35">
+      <c r="H35">
         <v>11.3</v>
       </c>
-      <c r="H35" t="s">
-        <v>93</v>
-      </c>
       <c r="I35" t="s">
         <v>93</v>
       </c>
       <c r="J35" t="s">
+        <v>93</v>
+      </c>
+      <c r="K35" t="s">
         <v>97</v>
       </c>
-    </row>
-    <row r="36" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A36" s="4"/>
-      <c r="B36" t="s">
+      <c r="L35" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="36" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="B36" s="4"/>
+      <c r="C36" t="s">
         <v>59</v>
       </c>
-      <c r="D36">
+      <c r="E36">
         <v>48.866349</v>
       </c>
-      <c r="E36">
+      <c r="F36">
         <v>-114.02640599999999</v>
       </c>
-      <c r="F36" s="21">
+      <c r="G36" s="20">
         <v>136.29</v>
       </c>
-      <c r="G36">
+      <c r="H36">
         <v>29.4</v>
       </c>
-      <c r="H36" t="s">
-        <v>93</v>
-      </c>
       <c r="I36" t="s">
         <v>93</v>
       </c>
       <c r="J36" t="s">
+        <v>93</v>
+      </c>
+      <c r="K36" t="s">
         <v>97</v>
       </c>
-    </row>
-    <row r="37" spans="1:10" s="13" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A37" s="15" t="s">
+      <c r="L36" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="37" spans="1:12" s="12" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A37" s="12" t="s">
+        <v>93</v>
+      </c>
+      <c r="B37" s="14" t="s">
         <v>15</v>
       </c>
-      <c r="C37" s="13" t="s">
+      <c r="D37" s="12" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="38" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A38" s="4"/>
-      <c r="B38" t="s">
+    <row r="38" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="B38" s="4"/>
+      <c r="C38" t="s">
         <v>60</v>
       </c>
-      <c r="D38">
+      <c r="E38">
         <v>38.883760000000002</v>
       </c>
-      <c r="E38">
+      <c r="F38">
         <v>-119.978005</v>
       </c>
-      <c r="F38" s="7"/>
-      <c r="G38" t="s">
+      <c r="G38" s="7">
+        <v>56.080800000000004</v>
+      </c>
+      <c r="H38" t="s">
         <v>99</v>
       </c>
-      <c r="H38" t="s">
+      <c r="I38" t="s">
+        <v>133</v>
+      </c>
+      <c r="J38" t="s">
         <v>96</v>
       </c>
-      <c r="I38" t="s">
+      <c r="K38" t="s">
+        <v>98</v>
+      </c>
+      <c r="L38" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="39" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="B39" s="4"/>
+      <c r="C39" t="s">
+        <v>87</v>
+      </c>
+      <c r="E39">
+        <v>38.898688999999997</v>
+      </c>
+      <c r="F39">
+        <v>-119.948785</v>
+      </c>
+      <c r="G39" s="7">
+        <v>30.347100000000001</v>
+      </c>
+      <c r="H39" t="s">
+        <v>99</v>
+      </c>
+      <c r="I39" t="s">
+        <v>133</v>
+      </c>
+      <c r="J39" t="s">
         <v>96</v>
       </c>
-      <c r="J38" t="s">
+      <c r="K39" t="s">
         <v>98</v>
       </c>
-    </row>
-    <row r="39" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A39" s="4"/>
-      <c r="B39" t="s">
-        <v>87</v>
-      </c>
-      <c r="D39">
-        <v>38.898688999999997</v>
-      </c>
-      <c r="E39">
-        <v>-119.948785</v>
-      </c>
-      <c r="F39" s="7"/>
-      <c r="G39" t="s">
+      <c r="L39" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="40" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="B40" s="4"/>
+      <c r="C40" t="s">
+        <v>61</v>
+      </c>
+      <c r="E40">
+        <v>38.958700999999998</v>
+      </c>
+      <c r="F40">
+        <v>-120.920501</v>
+      </c>
+      <c r="G40" s="7">
+        <v>1520.7759000000001</v>
+      </c>
+      <c r="H40" t="s">
         <v>99</v>
       </c>
-      <c r="H39" t="s">
+      <c r="I40" t="s">
+        <v>133</v>
+      </c>
+      <c r="J40" t="s">
         <v>96</v>
       </c>
-      <c r="I39" t="s">
+      <c r="K40" t="s">
+        <v>98</v>
+      </c>
+      <c r="L40" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="41" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="B41" s="4"/>
+      <c r="C41" t="s">
+        <v>62</v>
+      </c>
+      <c r="E41">
+        <v>39.000053000000001</v>
+      </c>
+      <c r="F41">
+        <v>-120.93990700000001</v>
+      </c>
+      <c r="G41" s="7">
+        <v>856.99530000000004</v>
+      </c>
+      <c r="H41" t="s">
+        <v>99</v>
+      </c>
+      <c r="I41" t="s">
+        <v>133</v>
+      </c>
+      <c r="J41" t="s">
         <v>96</v>
       </c>
-      <c r="J39" t="s">
+      <c r="K41" t="s">
         <v>98</v>
       </c>
-    </row>
-    <row r="40" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A40" s="4"/>
-      <c r="B40" t="s">
-        <v>61</v>
-      </c>
-      <c r="D40">
-        <v>38.958700999999998</v>
-      </c>
-      <c r="E40">
-        <v>-120.920501</v>
-      </c>
-      <c r="F40" s="7"/>
-      <c r="G40" t="s">
+      <c r="L41" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="42" spans="1:12" s="12" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A42" s="12" t="s">
+        <v>93</v>
+      </c>
+      <c r="B42" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="C42" s="10"/>
+      <c r="D42" s="11" t="s">
+        <v>100</v>
+      </c>
+      <c r="E42" s="15"/>
+      <c r="F42" s="15"/>
+    </row>
+    <row r="43" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="B43" s="4"/>
+      <c r="C43" t="s">
+        <v>63</v>
+      </c>
+      <c r="E43">
+        <v>39.906348000000001</v>
+      </c>
+      <c r="F43">
+        <v>-105.37748499999999</v>
+      </c>
+      <c r="G43">
+        <v>96.4</v>
+      </c>
+      <c r="H43">
+        <v>51</v>
+      </c>
+      <c r="I43" t="s">
+        <v>93</v>
+      </c>
+      <c r="J43" t="s">
+        <v>93</v>
+      </c>
+      <c r="K43" t="s">
+        <v>97</v>
+      </c>
+      <c r="L43" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="44" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="B44" s="4"/>
+      <c r="C44" t="s">
+        <v>64</v>
+      </c>
+      <c r="E44">
+        <v>48.422220000000003</v>
+      </c>
+      <c r="F44">
+        <v>-113.70055549999999</v>
+      </c>
+      <c r="G44">
+        <v>47.3</v>
+      </c>
+      <c r="H44">
+        <v>0</v>
+      </c>
+      <c r="I44" t="s">
+        <v>93</v>
+      </c>
+      <c r="J44" t="s">
+        <v>93</v>
+      </c>
+      <c r="K44" t="s">
+        <v>97</v>
+      </c>
+      <c r="L44" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="45" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="B45" s="4"/>
+      <c r="C45" t="s">
+        <v>65</v>
+      </c>
+      <c r="E45">
+        <v>48.54888888</v>
+      </c>
+      <c r="F45">
+        <v>-113.9858333</v>
+      </c>
+      <c r="G45">
+        <v>42.6</v>
+      </c>
+      <c r="H45">
+        <v>73</v>
+      </c>
+      <c r="I45" t="s">
+        <v>93</v>
+      </c>
+      <c r="J45" t="s">
+        <v>93</v>
+      </c>
+      <c r="K45" t="s">
+        <v>97</v>
+      </c>
+      <c r="L45" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="46" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="B46" s="4"/>
+      <c r="C46" t="s">
+        <v>66</v>
+      </c>
+      <c r="E46">
+        <v>48.635277780000003</v>
+      </c>
+      <c r="F46">
+        <v>-113.86694439999999</v>
+      </c>
+      <c r="G46">
+        <v>450</v>
+      </c>
+      <c r="H46">
+        <v>30</v>
+      </c>
+      <c r="I46" t="s">
+        <v>93</v>
+      </c>
+      <c r="J46" t="s">
+        <v>93</v>
+      </c>
+      <c r="K46" t="s">
+        <v>97</v>
+      </c>
+      <c r="L46" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="47" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="B47" s="4"/>
+      <c r="C47" t="s">
+        <v>67</v>
+      </c>
+      <c r="E47">
+        <v>48.635277780000003</v>
+      </c>
+      <c r="F47">
+        <v>-113.86694439999999</v>
+      </c>
+      <c r="G47">
+        <v>282</v>
+      </c>
+      <c r="H47">
+        <v>26</v>
+      </c>
+      <c r="I47" t="s">
+        <v>93</v>
+      </c>
+      <c r="J47" t="s">
+        <v>93</v>
+      </c>
+      <c r="K47" t="s">
+        <v>97</v>
+      </c>
+      <c r="L47" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="48" spans="1:12" s="12" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A48" s="12" t="s">
+        <v>93</v>
+      </c>
+      <c r="B48" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="C48" s="10"/>
+      <c r="D48" s="17" t="s">
+        <v>18</v>
+      </c>
+      <c r="E48" s="12">
+        <v>40.033332999999999</v>
+      </c>
+      <c r="F48" s="12">
+        <v>-105.416667</v>
+      </c>
+    </row>
+    <row r="49" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="B49" s="4"/>
+      <c r="C49" t="s">
+        <v>68</v>
+      </c>
+      <c r="D49" s="5"/>
+      <c r="E49" s="5">
+        <v>40.039045999999999</v>
+      </c>
+      <c r="F49" s="8">
+        <v>-105.393878</v>
+      </c>
+      <c r="G49">
+        <v>37</v>
+      </c>
+      <c r="H49" t="s">
         <v>99</v>
       </c>
-      <c r="H40" t="s">
+      <c r="I49" t="s">
+        <v>97</v>
+      </c>
+      <c r="J49" t="s">
         <v>96</v>
       </c>
-      <c r="I40" t="s">
+      <c r="K49" t="s">
+        <v>98</v>
+      </c>
+      <c r="L49" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="50" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="B50" s="4"/>
+      <c r="C50" t="s">
+        <v>69</v>
+      </c>
+      <c r="D50" s="5"/>
+      <c r="E50" s="5">
+        <v>40.041668000000001</v>
+      </c>
+      <c r="F50" s="8">
+        <v>-105.364823</v>
+      </c>
+      <c r="G50">
+        <v>50</v>
+      </c>
+      <c r="H50" t="s">
+        <v>99</v>
+      </c>
+      <c r="I50" t="s">
+        <v>101</v>
+      </c>
+      <c r="J50" t="s">
         <v>96</v>
       </c>
-      <c r="J40" t="s">
+      <c r="K50" t="s">
         <v>98</v>
       </c>
-    </row>
-    <row r="41" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A41" s="4"/>
-      <c r="B41" t="s">
-        <v>62</v>
-      </c>
-      <c r="D41">
-        <v>39.000053000000001</v>
-      </c>
-      <c r="E41">
-        <v>-120.93990700000001</v>
-      </c>
-      <c r="F41" s="7"/>
-      <c r="G41" t="s">
+      <c r="L50" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="51" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="B51" s="4"/>
+      <c r="C51" t="s">
+        <v>70</v>
+      </c>
+      <c r="D51" s="5"/>
+      <c r="E51" s="5">
+        <v>40.015500000000003</v>
+      </c>
+      <c r="F51" s="8">
+        <v>-105.324566</v>
+      </c>
+      <c r="G51">
+        <v>63.1</v>
+      </c>
+      <c r="H51" t="s">
         <v>99</v>
       </c>
-      <c r="H41" t="s">
+      <c r="I51" t="s">
+        <v>101</v>
+      </c>
+      <c r="J51" t="s">
         <v>96</v>
       </c>
-      <c r="I41" t="s">
+      <c r="K51" t="s">
+        <v>98</v>
+      </c>
+      <c r="L51" s="5" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="52" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="B52" s="4"/>
+      <c r="C52" t="s">
+        <v>71</v>
+      </c>
+      <c r="D52" s="5"/>
+      <c r="E52" s="5">
+        <v>40.036102999999997</v>
+      </c>
+      <c r="F52" s="8">
+        <v>-105.43910099999999</v>
+      </c>
+      <c r="G52">
+        <v>25.9</v>
+      </c>
+      <c r="H52" t="s">
+        <v>99</v>
+      </c>
+      <c r="I52" t="s">
+        <v>97</v>
+      </c>
+      <c r="J52" t="s">
         <v>96</v>
       </c>
-      <c r="J41" t="s">
+      <c r="K52" t="s">
         <v>98</v>
       </c>
-    </row>
-    <row r="42" spans="1:10" s="13" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A42" s="11" t="s">
-        <v>16</v>
-      </c>
-      <c r="B42" s="11"/>
-      <c r="C42" s="12" t="s">
-        <v>100</v>
-      </c>
-      <c r="D42" s="16"/>
-      <c r="E42" s="16"/>
-    </row>
-    <row r="43" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A43" s="4"/>
-      <c r="B43" t="s">
-        <v>63</v>
-      </c>
-      <c r="D43">
-        <v>39.906348000000001</v>
-      </c>
-      <c r="E43">
-        <v>-105.37748499999999</v>
-      </c>
-      <c r="F43">
-        <v>96.4</v>
-      </c>
-      <c r="G43">
-        <v>51</v>
-      </c>
-      <c r="H43" t="s">
-        <v>93</v>
-      </c>
-      <c r="I43" t="s">
-        <v>93</v>
-      </c>
-      <c r="J43" t="s">
+      <c r="L52" s="5" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="53" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="B53" s="4"/>
+      <c r="C53" t="s">
+        <v>72</v>
+      </c>
+      <c r="D53" s="5"/>
+      <c r="E53">
+        <v>40.037790999999999</v>
+      </c>
+      <c r="F53" s="9">
+        <v>-105.42124699999999</v>
+      </c>
+      <c r="G53">
+        <v>29</v>
+      </c>
+      <c r="H53" t="s">
+        <v>99</v>
+      </c>
+      <c r="I53" t="s">
         <v>97</v>
       </c>
-    </row>
-    <row r="44" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A44" s="4"/>
-      <c r="B44" t="s">
-        <v>64</v>
-      </c>
-      <c r="D44">
-        <v>48.422220000000003</v>
-      </c>
-      <c r="E44">
-        <v>-113.70055549999999</v>
-      </c>
-      <c r="F44">
-        <v>47.3</v>
-      </c>
-      <c r="G44">
+      <c r="J53" t="s">
+        <v>96</v>
+      </c>
+      <c r="K53" t="s">
+        <v>98</v>
+      </c>
+      <c r="L53" s="5" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="54" spans="1:12" s="12" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A54" s="12" t="s">
+        <v>93</v>
+      </c>
+      <c r="B54" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="C54" s="10"/>
+      <c r="D54" s="17" t="s">
+        <v>18</v>
+      </c>
+      <c r="E54" s="12">
+        <v>40.050263700000002</v>
+      </c>
+      <c r="F54" s="12">
+        <v>-105.3666599</v>
+      </c>
+    </row>
+    <row r="55" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="B55" s="4"/>
+      <c r="C55" t="s">
+        <v>68</v>
+      </c>
+      <c r="D55" s="5"/>
+      <c r="E55" s="5">
+        <v>40.039045999999999</v>
+      </c>
+      <c r="F55" s="8">
+        <v>-105.393878</v>
+      </c>
+      <c r="G55">
+        <v>370</v>
+      </c>
+      <c r="H55" t="s">
+        <v>99</v>
+      </c>
+      <c r="I55" t="s">
+        <v>97</v>
+      </c>
+      <c r="J55" t="s">
+        <v>96</v>
+      </c>
+      <c r="K55" t="s">
+        <v>98</v>
+      </c>
+      <c r="L55" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="56" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="B56" s="4"/>
+      <c r="C56" t="s">
+        <v>69</v>
+      </c>
+      <c r="D56" s="5"/>
+      <c r="E56" s="5">
+        <v>40.041668000000001</v>
+      </c>
+      <c r="F56" s="8">
+        <v>-105.364823</v>
+      </c>
+      <c r="G56">
+        <v>500</v>
+      </c>
+      <c r="H56" t="s">
+        <v>99</v>
+      </c>
+      <c r="I56" t="s">
+        <v>101</v>
+      </c>
+      <c r="J56" t="s">
+        <v>96</v>
+      </c>
+      <c r="K56" t="s">
+        <v>98</v>
+      </c>
+      <c r="L56" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="57" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="B57" s="4"/>
+      <c r="C57" t="s">
+        <v>70</v>
+      </c>
+      <c r="D57" s="5"/>
+      <c r="E57" s="5">
+        <v>40.015500000000003</v>
+      </c>
+      <c r="F57" s="8">
+        <v>-105.324566</v>
+      </c>
+      <c r="G57">
+        <v>631</v>
+      </c>
+      <c r="H57" t="s">
+        <v>99</v>
+      </c>
+      <c r="I57" t="s">
+        <v>101</v>
+      </c>
+      <c r="J57" t="s">
+        <v>96</v>
+      </c>
+      <c r="K57" t="s">
+        <v>98</v>
+      </c>
+      <c r="L57" s="5" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="58" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="B58" s="4"/>
+      <c r="C58" t="s">
+        <v>71</v>
+      </c>
+      <c r="D58" s="5"/>
+      <c r="E58" s="5">
+        <v>40.036102999999997</v>
+      </c>
+      <c r="F58" s="8">
+        <v>-105.43910099999999</v>
+      </c>
+      <c r="G58">
+        <v>259</v>
+      </c>
+      <c r="H58" t="s">
+        <v>99</v>
+      </c>
+      <c r="I58" t="s">
+        <v>97</v>
+      </c>
+      <c r="J58" t="s">
+        <v>96</v>
+      </c>
+      <c r="K58" t="s">
+        <v>98</v>
+      </c>
+      <c r="L58" s="5" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="59" spans="1:12" s="12" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A59" s="12" t="s">
+        <v>93</v>
+      </c>
+      <c r="B59" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="C59" s="10"/>
+      <c r="D59" s="12" t="s">
+        <v>104</v>
+      </c>
+      <c r="E59" s="12">
+        <v>36.095348999999999</v>
+      </c>
+      <c r="F59" s="12">
+        <v>-82.265000000000001</v>
+      </c>
+    </row>
+    <row r="60" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="B60" s="4"/>
+      <c r="C60" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="E60">
+        <v>34.937945999999997</v>
+      </c>
+      <c r="F60">
+        <v>-83.093596000000005</v>
+      </c>
+      <c r="G60">
+        <v>3.66</v>
+      </c>
+      <c r="H60">
         <v>0</v>
       </c>
-      <c r="H44" t="s">
-        <v>93</v>
-      </c>
-      <c r="I44" t="s">
-        <v>93</v>
-      </c>
-      <c r="J44" t="s">
+      <c r="I60" t="s">
+        <v>93</v>
+      </c>
+      <c r="J60" t="s">
+        <v>93</v>
+      </c>
+      <c r="K60" t="s">
         <v>97</v>
       </c>
-    </row>
-    <row r="45" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A45" s="4"/>
-      <c r="B45" t="s">
-        <v>65</v>
-      </c>
-      <c r="D45">
-        <v>48.54888888</v>
-      </c>
-      <c r="E45">
-        <v>-113.9858333</v>
-      </c>
-      <c r="F45">
-        <v>42.6</v>
-      </c>
-      <c r="G45">
+      <c r="L60" s="5" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="61" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="B61" s="4"/>
+      <c r="C61" t="s">
         <v>73</v>
       </c>
-      <c r="H45" t="s">
-        <v>93</v>
-      </c>
-      <c r="I45" t="s">
-        <v>93</v>
-      </c>
-      <c r="J45" t="s">
+      <c r="E61">
+        <v>34.920959000000003</v>
+      </c>
+      <c r="F61">
+        <v>-83.092200000000005</v>
+      </c>
+      <c r="G61">
+        <v>21.8</v>
+      </c>
+      <c r="H61">
+        <v>31.3</v>
+      </c>
+      <c r="I61" t="s">
+        <v>93</v>
+      </c>
+      <c r="J61" t="s">
+        <v>93</v>
+      </c>
+      <c r="K61" t="s">
         <v>97</v>
       </c>
-    </row>
-    <row r="46" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A46" s="4"/>
-      <c r="B46" t="s">
-        <v>66</v>
-      </c>
-      <c r="D46">
-        <v>48.635277780000003</v>
-      </c>
-      <c r="E46">
-        <v>-113.86694439999999</v>
-      </c>
-      <c r="F46">
-        <v>450</v>
-      </c>
-      <c r="G46">
-        <v>30</v>
-      </c>
-      <c r="H46" t="s">
-        <v>93</v>
-      </c>
-      <c r="I46" t="s">
-        <v>93</v>
-      </c>
-      <c r="J46" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="47" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A47" s="4"/>
-      <c r="B47" t="s">
-        <v>67</v>
-      </c>
-      <c r="D47">
-        <v>48.635277780000003</v>
-      </c>
-      <c r="E47">
-        <v>-113.86694439999999</v>
-      </c>
-      <c r="F47">
-        <v>282</v>
-      </c>
-      <c r="G47">
-        <v>26</v>
-      </c>
-      <c r="H47" t="s">
-        <v>93</v>
-      </c>
-      <c r="I47" t="s">
-        <v>93</v>
-      </c>
-      <c r="J47" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="48" spans="1:10" s="13" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A48" s="15" t="s">
-        <v>17</v>
-      </c>
-      <c r="B48" s="11"/>
-      <c r="C48" s="18" t="s">
-        <v>18</v>
-      </c>
-      <c r="D48" s="13">
-        <v>40.033332999999999</v>
-      </c>
-      <c r="E48" s="13">
-        <v>-105.416667</v>
-      </c>
-    </row>
-    <row r="49" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A49" s="4"/>
-      <c r="B49" t="s">
-        <v>68</v>
-      </c>
-      <c r="C49" s="5"/>
-      <c r="D49" s="5">
-        <v>40.039045999999999</v>
-      </c>
-      <c r="E49" s="9">
-        <v>-105.393878</v>
-      </c>
-      <c r="F49">
-        <v>370</v>
-      </c>
-      <c r="G49" t="s">
+      <c r="L61" s="5" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="62" spans="1:12" s="12" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A62" s="12" t="s">
+        <v>93</v>
+      </c>
+      <c r="B62" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="C62" s="10"/>
+      <c r="D62" s="11" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="63" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="B63" s="4"/>
+      <c r="C63" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="E63">
+        <v>38.868000000000002</v>
+      </c>
+      <c r="F63">
+        <v>-120.062</v>
+      </c>
+      <c r="G63">
+        <v>6.64</v>
+      </c>
+      <c r="H63">
+        <v>74</v>
+      </c>
+      <c r="I63" t="s">
+        <v>93</v>
+      </c>
+      <c r="J63" t="s">
+        <v>93</v>
+      </c>
+      <c r="K63" t="s">
+        <v>98</v>
+      </c>
+      <c r="L63" s="5" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="64" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="B64" s="4"/>
+      <c r="C64" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="E64">
+        <v>38.880000000000003</v>
+      </c>
+      <c r="F64">
+        <v>-120.041</v>
+      </c>
+      <c r="G64" s="7"/>
+      <c r="H64" t="s">
         <v>99</v>
-      </c>
-      <c r="H49" t="s">
-        <v>97</v>
-      </c>
-      <c r="I49" t="s">
-        <v>96</v>
-      </c>
-      <c r="J49" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="50" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A50" s="4"/>
-      <c r="B50" t="s">
-        <v>69</v>
-      </c>
-      <c r="C50" s="5"/>
-      <c r="D50" s="5">
-        <v>40.041668000000001</v>
-      </c>
-      <c r="E50" s="9">
-        <v>-105.364823</v>
-      </c>
-      <c r="F50">
-        <v>500</v>
-      </c>
-      <c r="G50" t="s">
-        <v>99</v>
-      </c>
-      <c r="H50" t="s">
-        <v>101</v>
-      </c>
-      <c r="I50" t="s">
-        <v>96</v>
-      </c>
-      <c r="J50" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="51" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A51" s="4"/>
-      <c r="B51" t="s">
-        <v>70</v>
-      </c>
-      <c r="C51" s="5"/>
-      <c r="D51" s="5">
-        <v>40.015500000000003</v>
-      </c>
-      <c r="E51" s="9">
-        <v>-105.324566</v>
-      </c>
-      <c r="F51">
-        <v>631</v>
-      </c>
-      <c r="G51" t="s">
-        <v>99</v>
-      </c>
-      <c r="H51" t="s">
-        <v>101</v>
-      </c>
-      <c r="I51" t="s">
-        <v>96</v>
-      </c>
-      <c r="J51" t="s">
-        <v>98</v>
-      </c>
-      <c r="K51" s="5"/>
-    </row>
-    <row r="52" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A52" s="4"/>
-      <c r="B52" t="s">
-        <v>71</v>
-      </c>
-      <c r="C52" s="5"/>
-      <c r="D52" s="5">
-        <v>40.036102999999997</v>
-      </c>
-      <c r="E52" s="9">
-        <v>-105.43910099999999</v>
-      </c>
-      <c r="F52">
-        <v>259</v>
-      </c>
-      <c r="G52" t="s">
-        <v>99</v>
-      </c>
-      <c r="H52" t="s">
-        <v>97</v>
-      </c>
-      <c r="I52" t="s">
-        <v>96</v>
-      </c>
-      <c r="J52" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="53" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A53" s="4"/>
-      <c r="B53" t="s">
-        <v>72</v>
-      </c>
-      <c r="C53" s="5"/>
-      <c r="D53">
-        <v>40.037790999999999</v>
-      </c>
-      <c r="E53" s="10">
-        <v>-105.42124699999999</v>
-      </c>
-      <c r="F53">
-        <v>290</v>
-      </c>
-      <c r="G53" t="s">
-        <v>99</v>
-      </c>
-      <c r="H53" t="s">
-        <v>97</v>
-      </c>
-      <c r="I53" t="s">
-        <v>96</v>
-      </c>
-      <c r="J53" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="54" spans="1:11" s="13" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A54" s="15" t="s">
-        <v>19</v>
-      </c>
-      <c r="B54" s="11"/>
-      <c r="C54" s="18" t="s">
-        <v>18</v>
-      </c>
-      <c r="D54" s="13">
-        <v>40.050263700000002</v>
-      </c>
-      <c r="E54" s="13">
-        <v>-105.3666599</v>
-      </c>
-    </row>
-    <row r="55" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A55" s="4"/>
-      <c r="B55" t="s">
-        <v>68</v>
-      </c>
-      <c r="C55" s="5"/>
-      <c r="D55" s="5">
-        <v>40.039045999999999</v>
-      </c>
-      <c r="E55" s="9">
-        <v>-105.393878</v>
-      </c>
-      <c r="F55">
-        <v>370</v>
-      </c>
-      <c r="G55" t="s">
-        <v>99</v>
-      </c>
-      <c r="H55" t="s">
-        <v>97</v>
-      </c>
-      <c r="I55" t="s">
-        <v>96</v>
-      </c>
-      <c r="J55" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="56" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A56" s="4"/>
-      <c r="B56" t="s">
-        <v>69</v>
-      </c>
-      <c r="C56" s="5"/>
-      <c r="D56" s="5">
-        <v>40.041668000000001</v>
-      </c>
-      <c r="E56" s="9">
-        <v>-105.364823</v>
-      </c>
-      <c r="F56">
-        <v>500</v>
-      </c>
-      <c r="G56" t="s">
-        <v>99</v>
-      </c>
-      <c r="H56" t="s">
-        <v>101</v>
-      </c>
-      <c r="I56" t="s">
-        <v>96</v>
-      </c>
-      <c r="J56" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="57" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A57" s="4"/>
-      <c r="B57" t="s">
-        <v>70</v>
-      </c>
-      <c r="C57" s="5"/>
-      <c r="D57" s="5">
-        <v>40.015500000000003</v>
-      </c>
-      <c r="E57" s="9">
-        <v>-105.324566</v>
-      </c>
-      <c r="F57">
-        <v>631</v>
-      </c>
-      <c r="G57" t="s">
-        <v>99</v>
-      </c>
-      <c r="H57" t="s">
-        <v>101</v>
-      </c>
-      <c r="I57" t="s">
-        <v>96</v>
-      </c>
-      <c r="J57" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="58" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A58" s="4"/>
-      <c r="B58" t="s">
-        <v>71</v>
-      </c>
-      <c r="C58" s="5"/>
-      <c r="D58" s="5">
-        <v>40.036102999999997</v>
-      </c>
-      <c r="E58" s="9">
-        <v>-105.43910099999999</v>
-      </c>
-      <c r="F58">
-        <v>259</v>
-      </c>
-      <c r="G58" t="s">
-        <v>99</v>
-      </c>
-      <c r="H58" t="s">
-        <v>97</v>
-      </c>
-      <c r="I58" t="s">
-        <v>96</v>
-      </c>
-      <c r="J58" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="59" spans="1:11" s="13" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A59" s="11" t="s">
-        <v>20</v>
-      </c>
-      <c r="B59" s="11"/>
-      <c r="C59" s="13" t="s">
-        <v>104</v>
-      </c>
-      <c r="D59" s="13">
-        <v>36.095348999999999</v>
-      </c>
-      <c r="E59" s="13">
-        <v>-82.265000000000001</v>
-      </c>
-    </row>
-    <row r="60" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A60" s="4"/>
-      <c r="B60" s="4" t="s">
-        <v>74</v>
-      </c>
-      <c r="D60">
-        <v>34.937945999999997</v>
-      </c>
-      <c r="E60">
-        <v>-83.093596000000005</v>
-      </c>
-      <c r="F60">
-        <v>36.6</v>
-      </c>
-      <c r="G60">
-        <v>0</v>
-      </c>
-      <c r="H60" t="s">
-        <v>93</v>
-      </c>
-      <c r="I60" t="s">
-        <v>93</v>
-      </c>
-      <c r="J60" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="61" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A61" s="4"/>
-      <c r="B61" t="s">
-        <v>73</v>
-      </c>
-      <c r="D61">
-        <v>34.920959000000003</v>
-      </c>
-      <c r="E61">
-        <v>-83.092200000000005</v>
-      </c>
-      <c r="F61">
-        <v>21.8</v>
-      </c>
-      <c r="G61">
-        <v>31.3</v>
-      </c>
-      <c r="H61" t="s">
-        <v>93</v>
-      </c>
-      <c r="I61" t="s">
-        <v>93</v>
-      </c>
-      <c r="J61" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="62" spans="1:11" s="13" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A62" s="15" t="s">
-        <v>21</v>
-      </c>
-      <c r="B62" s="11"/>
-      <c r="C62" s="12" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="63" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A63" s="4"/>
-      <c r="B63" s="4" t="s">
-        <v>78</v>
-      </c>
-      <c r="D63">
-        <v>38.868000000000002</v>
-      </c>
-      <c r="E63">
-        <v>-120.062</v>
-      </c>
-      <c r="F63">
-        <v>66.400000000000006</v>
-      </c>
-      <c r="G63">
-        <v>74</v>
-      </c>
-      <c r="H63" t="s">
-        <v>93</v>
-      </c>
-      <c r="I63" t="s">
-        <v>93</v>
-      </c>
-      <c r="J63" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="64" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A64" s="4"/>
-      <c r="B64" s="4" t="s">
-        <v>75</v>
-      </c>
-      <c r="D64">
-        <v>38.880000000000003</v>
-      </c>
-      <c r="E64">
-        <v>-120.041</v>
-      </c>
-      <c r="F64" s="7"/>
-      <c r="G64" t="s">
-        <v>99</v>
-      </c>
-      <c r="H64" t="s">
-        <v>96</v>
       </c>
       <c r="I64" t="s">
         <v>96</v>
       </c>
       <c r="J64" t="s">
+        <v>96</v>
+      </c>
+      <c r="K64" t="s">
         <v>98</v>
       </c>
-    </row>
-    <row r="65" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A65" s="4"/>
-      <c r="B65" s="4" t="s">
+      <c r="L64" s="5" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="65" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="B65" s="4"/>
+      <c r="C65" s="4" t="s">
         <v>76</v>
       </c>
-      <c r="D65">
+      <c r="E65">
         <v>38.878999999999998</v>
       </c>
-      <c r="E65">
+      <c r="F65">
         <v>-120.03</v>
       </c>
-      <c r="F65">
-        <v>83.9</v>
-      </c>
       <c r="G65">
+        <v>8.39</v>
+      </c>
+      <c r="H65">
         <v>41</v>
       </c>
-      <c r="H65" t="s">
-        <v>93</v>
-      </c>
       <c r="I65" t="s">
         <v>93</v>
       </c>
       <c r="J65" t="s">
+        <v>93</v>
+      </c>
+      <c r="K65" t="s">
         <v>98</v>
       </c>
-    </row>
-    <row r="66" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A66" s="4"/>
-      <c r="B66" s="4" t="s">
+      <c r="L65" s="5" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="66" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="B66" s="4"/>
+      <c r="C66" s="4" t="s">
         <v>77</v>
       </c>
-      <c r="D66">
+      <c r="E66">
         <v>38.872999999999998</v>
       </c>
-      <c r="E66">
+      <c r="F66">
         <v>-120.01300000000001</v>
       </c>
-      <c r="F66">
-        <v>150.30000000000001</v>
-      </c>
       <c r="G66">
+        <v>15.3</v>
+      </c>
+      <c r="H66">
         <v>56</v>
       </c>
-      <c r="H66" t="s">
-        <v>93</v>
-      </c>
       <c r="I66" t="s">
         <v>93</v>
       </c>
       <c r="J66" t="s">
+        <v>93</v>
+      </c>
+      <c r="K66" t="s">
         <v>98</v>
       </c>
-    </row>
-    <row r="67" spans="1:10" s="13" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A67" s="15" t="s">
+      <c r="L66" s="5" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="67" spans="1:12" s="12" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A67" s="12" t="s">
+        <v>93</v>
+      </c>
+      <c r="B67" s="14" t="s">
         <v>23</v>
       </c>
-      <c r="B67" s="11"/>
-      <c r="C67" s="13" t="s">
+      <c r="C67" s="10"/>
+      <c r="D67" s="12" t="s">
         <v>24</v>
       </c>
-      <c r="D67" s="19"/>
-      <c r="E67" s="19"/>
-    </row>
-    <row r="68" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A68" s="4"/>
-      <c r="B68" t="s">
+      <c r="E67" s="18"/>
+      <c r="F67" s="18"/>
+    </row>
+    <row r="68" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="B68" s="4"/>
+      <c r="C68" t="s">
         <v>79</v>
       </c>
-      <c r="D68" s="8"/>
-      <c r="E68" s="8"/>
+      <c r="E68">
+        <v>48.035327000000002</v>
+      </c>
       <c r="F68">
+        <v>-120.29184600000001</v>
+      </c>
+      <c r="G68">
         <v>68</v>
       </c>
-      <c r="G68" t="s">
+      <c r="H68" t="s">
         <v>99</v>
       </c>
-      <c r="H68" t="s">
-        <v>93</v>
-      </c>
       <c r="I68" t="s">
+        <v>93</v>
+      </c>
+      <c r="J68" t="s">
         <v>102</v>
       </c>
-      <c r="J68" t="s">
+      <c r="K68" t="s">
         <v>96</v>
       </c>
-    </row>
-    <row r="69" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A69" s="4"/>
-      <c r="B69" t="s">
+      <c r="L68" s="5" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="69" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="B69" s="4"/>
+      <c r="C69" t="s">
         <v>80</v>
       </c>
-      <c r="D69" s="8"/>
-      <c r="E69" s="8"/>
+      <c r="E69">
+        <v>48.021419999999999</v>
+      </c>
       <c r="F69">
+        <v>-120.25558100000001</v>
+      </c>
+      <c r="G69">
         <v>280</v>
       </c>
-      <c r="G69" t="s">
+      <c r="H69" t="s">
         <v>99</v>
       </c>
-      <c r="H69" t="s">
-        <v>93</v>
-      </c>
       <c r="I69" t="s">
+        <v>93</v>
+      </c>
+      <c r="J69" t="s">
         <v>102</v>
       </c>
-      <c r="J69" t="s">
+      <c r="K69" t="s">
         <v>96</v>
       </c>
-    </row>
-    <row r="70" spans="1:10" s="13" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A70" s="15" t="s">
+      <c r="L69" s="5" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="70" spans="1:12" s="12" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A70" s="12" t="s">
+        <v>93</v>
+      </c>
+      <c r="B70" s="14" t="s">
         <v>25</v>
       </c>
-      <c r="B70" s="11"/>
-      <c r="C70" s="18" t="s">
+      <c r="C70" s="10"/>
+      <c r="D70" s="17" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="71" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A71" s="4"/>
-      <c r="B71" t="s">
+    <row r="71" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="B71" s="4"/>
+      <c r="C71" t="s">
         <v>81</v>
       </c>
-      <c r="C71" s="5"/>
-      <c r="D71">
+      <c r="D71" s="5"/>
+      <c r="E71">
         <v>38.451371999999999</v>
       </c>
-      <c r="E71">
+      <c r="F71">
         <v>122.056381</v>
       </c>
-      <c r="F71">
+      <c r="G71">
         <v>78</v>
       </c>
-      <c r="G71" t="s">
+      <c r="H71" t="s">
         <v>99</v>
       </c>
-      <c r="H71" t="s">
-        <v>93</v>
-      </c>
       <c r="I71" t="s">
+        <v>93</v>
+      </c>
+      <c r="J71" t="s">
         <v>96</v>
       </c>
-      <c r="J71" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="72" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A72" s="4"/>
-      <c r="B72" s="4" t="s">
+      <c r="K71" t="s">
+        <v>93</v>
+      </c>
+      <c r="L71" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="72" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="B72" s="4"/>
+      <c r="C72" s="4" t="s">
         <v>82</v>
       </c>
-      <c r="C72" s="5"/>
-      <c r="D72" s="6">
+      <c r="D72" s="5"/>
+      <c r="E72" s="6">
         <v>38.923563999999999</v>
       </c>
-      <c r="E72" s="6">
+      <c r="F72" s="6">
         <v>122.32647799999999</v>
       </c>
-      <c r="F72">
+      <c r="G72">
         <v>3017</v>
       </c>
-      <c r="G72" t="s">
+      <c r="H72" t="s">
         <v>99</v>
       </c>
-      <c r="H72" t="s">
-        <v>93</v>
-      </c>
       <c r="I72" t="s">
+        <v>93</v>
+      </c>
+      <c r="J72" t="s">
         <v>96</v>
       </c>
-      <c r="J72" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="73" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A73" s="4"/>
-      <c r="B73" s="4" t="s">
+      <c r="K72" t="s">
+        <v>93</v>
+      </c>
+      <c r="L72" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="73" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="B73" s="4"/>
+      <c r="C73" s="4" t="s">
         <v>83</v>
       </c>
-      <c r="C73" s="5"/>
-      <c r="D73">
+      <c r="D73" s="5"/>
+      <c r="E73">
         <v>38.512031</v>
       </c>
-      <c r="E73">
+      <c r="F73">
         <v>122.097228</v>
       </c>
-      <c r="F73" s="7"/>
-      <c r="G73" t="s">
+      <c r="G73" s="7"/>
+      <c r="H73" t="s">
         <v>99</v>
-      </c>
-      <c r="H73" t="s">
-        <v>96</v>
       </c>
       <c r="I73" t="s">
         <v>96</v>
       </c>
       <c r="J73" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="74" spans="1:10" s="13" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A74" s="15" t="s">
+        <v>96</v>
+      </c>
+      <c r="K73" t="s">
+        <v>93</v>
+      </c>
+      <c r="L73" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="74" spans="1:12" s="12" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A74" s="12" t="s">
+        <v>93</v>
+      </c>
+      <c r="B74" s="14" t="s">
         <v>27</v>
       </c>
-      <c r="B74" s="11"/>
-      <c r="C74" s="12" t="s">
+      <c r="C74" s="10"/>
+      <c r="D74" s="11" t="s">
         <v>28</v>
       </c>
-      <c r="D74" s="20"/>
-      <c r="E74" s="20"/>
-    </row>
-    <row r="75" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A75" s="4"/>
-      <c r="B75" s="4" t="s">
+      <c r="E74" s="19"/>
+      <c r="F74" s="19"/>
+    </row>
+    <row r="75" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="B75" s="4"/>
+      <c r="C75" s="4" t="s">
         <v>84</v>
       </c>
-      <c r="D75">
+      <c r="E75">
         <v>40.728676</v>
       </c>
-      <c r="E75">
+      <c r="F75">
         <v>-105.844109</v>
       </c>
-      <c r="F75">
+      <c r="G75">
+        <v>618.46</v>
+      </c>
+      <c r="H75" t="s">
+        <v>99</v>
+      </c>
+      <c r="I75" t="s">
+        <v>97</v>
+      </c>
+      <c r="J75" t="s">
+        <v>102</v>
+      </c>
+      <c r="K75" t="s">
+        <v>97</v>
+      </c>
+      <c r="L75" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="76" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="B76" s="4"/>
+      <c r="C76" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="E76">
+        <v>40.709603999999999</v>
+      </c>
+      <c r="F76">
+        <v>-105.233305</v>
+      </c>
+      <c r="G76">
+        <v>963.26</v>
+      </c>
+      <c r="H76" t="s">
+        <v>99</v>
+      </c>
+      <c r="I76" t="s">
+        <v>97</v>
+      </c>
+      <c r="J76" t="s">
+        <v>102</v>
+      </c>
+      <c r="K76" t="s">
+        <v>97</v>
+      </c>
+      <c r="L76" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="77" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="B77" s="4"/>
+      <c r="C77" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="E77">
+        <v>40.701225999999998</v>
+      </c>
+      <c r="F77">
+        <v>-105.757445</v>
+      </c>
+      <c r="G77">
+        <v>1255.1500000000001</v>
+      </c>
+      <c r="H77" t="s">
+        <v>99</v>
+      </c>
+      <c r="I77" t="s">
+        <v>97</v>
+      </c>
+      <c r="J77" t="s">
+        <v>102</v>
+      </c>
+      <c r="K77" t="s">
+        <v>97</v>
+      </c>
+      <c r="L77" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="78" spans="1:12" s="12" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A78" s="12" t="s">
+        <v>93</v>
+      </c>
+      <c r="B78" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="C78" s="10"/>
+      <c r="D78" s="12" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="79" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="C79" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="E79">
+        <v>40.728676</v>
+      </c>
+      <c r="F79">
+        <v>-105.844109</v>
+      </c>
+      <c r="G79">
         <v>6184.6</v>
       </c>
-      <c r="G75" t="s">
+      <c r="H79" t="s">
         <v>99</v>
       </c>
-      <c r="H75" t="s">
+      <c r="I79" t="s">
         <v>97</v>
       </c>
-      <c r="I75" t="s">
+      <c r="J79" t="s">
         <v>102</v>
       </c>
-      <c r="J75" t="s">
+      <c r="K79" t="s">
         <v>97</v>
       </c>
-    </row>
-    <row r="76" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A76" s="4"/>
-      <c r="B76" s="4" t="s">
+      <c r="L79" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="80" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="C80" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="E80">
+        <v>40.709603999999999</v>
+      </c>
+      <c r="F80">
+        <v>-105.233305</v>
+      </c>
+      <c r="G80">
+        <v>9632.6</v>
+      </c>
+      <c r="H80" t="s">
+        <v>99</v>
+      </c>
+      <c r="I80" t="s">
+        <v>97</v>
+      </c>
+      <c r="J80" t="s">
+        <v>102</v>
+      </c>
+      <c r="K80" t="s">
+        <v>97</v>
+      </c>
+      <c r="L80" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="81" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="C81" s="4" t="s">
         <v>85</v>
       </c>
-      <c r="D76">
-        <v>40.709603999999999</v>
-      </c>
-      <c r="E76">
-        <v>-105.233305</v>
-      </c>
-      <c r="F76">
-        <v>9632.6</v>
-      </c>
-      <c r="G76" t="s">
+      <c r="E81">
+        <v>40.701225999999998</v>
+      </c>
+      <c r="F81">
+        <v>-105.757445</v>
+      </c>
+      <c r="G81">
+        <v>12551.5</v>
+      </c>
+      <c r="H81" t="s">
         <v>99</v>
       </c>
-      <c r="H76" t="s">
+      <c r="I81" t="s">
         <v>97</v>
       </c>
-      <c r="I76" t="s">
+      <c r="J81" t="s">
         <v>102</v>
       </c>
-      <c r="J76" t="s">
+      <c r="K81" t="s">
         <v>97</v>
       </c>
-    </row>
-    <row r="77" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A77" s="4"/>
-      <c r="B77" s="4" t="s">
-        <v>86</v>
-      </c>
-      <c r="D77">
-        <v>40.701225999999998</v>
-      </c>
-      <c r="E77">
-        <v>-105.757445</v>
-      </c>
-      <c r="F77">
-        <v>12551.5</v>
-      </c>
-      <c r="G77" t="s">
-        <v>99</v>
-      </c>
-      <c r="H77" t="s">
-        <v>97</v>
-      </c>
-      <c r="I77" t="s">
-        <v>102</v>
-      </c>
-      <c r="J77" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="78" spans="1:10" s="13" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A78" s="11" t="s">
-        <v>29</v>
-      </c>
-      <c r="B78" s="11"/>
-      <c r="C78" s="13" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="79" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="B79" s="4" t="s">
-        <v>84</v>
-      </c>
-      <c r="D79">
-        <v>40.728676</v>
-      </c>
-      <c r="E79">
-        <v>-105.844109</v>
-      </c>
-      <c r="F79">
-        <v>6184.6</v>
-      </c>
-      <c r="G79" t="s">
-        <v>99</v>
-      </c>
-      <c r="H79" t="s">
-        <v>97</v>
-      </c>
-      <c r="I79" t="s">
-        <v>102</v>
-      </c>
-      <c r="J79" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="80" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="B80" s="4" t="s">
-        <v>86</v>
-      </c>
-      <c r="D80">
-        <v>40.709603999999999</v>
-      </c>
-      <c r="E80">
-        <v>-105.233305</v>
-      </c>
-      <c r="F80">
-        <v>9632.6</v>
-      </c>
-      <c r="G80" t="s">
-        <v>99</v>
-      </c>
-      <c r="H80" t="s">
-        <v>97</v>
-      </c>
-      <c r="I80" t="s">
-        <v>102</v>
-      </c>
-      <c r="J80" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="81" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B81" s="4" t="s">
-        <v>85</v>
-      </c>
-      <c r="D81">
-        <v>40.701225999999998</v>
-      </c>
-      <c r="E81">
-        <v>-105.757445</v>
-      </c>
-      <c r="F81">
-        <v>12551.5</v>
-      </c>
-      <c r="G81" t="s">
-        <v>99</v>
-      </c>
-      <c r="H81" t="s">
-        <v>97</v>
-      </c>
-      <c r="I81" t="s">
-        <v>102</v>
-      </c>
-      <c r="J81" t="s">
-        <v>97</v>
+      <c r="L81" t="s">
+        <v>93</v>
       </c>
     </row>
   </sheetData>
@@ -3071,13 +3377,13 @@
       <c r="C8">
         <v>-120.93990700000001</v>
       </c>
-      <c r="G8" s="28" t="s">
+      <c r="G8" s="27" t="s">
         <v>42</v>
       </c>
-      <c r="H8" s="29">
+      <c r="H8" s="28">
         <v>40.234889000000003</v>
       </c>
-      <c r="I8" s="29">
+      <c r="I8" s="28">
         <v>-111.724869</v>
       </c>
     </row>
@@ -3111,13 +3417,13 @@
       <c r="C10">
         <v>-113.70055549999999</v>
       </c>
-      <c r="G10" s="29" t="s">
+      <c r="G10" s="28" t="s">
         <v>44</v>
       </c>
-      <c r="H10" s="29">
+      <c r="H10" s="28">
         <v>40.071703999999997</v>
       </c>
-      <c r="I10" s="29">
+      <c r="I10" s="28">
         <v>-111.57715</v>
       </c>
     </row>
@@ -3188,7 +3494,7 @@
       <c r="B14" s="5">
         <v>40.039045999999999</v>
       </c>
-      <c r="C14" s="9">
+      <c r="C14" s="8">
         <v>-105.393878</v>
       </c>
       <c r="G14" t="s">
@@ -3208,7 +3514,7 @@
       <c r="B15" s="5">
         <v>40.041668000000001</v>
       </c>
-      <c r="C15" s="9">
+      <c r="C15" s="8">
         <v>-105.364823</v>
       </c>
       <c r="G15" t="s">
@@ -3228,7 +3534,7 @@
       <c r="B16" s="5">
         <v>40.015500000000003</v>
       </c>
-      <c r="C16" s="9">
+      <c r="C16" s="8">
         <v>-105.324566</v>
       </c>
       <c r="G16" t="s">
@@ -3248,7 +3554,7 @@
       <c r="B17" s="5">
         <v>40.036102999999997</v>
       </c>
-      <c r="C17" s="9">
+      <c r="C17" s="8">
         <v>-105.43910099999999</v>
       </c>
       <c r="G17" t="s">
@@ -3268,7 +3574,7 @@
       <c r="B18">
         <v>40.037790999999999</v>
       </c>
-      <c r="C18" s="10">
+      <c r="C18" s="9">
         <v>-105.42124699999999</v>
       </c>
       <c r="G18" t="s">
@@ -3288,7 +3594,7 @@
       <c r="B19" s="5">
         <v>40.039045999999999</v>
       </c>
-      <c r="C19" s="9">
+      <c r="C19" s="8">
         <v>-105.393878</v>
       </c>
       <c r="G19" t="s">
@@ -3308,7 +3614,7 @@
       <c r="B20" s="5">
         <v>40.041668000000001</v>
       </c>
-      <c r="C20" s="9">
+      <c r="C20" s="8">
         <v>-105.364823</v>
       </c>
       <c r="G20" t="s">
@@ -3328,7 +3634,7 @@
       <c r="B21" s="5">
         <v>40.015500000000003</v>
       </c>
-      <c r="C21" s="9">
+      <c r="C21" s="8">
         <v>-105.324566</v>
       </c>
       <c r="G21" t="s">
@@ -3348,7 +3654,7 @@
       <c r="B22" s="5">
         <v>40.036102999999997</v>
       </c>
-      <c r="C22" s="9">
+      <c r="C22" s="8">
         <v>-105.43910099999999</v>
       </c>
       <c r="G22" t="s">
@@ -3509,7 +3815,7 @@
       <c r="H30" s="5">
         <v>40.039045999999999</v>
       </c>
-      <c r="I30" s="9">
+      <c r="I30" s="8">
         <v>-105.393878</v>
       </c>
     </row>
@@ -3529,7 +3835,7 @@
       <c r="H31" s="5">
         <v>40.041668000000001</v>
       </c>
-      <c r="I31" s="9">
+      <c r="I31" s="8">
         <v>-105.364823</v>
       </c>
     </row>
@@ -3549,7 +3855,7 @@
       <c r="H32" s="5">
         <v>40.015500000000003</v>
       </c>
-      <c r="I32" s="9">
+      <c r="I32" s="8">
         <v>-105.324566</v>
       </c>
     </row>
@@ -3569,7 +3875,7 @@
       <c r="H33" s="5">
         <v>40.036102999999997</v>
       </c>
-      <c r="I33" s="9">
+      <c r="I33" s="8">
         <v>-105.43910099999999</v>
       </c>
     </row>
@@ -3589,7 +3895,7 @@
       <c r="H34">
         <v>40.037790999999999</v>
       </c>
-      <c r="I34" s="10">
+      <c r="I34" s="9">
         <v>-105.42124699999999</v>
       </c>
     </row>
@@ -3841,7 +4147,7 @@
       <c r="A5" t="s">
         <v>108</v>
       </c>
-      <c r="B5" s="22">
+      <c r="B5" s="21">
         <v>34.460483000000004</v>
       </c>
       <c r="C5" t="s">
@@ -3858,7 +4164,7 @@
       <c r="C6">
         <v>-82.265000000000001</v>
       </c>
-      <c r="E6" s="23"/>
+      <c r="E6" s="22"/>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
@@ -3984,91 +4290,91 @@
       </c>
     </row>
     <row r="20" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A20" s="23"/>
+      <c r="A20" s="22"/>
     </row>
     <row r="21" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A21" s="23"/>
+      <c r="A21" s="22"/>
     </row>
     <row r="22" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="K22" s="9"/>
+      <c r="K22" s="8"/>
       <c r="L22" s="5"/>
     </row>
     <row r="24" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A24" s="23"/>
-      <c r="E24" s="23"/>
+      <c r="A24" s="22"/>
+      <c r="E24" s="22"/>
     </row>
     <row r="25" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A25" s="23"/>
+      <c r="A25" s="22"/>
     </row>
     <row r="26" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A26" s="23"/>
+      <c r="A26" s="22"/>
     </row>
     <row r="28" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="F28" s="24"/>
-      <c r="G28" s="24"/>
+      <c r="F28" s="23"/>
+      <c r="G28" s="23"/>
     </row>
     <row r="32" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="E32" s="23"/>
-      <c r="F32" s="25"/>
-      <c r="G32" s="25"/>
+      <c r="E32" s="22"/>
+      <c r="F32" s="24"/>
+      <c r="G32" s="24"/>
     </row>
     <row r="46" spans="5:7" x14ac:dyDescent="0.2">
-      <c r="E46" s="23"/>
-      <c r="F46" s="24"/>
-      <c r="G46" s="24"/>
+      <c r="E46" s="22"/>
+      <c r="F46" s="23"/>
+      <c r="G46" s="23"/>
     </row>
     <row r="52" spans="5:7" x14ac:dyDescent="0.2">
-      <c r="E52" s="26"/>
+      <c r="E52" s="25"/>
     </row>
     <row r="53" spans="5:7" x14ac:dyDescent="0.2">
       <c r="E53" s="5"/>
       <c r="F53" s="5"/>
-      <c r="G53" s="9"/>
+      <c r="G53" s="8"/>
     </row>
     <row r="54" spans="5:7" x14ac:dyDescent="0.2">
       <c r="E54" s="5"/>
       <c r="F54" s="5"/>
-      <c r="G54" s="9"/>
+      <c r="G54" s="8"/>
     </row>
     <row r="55" spans="5:7" x14ac:dyDescent="0.2">
       <c r="E55" s="5"/>
       <c r="F55" s="5"/>
-      <c r="G55" s="9"/>
+      <c r="G55" s="8"/>
     </row>
     <row r="56" spans="5:7" x14ac:dyDescent="0.2">
       <c r="E56" s="5"/>
       <c r="F56" s="5"/>
-      <c r="G56" s="9"/>
+      <c r="G56" s="8"/>
     </row>
     <row r="57" spans="5:7" x14ac:dyDescent="0.2">
       <c r="E57" s="5"/>
-      <c r="G57" s="10"/>
+      <c r="G57" s="9"/>
     </row>
     <row r="58" spans="5:7" x14ac:dyDescent="0.2">
-      <c r="E58" s="26"/>
+      <c r="E58" s="25"/>
     </row>
     <row r="59" spans="5:7" x14ac:dyDescent="0.2">
       <c r="E59" s="5"/>
       <c r="F59" s="5"/>
-      <c r="G59" s="9"/>
+      <c r="G59" s="8"/>
     </row>
     <row r="60" spans="5:7" x14ac:dyDescent="0.2">
       <c r="E60" s="5"/>
       <c r="F60" s="5"/>
-      <c r="G60" s="9"/>
+      <c r="G60" s="8"/>
     </row>
     <row r="61" spans="5:7" x14ac:dyDescent="0.2">
       <c r="E61" s="5"/>
       <c r="F61" s="5"/>
-      <c r="G61" s="9"/>
+      <c r="G61" s="8"/>
     </row>
     <row r="62" spans="5:7" x14ac:dyDescent="0.2">
       <c r="E62" s="5"/>
       <c r="F62" s="5"/>
-      <c r="G62" s="9"/>
+      <c r="G62" s="8"/>
     </row>
     <row r="66" spans="5:7" x14ac:dyDescent="0.2">
-      <c r="E66" s="23"/>
+      <c r="E66" s="22"/>
     </row>
     <row r="71" spans="5:7" x14ac:dyDescent="0.2">
       <c r="F71" s="6"/>
@@ -4083,7 +4389,7 @@
       <c r="G73" s="6"/>
     </row>
     <row r="74" spans="5:7" x14ac:dyDescent="0.2">
-      <c r="E74" s="26"/>
+      <c r="E74" s="25"/>
     </row>
     <row r="75" spans="5:7" x14ac:dyDescent="0.2">
       <c r="E75" s="5"/>
@@ -4097,9 +4403,9 @@
       <c r="E77" s="5"/>
     </row>
     <row r="78" spans="5:7" x14ac:dyDescent="0.2">
-      <c r="E78" s="23"/>
-      <c r="F78" s="27"/>
-      <c r="G78" s="27"/>
+      <c r="E78" s="22"/>
+      <c r="F78" s="26"/>
+      <c r="G78" s="26"/>
     </row>
   </sheetData>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="J2:L89">

--- a/FireMeta_Rproj/inputs/Studies_Summary/Fire_name_Lat_Long.xlsx
+++ b/FireMeta_Rproj/inputs/Studies_Summary/Fire_name_Lat_Long.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11008"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11028"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/cava304/GitHub/rc_sfa-rc-3-wenas-meta/FireMeta_Rproj/inputs/Studies_Summary/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FD5F8090-9290-6D42-A072-1CC17D939B1A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8296B5EE-141B-7847-936C-64226B0033ED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="30240" yWindow="0" windowWidth="38400" windowHeight="24000" xr2:uid="{8C258C6F-044A-E849-9C14-F26FA5F5AA92}"/>
   </bookViews>
@@ -507,13 +507,13 @@
     <t>Y_not quite the same watershed, and the sus points doesn’t get the exact one correctly</t>
   </si>
   <si>
-    <t>Y_way off, sus points get the correct watershed</t>
-  </si>
-  <si>
     <t>Y_pretty far off, looks like it is a subset of the Benjamin slough COMID</t>
   </si>
   <si>
     <t>Y_pretty far off, the sus points doesn’t get the correct watershed</t>
+  </si>
+  <si>
+    <t>Y_same COMID as upper</t>
   </si>
 </sst>
 </file>
@@ -523,7 +523,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.000"/>
   </numFmts>
-  <fonts count="15" x14ac:knownFonts="1">
+  <fonts count="16" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -621,6 +621,12 @@
       <name val="Calibri"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="5">
     <fill>
@@ -660,7 +666,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -690,6 +696,7 @@
     <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1007,8 +1014,8 @@
   <dimension ref="A1:L81"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A68" sqref="A68"/>
+      <pane ySplit="1" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E11" sqref="E11:F20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1286,10 +1293,10 @@
         <v>35</v>
       </c>
       <c r="E11">
-        <v>40.133513999999998</v>
+        <v>40.134566999999997</v>
       </c>
       <c r="F11">
-        <v>-111.771241</v>
+        <v>-111.79195300000001</v>
       </c>
       <c r="G11">
         <v>219</v>
@@ -1316,10 +1323,10 @@
         <v>36</v>
       </c>
       <c r="E12">
-        <v>40.180647</v>
+        <v>40.180112999999999</v>
       </c>
       <c r="F12">
-        <v>-111.67166400000001</v>
+        <v>-111.669809</v>
       </c>
       <c r="G12">
         <v>30</v>
@@ -1346,10 +1353,10 @@
         <v>37</v>
       </c>
       <c r="E13">
-        <v>40.191034999999999</v>
-      </c>
-      <c r="F13">
-        <v>-111.65993899999999</v>
+        <v>40.184012000000003</v>
+      </c>
+      <c r="F13" s="29">
+        <v>-111.647362</v>
       </c>
       <c r="G13">
         <v>324</v>
@@ -1367,7 +1374,7 @@
         <v>98</v>
       </c>
       <c r="L13" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.2">
@@ -1375,11 +1382,11 @@
       <c r="C14" t="s">
         <v>38</v>
       </c>
-      <c r="E14">
-        <v>40.158754000000002</v>
-      </c>
-      <c r="F14">
-        <v>-111.59730999999999</v>
+      <c r="E14" s="6">
+        <v>40.157766000000002</v>
+      </c>
+      <c r="F14" s="6">
+        <v>-111.5979</v>
       </c>
       <c r="G14">
         <v>280</v>
@@ -1465,11 +1472,11 @@
       <c r="C17" t="s">
         <v>41</v>
       </c>
-      <c r="E17">
-        <v>39.987803999999997</v>
-      </c>
-      <c r="F17">
-        <v>-111.72989099999999</v>
+      <c r="E17" s="6">
+        <v>39.974595000000001</v>
+      </c>
+      <c r="F17" s="6">
+        <v>-111.70236199999999</v>
       </c>
       <c r="G17">
         <v>54</v>
@@ -1487,7 +1494,7 @@
         <v>98</v>
       </c>
       <c r="L17" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.2">
@@ -1526,10 +1533,10 @@
         <v>43</v>
       </c>
       <c r="E19">
-        <v>40.071703999999997</v>
+        <v>40.103144999999998</v>
       </c>
       <c r="F19">
-        <v>-111.57715</v>
+        <v>-111.681659</v>
       </c>
       <c r="G19">
         <v>1712</v>
@@ -1547,7 +1554,7 @@
         <v>98</v>
       </c>
       <c r="L19" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="20" spans="1:12" x14ac:dyDescent="0.2">
@@ -1806,10 +1813,10 @@
         <v>53</v>
       </c>
       <c r="E30">
-        <v>48.793787000000002</v>
+        <v>48.80153</v>
       </c>
       <c r="F30">
-        <v>-114.49179100000001</v>
+        <v>-114.43650599999999</v>
       </c>
       <c r="G30" s="20">
         <v>2.38</v>
@@ -1896,10 +1903,10 @@
         <v>57</v>
       </c>
       <c r="E33">
-        <v>48.902925000000003</v>
+        <v>48.701411999999998</v>
       </c>
       <c r="F33">
-        <v>-114.183566</v>
+        <v>-114.185106</v>
       </c>
       <c r="G33" s="20">
         <v>238.08</v>
@@ -1926,10 +1933,10 @@
         <v>56</v>
       </c>
       <c r="E34">
-        <v>48.814951999999998</v>
+        <v>48.797378000000002</v>
       </c>
       <c r="F34">
-        <v>-113.983313</v>
+        <v>-114.286749</v>
       </c>
       <c r="G34" s="20">
         <v>105.98</v>
@@ -1956,10 +1963,10 @@
         <v>58</v>
       </c>
       <c r="E35">
-        <v>48.936976000000001</v>
+        <v>48.790458000000001</v>
       </c>
       <c r="F35">
-        <v>-114.079685</v>
+        <v>-114.27461599999999</v>
       </c>
       <c r="G35" s="20">
         <v>130.13</v>
@@ -1985,11 +1992,11 @@
       <c r="C36" t="s">
         <v>59</v>
       </c>
-      <c r="E36">
-        <v>48.866349</v>
-      </c>
-      <c r="F36">
-        <v>-114.02640599999999</v>
+      <c r="E36" s="6">
+        <v>48.722610000000003</v>
+      </c>
+      <c r="F36" s="6">
+        <v>-114.22583400000001</v>
       </c>
       <c r="G36" s="20">
         <v>136.29</v>
@@ -2161,10 +2168,10 @@
         <v>63</v>
       </c>
       <c r="E43">
-        <v>39.906348000000001</v>
+        <v>48.418961000000003</v>
       </c>
       <c r="F43">
-        <v>-105.37748499999999</v>
+        <v>-113.696178</v>
       </c>
       <c r="G43">
         <v>96.4</v>
@@ -2251,10 +2258,10 @@
         <v>66</v>
       </c>
       <c r="E46">
-        <v>48.635277780000003</v>
+        <v>48.525536000000002</v>
       </c>
       <c r="F46">
-        <v>-113.86694439999999</v>
+        <v>-113.997184</v>
       </c>
       <c r="G46">
         <v>450</v>
@@ -2680,7 +2687,7 @@
         <v>-83.092200000000005</v>
       </c>
       <c r="G61">
-        <v>21.8</v>
+        <v>2.1800000000000002</v>
       </c>
       <c r="H61">
         <v>31.3</v>
@@ -3025,10 +3032,10 @@
         <v>84</v>
       </c>
       <c r="E75">
-        <v>40.728676</v>
+        <v>40.699423000000003</v>
       </c>
       <c r="F75">
-        <v>-105.844109</v>
+        <v>-105.545085</v>
       </c>
       <c r="G75">
         <v>618.46</v>
@@ -3055,10 +3062,10 @@
         <v>85</v>
       </c>
       <c r="E76">
-        <v>40.709603999999999</v>
+        <v>40.685031000000002</v>
       </c>
       <c r="F76">
-        <v>-105.233305</v>
+        <v>-105.449096</v>
       </c>
       <c r="G76">
         <v>963.26</v>
@@ -3084,11 +3091,11 @@
       <c r="C77" s="4" t="s">
         <v>86</v>
       </c>
-      <c r="E77">
-        <v>40.701225999999998</v>
-      </c>
-      <c r="F77">
-        <v>-105.757445</v>
+      <c r="E77" s="6">
+        <v>40.703249</v>
+      </c>
+      <c r="F77" s="6">
+        <v>-105.2424</v>
       </c>
       <c r="G77">
         <v>1255.1500000000001</v>
@@ -3126,10 +3133,10 @@
         <v>84</v>
       </c>
       <c r="E79">
-        <v>40.728676</v>
+        <v>40.699423000000003</v>
       </c>
       <c r="F79">
-        <v>-105.844109</v>
+        <v>-105.545085</v>
       </c>
       <c r="G79">
         <v>6184.6</v>
@@ -3155,10 +3162,10 @@
         <v>86</v>
       </c>
       <c r="E80">
-        <v>40.709603999999999</v>
+        <v>40.685031000000002</v>
       </c>
       <c r="F80">
-        <v>-105.233305</v>
+        <v>-105.449096</v>
       </c>
       <c r="G80">
         <v>9632.6</v>
@@ -3183,11 +3190,11 @@
       <c r="C81" s="4" t="s">
         <v>85</v>
       </c>
-      <c r="E81">
-        <v>40.701225999999998</v>
-      </c>
-      <c r="F81">
-        <v>-105.757445</v>
+      <c r="E81" s="6">
+        <v>40.703249</v>
+      </c>
+      <c r="F81" s="6">
+        <v>-105.2424</v>
       </c>
       <c r="G81">
         <v>12551.5</v>

--- a/FireMeta_Rproj/inputs/Studies_Summary/Fire_name_Lat_Long.xlsx
+++ b/FireMeta_Rproj/inputs/Studies_Summary/Fire_name_Lat_Long.xlsx
@@ -8,15 +8,21 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/cava304/GitHub/rc_sfa-rc-3-wenas-meta/FireMeta_Rproj/inputs/Studies_Summary/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8296B5EE-141B-7847-936C-64226B0033ED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{045E6EC6-8B81-324A-BA7E-F8BF9A8D0B72}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="30240" yWindow="0" windowWidth="38400" windowHeight="24000" xr2:uid="{8C258C6F-044A-E849-9C14-F26FA5F5AA92}"/>
+    <workbookView xWindow="0" yWindow="740" windowWidth="30240" windowHeight="18900" activeTab="2" xr2:uid="{8C258C6F-044A-E849-9C14-F26FA5F5AA92}"/>
   </bookViews>
   <sheets>
     <sheet name="Temporal Normalization Studies" sheetId="1" r:id="rId1"/>
     <sheet name="Katie_code_format" sheetId="3" r:id="rId2"/>
     <sheet name="Fires we don’t have yet" sheetId="2" r:id="rId3"/>
   </sheets>
+  <externalReferences>
+    <externalReference r:id="rId4"/>
+  </externalReferences>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">[1]studies_not_included_in_tempora!$A$46:$A$171</definedName>
+  </definedNames>
   <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -38,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="519" uniqueCount="143">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="627" uniqueCount="205">
   <si>
     <t>Study</t>
   </si>
@@ -357,33 +363,284 @@
     <t>NA</t>
   </si>
   <si>
+    <t>N_Hampton_has USGS Q Gauge</t>
+  </si>
+  <si>
+    <t>N_Hampton has values</t>
+  </si>
+  <si>
+    <t>Pole Creek Fire Complex (2008)</t>
+  </si>
+  <si>
+    <t>Jumping Branch Wildfire (1978)</t>
+  </si>
+  <si>
+    <t>Boundary Fire (2004)</t>
+  </si>
+  <si>
+    <t>No name given (2002)</t>
+  </si>
+  <si>
+    <t>No name given (2007)</t>
+  </si>
+  <si>
+    <t>Yosemite NP Fire</t>
+  </si>
+  <si>
+    <t>Mosquito Fire (2002)</t>
+  </si>
+  <si>
+    <t>Jumping Branch Fire (1978)</t>
+  </si>
+  <si>
+    <t>Safety Harbor fire (1970)</t>
+  </si>
+  <si>
+    <t>Fire Name</t>
+  </si>
+  <si>
+    <t>Matt Fire (1985)</t>
+  </si>
+  <si>
+    <t>Tellico Fire (2016)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">37.534037	</t>
+  </si>
+  <si>
+    <t xml:space="preserve">44.9108	</t>
+  </si>
+  <si>
+    <t xml:space="preserve">44.578525	</t>
+  </si>
+  <si>
+    <t>site</t>
+  </si>
+  <si>
+    <t>latitude</t>
+  </si>
+  <si>
+    <t>longitude</t>
+  </si>
+  <si>
+    <t>Have_HUC?</t>
+  </si>
+  <si>
+    <t>N_Canada</t>
+  </si>
+  <si>
+    <t>Y_size is pretty off_sus_points didn’t work</t>
+  </si>
+  <si>
+    <t>In_katie_code</t>
+  </si>
+  <si>
+    <t>Y_cant confirm size cause its not in text</t>
+  </si>
+  <si>
+    <t>N_got_from_HUC</t>
+  </si>
+  <si>
+    <t>Y_Same_COMID_as_US2</t>
+  </si>
+  <si>
+    <t>N_too small I think</t>
+  </si>
+  <si>
+    <t>Y_need to add</t>
+  </si>
+  <si>
+    <t>Y_Same_COMID_as_Site_1</t>
+  </si>
+  <si>
+    <t>Y_needed to change Comid in code</t>
+  </si>
+  <si>
+    <t>Y_not quite the same watershed, and the sus points doesn’t get the exact one correctly</t>
+  </si>
+  <si>
+    <t>Y_pretty far off, looks like it is a subset of the Benjamin slough COMID</t>
+  </si>
+  <si>
+    <t>Y_pretty far off, the sus points doesn’t get the correct watershed</t>
+  </si>
+  <si>
+    <t>Y_same COMID as upper</t>
+  </si>
+  <si>
+    <t>Not in the temporal normalization code due to filter process</t>
+  </si>
+  <si>
+    <t>Abbott et al. 2021</t>
+  </si>
+  <si>
+    <t>BS.10</t>
+  </si>
+  <si>
+    <t>BS.11</t>
+  </si>
+  <si>
+    <t>BS.12</t>
+  </si>
+  <si>
+    <t>BS.14</t>
+  </si>
+  <si>
+    <t>BS.15</t>
+  </si>
+  <si>
+    <t>BS.16</t>
+  </si>
+  <si>
+    <t>BS.19</t>
+  </si>
+  <si>
+    <t>BS.2</t>
+  </si>
+  <si>
+    <t>BS.20</t>
+  </si>
+  <si>
+    <t>BS.21</t>
+  </si>
+  <si>
+    <t>BS.22</t>
+  </si>
+  <si>
+    <t>BS.24</t>
+  </si>
+  <si>
+    <t>BS.25</t>
+  </si>
+  <si>
+    <t>BS.26</t>
+  </si>
+  <si>
+    <t>BS.29</t>
+  </si>
+  <si>
+    <t>BS.30</t>
+  </si>
+  <si>
+    <t>BS.31</t>
+  </si>
+  <si>
+    <t>BS.32</t>
+  </si>
+  <si>
+    <t>BS.33</t>
+  </si>
+  <si>
+    <t>BS.34</t>
+  </si>
+  <si>
+    <t>BS.38</t>
+  </si>
+  <si>
+    <t>BS.4</t>
+  </si>
+  <si>
+    <t>BS.40</t>
+  </si>
+  <si>
+    <t>BS.41</t>
+  </si>
+  <si>
+    <t>BS.42</t>
+  </si>
+  <si>
+    <t>BS.44</t>
+  </si>
+  <si>
+    <t>BS.45</t>
+  </si>
+  <si>
+    <t>BS.47</t>
+  </si>
+  <si>
+    <t>BS.48</t>
+  </si>
+  <si>
+    <t>BS.49</t>
+  </si>
+  <si>
+    <t>BS.5</t>
+  </si>
+  <si>
+    <t>BS.50</t>
+  </si>
+  <si>
+    <t>BS.51</t>
+  </si>
+  <si>
+    <t>BS.53</t>
+  </si>
+  <si>
+    <t>BS.55</t>
+  </si>
+  <si>
+    <t>BS.56</t>
+  </si>
+  <si>
+    <t>BS.57</t>
+  </si>
+  <si>
+    <t>BS.58</t>
+  </si>
+  <si>
+    <t>BS.60</t>
+  </si>
+  <si>
+    <t>BS.61</t>
+  </si>
+  <si>
+    <t>BS.62</t>
+  </si>
+  <si>
+    <t>BS.7</t>
+  </si>
+  <si>
+    <t>BS.70</t>
+  </si>
+  <si>
+    <t>BS.71</t>
+  </si>
+  <si>
+    <t>Anaktuvuk River (2007)</t>
+  </si>
+  <si>
+    <t>Betts &amp; Jones, 2009</t>
+  </si>
+  <si>
+    <t>C1</t>
+  </si>
+  <si>
+    <t>C2</t>
+  </si>
+  <si>
+    <t>C4</t>
+  </si>
+  <si>
+    <t>P6</t>
+  </si>
+  <si>
     <r>
-      <t>Rampage Fire (2003)_</t>
+      <rPr>
+        <sz val="12"/>
+        <color theme="9"/>
+        <rFont val="Calibri (Body)"/>
+      </rPr>
+      <t>Hewlett Gulch (2012)</t>
     </r>
     <r>
       <rPr>
         <sz val="12"/>
         <color theme="1"/>
-        <rFont val="Calibri (Body)"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
       </rPr>
-      <t>Robert Fire (2003)_Trapper Fire (2003)</t>
-    </r>
-  </si>
-  <si>
-    <t>N_Hampton_has USGS Q Gauge</t>
-  </si>
-  <si>
-    <t>N_Hampton has values</t>
-  </si>
-  <si>
-    <t>Pole Creek Fire Complex (2008)</t>
-  </si>
-  <si>
-    <t>Jumping Branch Wildfire (1978)</t>
-  </si>
-  <si>
-    <r>
-      <t>Hewlett Gulch (2012)_</t>
+      <t>_</t>
     </r>
     <r>
       <rPr>
@@ -405,115 +662,73 @@
     </r>
   </si>
   <si>
-    <t>Anaktuvuk River wildfire (2007)</t>
-  </si>
-  <si>
-    <t>Boundary Fire (2004)</t>
-  </si>
-  <si>
-    <t>Jesusita Fire</t>
-  </si>
-  <si>
-    <t>Lost Creek Wildfire (2003)</t>
-  </si>
-  <si>
-    <t>No name given (2002)</t>
-  </si>
-  <si>
-    <t>No name given (2007)</t>
-  </si>
-  <si>
-    <t>Yosemite NP Fire</t>
-  </si>
-  <si>
-    <t>Mosquito Fire (2002)</t>
-  </si>
-  <si>
-    <t>Trapper Fire (2003)</t>
-  </si>
-  <si>
-    <t>Jumping Branch Fire (1978)</t>
-  </si>
-  <si>
-    <t>Safety Harbor fire (1970)</t>
-  </si>
-  <si>
-    <t>Fire Name</t>
-  </si>
-  <si>
-    <t>Matt Fire (1985)</t>
-  </si>
-  <si>
-    <t>Tellico Fire (2016)</t>
-  </si>
-  <si>
-    <t>Hewlett Gulch (2012)</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> –119.71012 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">37.534037	</t>
-  </si>
-  <si>
-    <t xml:space="preserve">44.9108	</t>
-  </si>
-  <si>
-    <t xml:space="preserve">44.578525	</t>
-  </si>
-  <si>
-    <t>site</t>
-  </si>
-  <si>
-    <t>latitude</t>
-  </si>
-  <si>
-    <t>longitude</t>
-  </si>
-  <si>
-    <t>Have_HUC?</t>
-  </si>
-  <si>
-    <t>N_Canada</t>
-  </si>
-  <si>
-    <t>Y_size is pretty off_sus_points didn’t work</t>
-  </si>
-  <si>
-    <t>In_katie_code</t>
-  </si>
-  <si>
-    <t>Y_cant confirm size cause its not in text</t>
-  </si>
-  <si>
-    <t>N_got_from_HUC</t>
-  </si>
-  <si>
-    <t>Y_Same_COMID_as_US2</t>
-  </si>
-  <si>
-    <t>N_too small I think</t>
-  </si>
-  <si>
-    <t>Y_need to add</t>
-  </si>
-  <si>
-    <t>Y_Same_COMID_as_Site_1</t>
-  </si>
-  <si>
-    <t>Y_needed to change Comid in code</t>
-  </si>
-  <si>
-    <t>Y_not quite the same watershed, and the sus points doesn’t get the exact one correctly</t>
-  </si>
-  <si>
-    <t>Y_pretty far off, looks like it is a subset of the Benjamin slough COMID</t>
-  </si>
-  <si>
-    <t>Y_pretty far off, the sus points doesn’t get the correct watershed</t>
-  </si>
-  <si>
-    <t>Y_same COMID as upper</t>
+    <t>Jesusita</t>
+  </si>
+  <si>
+    <t>Klose et al. 2015</t>
+  </si>
+  <si>
+    <t>Partially burned</t>
+  </si>
+  <si>
+    <t>Burned</t>
+  </si>
+  <si>
+    <t>Lost Creek (2003)</t>
+  </si>
+  <si>
+    <t>Bladon et al. 2008</t>
+  </si>
+  <si>
+    <r>
+      <t>Rampage Fire (2003)_</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri (Body)"/>
+      </rPr>
+      <t>Robert Fire (2003)_</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="9"/>
+        <rFont val="Calibri (Body)"/>
+      </rPr>
+      <t>Trapper Fire (2003)</t>
+    </r>
+  </si>
+  <si>
+    <t>Caldwell et al. 2020</t>
+  </si>
+  <si>
+    <t>AR</t>
+  </si>
+  <si>
+    <t>CA</t>
+  </si>
+  <si>
+    <t>AR_UP</t>
+  </si>
+  <si>
+    <t>CA-TO</t>
+  </si>
+  <si>
+    <t>CH</t>
+  </si>
+  <si>
+    <t>IN</t>
+  </si>
+  <si>
+    <t>TE</t>
+  </si>
+  <si>
+    <t>IR</t>
+  </si>
+  <si>
+    <t>Y_report_Severity</t>
   </si>
 </sst>
 </file>
@@ -617,18 +832,19 @@
     </font>
     <font>
       <sz val="12"/>
-      <color rgb="FF211D1E"/>
-      <name val="Calibri"/>
+      <color theme="1"/>
+      <name val="Arial"/>
       <family val="2"/>
     </font>
     <font>
       <sz val="12"/>
-      <color theme="1"/>
-      <name val="Arial"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
       <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -653,6 +869,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="1"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -666,7 +888,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="30">
+  <cellXfs count="33">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -688,7 +910,6 @@
     <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="164" fontId="7" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -696,12 +917,37 @@
     <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="15" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="2">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -712,6 +958,22 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <xxl21:alternateUrls>
+      <xxl21:absoluteUrl r:id="rId2"/>
+    </xxl21:alternateUrls>
+    <sheetNames>
+      <sheetName val="studies_not_included_in_tempora"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0"/>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1011,11 +1273,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FE608700-CF3C-DE4E-8B7D-38FBD72A91DD}">
-  <dimension ref="A1:L81"/>
+  <dimension ref="A1:L148"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E11" sqref="E11:F20"/>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A104" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B140" sqref="B140"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1033,7 +1295,7 @@
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>131</v>
+        <v>123</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
@@ -1066,7 +1328,7 @@
         <v>95</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>128</v>
+        <v>120</v>
       </c>
     </row>
     <row r="2" spans="1:12" s="12" customFormat="1" x14ac:dyDescent="0.2">
@@ -1108,7 +1370,7 @@
         <v>93</v>
       </c>
       <c r="L3" t="s">
-        <v>129</v>
+        <v>121</v>
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.2">
@@ -1138,7 +1400,7 @@
         <v>93</v>
       </c>
       <c r="L4" t="s">
-        <v>129</v>
+        <v>121</v>
       </c>
     </row>
     <row r="5" spans="1:12" s="12" customFormat="1" x14ac:dyDescent="0.2">
@@ -1282,7 +1544,7 @@
       </c>
       <c r="C10" s="10"/>
       <c r="D10" s="12" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="E10" s="13"/>
       <c r="F10" s="13"/>
@@ -1314,7 +1576,7 @@
         <v>98</v>
       </c>
       <c r="L11" t="s">
-        <v>139</v>
+        <v>131</v>
       </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.2">
@@ -1344,7 +1606,7 @@
         <v>98</v>
       </c>
       <c r="L12" t="s">
-        <v>139</v>
+        <v>131</v>
       </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.2">
@@ -1355,7 +1617,7 @@
       <c r="E13">
         <v>40.184012000000003</v>
       </c>
-      <c r="F13" s="29">
+      <c r="F13" s="28">
         <v>-111.647362</v>
       </c>
       <c r="G13">
@@ -1374,7 +1636,7 @@
         <v>98</v>
       </c>
       <c r="L13" t="s">
-        <v>142</v>
+        <v>134</v>
       </c>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.2">
@@ -1464,7 +1726,7 @@
         <v>98</v>
       </c>
       <c r="L16" t="s">
-        <v>139</v>
+        <v>131</v>
       </c>
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.2">
@@ -1494,7 +1756,7 @@
         <v>98</v>
       </c>
       <c r="L17" t="s">
-        <v>140</v>
+        <v>132</v>
       </c>
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.2">
@@ -1554,7 +1816,7 @@
         <v>98</v>
       </c>
       <c r="L19" t="s">
-        <v>141</v>
+        <v>133</v>
       </c>
     </row>
     <row r="20" spans="1:12" x14ac:dyDescent="0.2">
@@ -1700,7 +1962,7 @@
         <v>98</v>
       </c>
       <c r="L25" t="s">
-        <v>129</v>
+        <v>121</v>
       </c>
     </row>
     <row r="26" spans="1:12" x14ac:dyDescent="0.2">
@@ -1730,7 +1992,7 @@
         <v>98</v>
       </c>
       <c r="L26" t="s">
-        <v>129</v>
+        <v>121</v>
       </c>
     </row>
     <row r="27" spans="1:12" x14ac:dyDescent="0.2">
@@ -1760,7 +2022,7 @@
         <v>98</v>
       </c>
       <c r="L27" t="s">
-        <v>129</v>
+        <v>121</v>
       </c>
     </row>
     <row r="28" spans="1:12" s="12" customFormat="1" x14ac:dyDescent="0.2">
@@ -1924,7 +2186,7 @@
         <v>97</v>
       </c>
       <c r="L33" t="s">
-        <v>130</v>
+        <v>122</v>
       </c>
     </row>
     <row r="34" spans="1:12" x14ac:dyDescent="0.2">
@@ -2046,7 +2308,7 @@
         <v>99</v>
       </c>
       <c r="I38" t="s">
-        <v>133</v>
+        <v>125</v>
       </c>
       <c r="J38" t="s">
         <v>96</v>
@@ -2055,7 +2317,7 @@
         <v>98</v>
       </c>
       <c r="L38" t="s">
-        <v>132</v>
+        <v>124</v>
       </c>
     </row>
     <row r="39" spans="1:12" x14ac:dyDescent="0.2">
@@ -2076,7 +2338,7 @@
         <v>99</v>
       </c>
       <c r="I39" t="s">
-        <v>133</v>
+        <v>125</v>
       </c>
       <c r="J39" t="s">
         <v>96</v>
@@ -2085,7 +2347,7 @@
         <v>98</v>
       </c>
       <c r="L39" t="s">
-        <v>132</v>
+        <v>124</v>
       </c>
     </row>
     <row r="40" spans="1:12" x14ac:dyDescent="0.2">
@@ -2106,7 +2368,7 @@
         <v>99</v>
       </c>
       <c r="I40" t="s">
-        <v>133</v>
+        <v>125</v>
       </c>
       <c r="J40" t="s">
         <v>96</v>
@@ -2115,7 +2377,7 @@
         <v>98</v>
       </c>
       <c r="L40" t="s">
-        <v>132</v>
+        <v>124</v>
       </c>
     </row>
     <row r="41" spans="1:12" x14ac:dyDescent="0.2">
@@ -2136,7 +2398,7 @@
         <v>99</v>
       </c>
       <c r="I41" t="s">
-        <v>133</v>
+        <v>125</v>
       </c>
       <c r="J41" t="s">
         <v>96</v>
@@ -2145,7 +2407,7 @@
         <v>98</v>
       </c>
       <c r="L41" t="s">
-        <v>132</v>
+        <v>124</v>
       </c>
     </row>
     <row r="42" spans="1:12" s="12" customFormat="1" x14ac:dyDescent="0.2">
@@ -2157,7 +2419,7 @@
       </c>
       <c r="C42" s="10"/>
       <c r="D42" s="11" t="s">
-        <v>100</v>
+        <v>194</v>
       </c>
       <c r="E42" s="15"/>
       <c r="F42" s="15"/>
@@ -2380,7 +2642,7 @@
         <v>99</v>
       </c>
       <c r="I50" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="J50" t="s">
         <v>96</v>
@@ -2411,7 +2673,7 @@
         <v>99</v>
       </c>
       <c r="I51" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="J51" t="s">
         <v>96</v>
@@ -2451,7 +2713,7 @@
         <v>98</v>
       </c>
       <c r="L52" s="5" t="s">
-        <v>134</v>
+        <v>126</v>
       </c>
     </row>
     <row r="53" spans="1:12" x14ac:dyDescent="0.2">
@@ -2553,7 +2815,7 @@
         <v>99</v>
       </c>
       <c r="I56" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="J56" t="s">
         <v>96</v>
@@ -2584,7 +2846,7 @@
         <v>99</v>
       </c>
       <c r="I57" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="J57" t="s">
         <v>96</v>
@@ -2624,7 +2886,7 @@
         <v>98</v>
       </c>
       <c r="L58" s="5" t="s">
-        <v>134</v>
+        <v>126</v>
       </c>
     </row>
     <row r="59" spans="1:12" s="12" customFormat="1" x14ac:dyDescent="0.2">
@@ -2636,7 +2898,7 @@
       </c>
       <c r="C59" s="10"/>
       <c r="D59" s="12" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="E59" s="12">
         <v>36.095348999999999</v>
@@ -2702,7 +2964,7 @@
         <v>97</v>
       </c>
       <c r="L61" s="5" t="s">
-        <v>135</v>
+        <v>127</v>
       </c>
     </row>
     <row r="62" spans="1:12" s="12" customFormat="1" x14ac:dyDescent="0.2">
@@ -2744,7 +3006,7 @@
         <v>98</v>
       </c>
       <c r="L63" s="5" t="s">
-        <v>136</v>
+        <v>128</v>
       </c>
     </row>
     <row r="64" spans="1:12" x14ac:dyDescent="0.2">
@@ -2802,7 +3064,7 @@
         <v>98</v>
       </c>
       <c r="L65" s="5" t="s">
-        <v>137</v>
+        <v>129</v>
       </c>
     </row>
     <row r="66" spans="1:12" x14ac:dyDescent="0.2">
@@ -2832,7 +3094,7 @@
         <v>98</v>
       </c>
       <c r="L66" s="5" t="s">
-        <v>138</v>
+        <v>130</v>
       </c>
     </row>
     <row r="67" spans="1:12" s="12" customFormat="1" x14ac:dyDescent="0.2">
@@ -2870,7 +3132,7 @@
         <v>93</v>
       </c>
       <c r="J68" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="K68" t="s">
         <v>96</v>
@@ -2900,7 +3162,7 @@
         <v>93</v>
       </c>
       <c r="J69" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="K69" t="s">
         <v>96</v>
@@ -2949,7 +3211,7 @@
         <v>93</v>
       </c>
       <c r="L71" t="s">
-        <v>130</v>
+        <v>122</v>
       </c>
     </row>
     <row r="72" spans="1:12" x14ac:dyDescent="0.2">
@@ -2980,7 +3242,7 @@
         <v>93</v>
       </c>
       <c r="L72" t="s">
-        <v>130</v>
+        <v>122</v>
       </c>
     </row>
     <row r="73" spans="1:12" x14ac:dyDescent="0.2">
@@ -3009,7 +3271,7 @@
         <v>93</v>
       </c>
       <c r="L73" t="s">
-        <v>132</v>
+        <v>124</v>
       </c>
     </row>
     <row r="74" spans="1:12" s="12" customFormat="1" x14ac:dyDescent="0.2">
@@ -3047,7 +3309,7 @@
         <v>97</v>
       </c>
       <c r="J75" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="K75" t="s">
         <v>97</v>
@@ -3077,13 +3339,13 @@
         <v>97</v>
       </c>
       <c r="J76" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="K76" t="s">
         <v>97</v>
       </c>
       <c r="L76" t="s">
-        <v>130</v>
+        <v>122</v>
       </c>
     </row>
     <row r="77" spans="1:12" x14ac:dyDescent="0.2">
@@ -3107,7 +3369,7 @@
         <v>97</v>
       </c>
       <c r="J77" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="K77" t="s">
         <v>97</v>
@@ -3125,7 +3387,7 @@
       </c>
       <c r="C78" s="10"/>
       <c r="D78" s="12" t="s">
-        <v>105</v>
+        <v>187</v>
       </c>
     </row>
     <row r="79" spans="1:12" x14ac:dyDescent="0.2">
@@ -3148,7 +3410,7 @@
         <v>97</v>
       </c>
       <c r="J79" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="K79" t="s">
         <v>97</v>
@@ -3177,16 +3439,16 @@
         <v>97</v>
       </c>
       <c r="J80" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="K80" t="s">
         <v>97</v>
       </c>
       <c r="L80" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="81" spans="3:12" x14ac:dyDescent="0.2">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="81" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C81" s="4" t="s">
         <v>85</v>
       </c>
@@ -3206,7 +3468,7 @@
         <v>97</v>
       </c>
       <c r="J81" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="K81" t="s">
         <v>97</v>
@@ -3215,7 +3477,546 @@
         <v>93</v>
       </c>
     </row>
+    <row r="82" spans="2:12" s="29" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B82" s="30" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="83" spans="2:12" s="12" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B83" s="10" t="s">
+        <v>136</v>
+      </c>
+      <c r="D83" s="31" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="84" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="C84" s="32" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="85" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="C85" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="86" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="C86" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="87" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="C87" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="88" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="C88" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="89" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="C89" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="90" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="C90" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="91" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="C91" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="92" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="C92" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="93" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="C93" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="94" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="C94" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="95" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="C95" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="96" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="C96" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="97" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C97" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="98" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C98" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="99" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C99" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="100" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C100" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="101" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C101" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="102" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C102" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="103" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C103" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="104" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C104" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="105" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C105" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="106" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C106" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="107" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C107" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="108" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C108" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="109" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C109" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="110" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C110" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="111" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C111" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="112" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C112" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="113" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="C113" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="114" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="C114" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="115" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="C115" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="116" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="C116" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="117" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="C117" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="118" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="C118" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="119" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="C119" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="120" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="C120" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="121" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="C121" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="122" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="C122" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="123" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="C123" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="124" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="C124" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="125" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="C125" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="126" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="C126" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="127" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="C127" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="128" spans="2:4" s="12" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B128" s="10" t="s">
+        <v>182</v>
+      </c>
+      <c r="D128" s="31" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="129" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="C129" t="s">
+        <v>183</v>
+      </c>
+      <c r="G129">
+        <v>6.7</v>
+      </c>
+      <c r="H129">
+        <v>0</v>
+      </c>
+      <c r="I129" t="s">
+        <v>93</v>
+      </c>
+      <c r="J129" t="s">
+        <v>93</v>
+      </c>
+      <c r="K129" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="130" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="C130" t="s">
+        <v>184</v>
+      </c>
+      <c r="G130">
+        <v>5.2</v>
+      </c>
+      <c r="H130">
+        <v>0</v>
+      </c>
+      <c r="I130" t="s">
+        <v>93</v>
+      </c>
+      <c r="J130" t="s">
+        <v>93</v>
+      </c>
+      <c r="K130" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="131" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="C131" t="s">
+        <v>185</v>
+      </c>
+      <c r="G131">
+        <v>10</v>
+      </c>
+      <c r="H131">
+        <v>0</v>
+      </c>
+      <c r="I131" t="s">
+        <v>93</v>
+      </c>
+      <c r="J131" t="s">
+        <v>93</v>
+      </c>
+      <c r="K131" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="132" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="C132" t="s">
+        <v>186</v>
+      </c>
+      <c r="G132">
+        <v>7</v>
+      </c>
+      <c r="H132">
+        <v>65</v>
+      </c>
+      <c r="I132" t="s">
+        <v>93</v>
+      </c>
+      <c r="J132" t="s">
+        <v>93</v>
+      </c>
+      <c r="K132" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="133" spans="2:11" s="12" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B133" s="10" t="s">
+        <v>189</v>
+      </c>
+      <c r="D133" s="31" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="134" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="C134" t="s">
+        <v>81</v>
+      </c>
+      <c r="I134" t="s">
+        <v>96</v>
+      </c>
+      <c r="K134" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="135" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="C135" t="s">
+        <v>190</v>
+      </c>
+      <c r="I135" t="s">
+        <v>96</v>
+      </c>
+      <c r="K135" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="136" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="C136" t="s">
+        <v>191</v>
+      </c>
+      <c r="I136" t="s">
+        <v>96</v>
+      </c>
+      <c r="K136" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="137" spans="2:11" s="12" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B137" s="10" t="s">
+        <v>193</v>
+      </c>
+      <c r="D137" s="31" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="138" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="C138" t="s">
+        <v>81</v>
+      </c>
+      <c r="G138">
+        <v>9.44</v>
+      </c>
+      <c r="I138" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="139" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="C139" t="s">
+        <v>191</v>
+      </c>
+      <c r="G139">
+        <v>6.31</v>
+      </c>
+      <c r="I139" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="140" spans="2:11" s="12" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B140" s="10" t="s">
+        <v>195</v>
+      </c>
+      <c r="D140" s="31" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="141" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="C141" t="s">
+        <v>196</v>
+      </c>
+      <c r="G141">
+        <v>2.2799999999999998</v>
+      </c>
+      <c r="I141" t="s">
+        <v>93</v>
+      </c>
+      <c r="J141" t="s">
+        <v>204</v>
+      </c>
+      <c r="K141" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="142" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="C142" t="s">
+        <v>197</v>
+      </c>
+      <c r="G142">
+        <v>3.43</v>
+      </c>
+      <c r="I142" t="s">
+        <v>93</v>
+      </c>
+      <c r="J142" t="s">
+        <v>204</v>
+      </c>
+      <c r="K142" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="143" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="C143" t="s">
+        <v>198</v>
+      </c>
+      <c r="G143">
+        <v>0.28000000000000003</v>
+      </c>
+      <c r="I143" t="s">
+        <v>93</v>
+      </c>
+      <c r="J143" t="s">
+        <v>204</v>
+      </c>
+      <c r="K143" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="144" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="C144" t="s">
+        <v>199</v>
+      </c>
+      <c r="G144">
+        <v>0.35</v>
+      </c>
+      <c r="I144" t="s">
+        <v>93</v>
+      </c>
+      <c r="J144" t="s">
+        <v>204</v>
+      </c>
+      <c r="K144" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="145" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="C145" t="s">
+        <v>200</v>
+      </c>
+      <c r="G145">
+        <v>1.6</v>
+      </c>
+      <c r="I145" t="s">
+        <v>93</v>
+      </c>
+      <c r="J145" t="s">
+        <v>204</v>
+      </c>
+      <c r="K145" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="146" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="C146" t="s">
+        <v>201</v>
+      </c>
+      <c r="G146">
+        <v>1.58</v>
+      </c>
+      <c r="I146" t="s">
+        <v>93</v>
+      </c>
+      <c r="J146" t="s">
+        <v>204</v>
+      </c>
+      <c r="K146" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="147" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="C147" t="s">
+        <v>202</v>
+      </c>
+      <c r="G147">
+        <v>0.63</v>
+      </c>
+      <c r="I147" t="s">
+        <v>93</v>
+      </c>
+      <c r="J147" t="s">
+        <v>204</v>
+      </c>
+      <c r="K147" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="148" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="C148" t="s">
+        <v>203</v>
+      </c>
+      <c r="G148">
+        <v>0.42</v>
+      </c>
+      <c r="I148" t="s">
+        <v>93</v>
+      </c>
+      <c r="J148" t="s">
+        <v>204</v>
+      </c>
+      <c r="K148" t="s">
+        <v>96</v>
+      </c>
+    </row>
   </sheetData>
+  <conditionalFormatting sqref="C84:C127">
+    <cfRule type="duplicateValues" dxfId="0" priority="1"/>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
@@ -3226,7 +4027,7 @@
   <dimension ref="A1:I46"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G1" sqref="G1:I10"/>
+      <selection activeCell="E55" sqref="E55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3236,13 +4037,13 @@
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>125</v>
+        <v>117</v>
       </c>
       <c r="B1" t="s">
-        <v>126</v>
+        <v>118</v>
       </c>
       <c r="C1" t="s">
-        <v>127</v>
+        <v>119</v>
       </c>
       <c r="G1" s="7" t="s">
         <v>35</v>
@@ -3384,13 +4185,13 @@
       <c r="C8">
         <v>-120.93990700000001</v>
       </c>
-      <c r="G8" s="27" t="s">
+      <c r="G8" s="26" t="s">
         <v>42</v>
       </c>
-      <c r="H8" s="28">
+      <c r="H8" s="27">
         <v>40.234889000000003</v>
       </c>
-      <c r="I8" s="28">
+      <c r="I8" s="27">
         <v>-111.724869</v>
       </c>
     </row>
@@ -3424,13 +4225,13 @@
       <c r="C10">
         <v>-113.70055549999999</v>
       </c>
-      <c r="G10" s="28" t="s">
+      <c r="G10" s="27" t="s">
         <v>44</v>
       </c>
-      <c r="H10" s="28">
+      <c r="H10" s="27">
         <v>40.071703999999997</v>
       </c>
-      <c r="I10" s="28">
+      <c r="I10" s="27">
         <v>-111.57715</v>
       </c>
     </row>
@@ -4090,10 +4891,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C17DF85F-2C1F-F649-BAF1-80C86400E080}">
-  <dimension ref="A1:L78"/>
+  <dimension ref="A1:L71"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E15" sqref="E15"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A14" sqref="A14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -4103,9 +4904,9 @@
     <col min="10" max="10" width="38.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:12" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>117</v>
+        <v>111</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>2</v>
@@ -4117,221 +4918,176 @@
       <c r="F1" s="3"/>
       <c r="G1" s="3"/>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
+        <v>109</v>
+      </c>
+      <c r="B2">
+        <v>36.095348999999999</v>
+      </c>
+      <c r="C2">
+        <v>-82.265000000000001</v>
+      </c>
+      <c r="E2" s="21"/>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>112</v>
+      </c>
+      <c r="B3">
+        <v>49.704340000000002</v>
+      </c>
+      <c r="C3">
+        <v>-116.118877</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>108</v>
+      </c>
+      <c r="B4">
+        <v>38.958700999999998</v>
+      </c>
+      <c r="C4">
+        <v>-120.920501</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>105</v>
+      </c>
+      <c r="B5" t="s">
+        <v>116</v>
+      </c>
+      <c r="C5">
+        <v>-115.66604</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
         <v>106</v>
       </c>
-      <c r="B2">
-        <v>69.166667000000004</v>
-      </c>
-      <c r="C2">
-        <v>-150.75</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
+      <c r="B6" t="s">
+        <v>115</v>
+      </c>
+      <c r="C6">
+        <v>-116.1031</v>
+      </c>
+      <c r="F6" s="5"/>
+      <c r="G6" s="5"/>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>5</v>
+      </c>
+      <c r="B7">
+        <v>61.4</v>
+      </c>
+      <c r="C7">
+        <v>-121.43300000000001</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>102</v>
+      </c>
+      <c r="B8">
+        <v>40.133513999999998</v>
+      </c>
+      <c r="C8">
+        <v>-111.771241</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>110</v>
+      </c>
+      <c r="B9" s="6">
+        <v>48.102674999999998</v>
+      </c>
+      <c r="C9" s="6">
+        <v>-120.35232000000001</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
         <v>107</v>
       </c>
-      <c r="B3">
-        <v>65.150000000000006</v>
-      </c>
-      <c r="C3">
-        <v>-147.5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
-        <v>120</v>
-      </c>
-      <c r="B4">
-        <v>40.728676</v>
-      </c>
-      <c r="C4">
-        <v>-105.844109</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
-        <v>108</v>
-      </c>
-      <c r="B5" s="21">
-        <v>34.460483000000004</v>
-      </c>
-      <c r="C5" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A6" t="s">
-        <v>115</v>
-      </c>
-      <c r="B6">
-        <v>36.095348999999999</v>
-      </c>
-      <c r="C6">
-        <v>-82.265000000000001</v>
-      </c>
-      <c r="E6" s="22"/>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A7" t="s">
-        <v>109</v>
-      </c>
-      <c r="B7">
-        <v>49.616667</v>
-      </c>
-      <c r="C7">
-        <v>-114.666667</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A8" t="s">
-        <v>118</v>
-      </c>
-      <c r="B8">
-        <v>49.704340000000002</v>
-      </c>
-      <c r="C8">
-        <v>-116.118877</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A9" t="s">
-        <v>113</v>
-      </c>
-      <c r="B9">
-        <v>38.958700999999998</v>
-      </c>
-      <c r="C9">
-        <v>-120.920501</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A10" t="s">
-        <v>110</v>
-      </c>
       <c r="B10" t="s">
-        <v>124</v>
+        <v>114</v>
       </c>
       <c r="C10">
-        <v>-115.66604</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A11" t="s">
-        <v>111</v>
-      </c>
-      <c r="B11" t="s">
-        <v>123</v>
-      </c>
-      <c r="C11">
-        <v>-116.1031</v>
-      </c>
-      <c r="F11" s="5"/>
-      <c r="G11" s="5"/>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A12" t="s">
-        <v>5</v>
-      </c>
-      <c r="B12">
-        <v>61.4</v>
-      </c>
-      <c r="C12">
-        <v>-121.43300000000001</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A13" t="s">
-        <v>103</v>
-      </c>
-      <c r="B13">
-        <v>40.133513999999998</v>
-      </c>
-      <c r="C13">
-        <v>-111.771241</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A14" t="s">
-        <v>116</v>
-      </c>
-      <c r="B14" s="6">
-        <v>48.102674999999998</v>
-      </c>
-      <c r="C14" s="6">
-        <v>-120.35232000000001</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A15" t="s">
-        <v>119</v>
-      </c>
-      <c r="B15">
-        <v>35</v>
-      </c>
-      <c r="C15">
-        <v>-83</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A16" t="s">
-        <v>114</v>
-      </c>
-      <c r="B16" s="5">
-        <v>48.801667000000002</v>
-      </c>
-      <c r="C16" s="5">
-        <v>113.856944</v>
-      </c>
-    </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A17" t="s">
-        <v>112</v>
-      </c>
-      <c r="B17" t="s">
-        <v>122</v>
-      </c>
-      <c r="C17">
         <v>-119.389139</v>
       </c>
     </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A20" s="22"/>
-    </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A21" s="22"/>
-    </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="K22" s="8"/>
-      <c r="L22" s="5"/>
-    </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A24" s="22"/>
-      <c r="E24" s="22"/>
-    </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A25" s="22"/>
-    </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A26" s="22"/>
-    </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="F28" s="23"/>
-      <c r="G28" s="23"/>
-    </row>
-    <row r="32" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="E32" s="22"/>
-      <c r="F32" s="24"/>
-      <c r="G32" s="24"/>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A13" s="21"/>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A14" s="21"/>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="K15" s="8"/>
+      <c r="L15" s="5"/>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A17" s="21"/>
+      <c r="E17" s="21"/>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A18" s="21"/>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A19" s="21"/>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="F21" s="22"/>
+      <c r="G21" s="22"/>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="E25" s="21"/>
+      <c r="F25" s="23"/>
+      <c r="G25" s="23"/>
+    </row>
+    <row r="39" spans="5:7" x14ac:dyDescent="0.2">
+      <c r="E39" s="21"/>
+      <c r="F39" s="22"/>
+      <c r="G39" s="22"/>
+    </row>
+    <row r="45" spans="5:7" x14ac:dyDescent="0.2">
+      <c r="E45" s="24"/>
     </row>
     <row r="46" spans="5:7" x14ac:dyDescent="0.2">
-      <c r="E46" s="22"/>
-      <c r="F46" s="23"/>
-      <c r="G46" s="23"/>
+      <c r="E46" s="5"/>
+      <c r="F46" s="5"/>
+      <c r="G46" s="8"/>
+    </row>
+    <row r="47" spans="5:7" x14ac:dyDescent="0.2">
+      <c r="E47" s="5"/>
+      <c r="F47" s="5"/>
+      <c r="G47" s="8"/>
+    </row>
+    <row r="48" spans="5:7" x14ac:dyDescent="0.2">
+      <c r="E48" s="5"/>
+      <c r="F48" s="5"/>
+      <c r="G48" s="8"/>
+    </row>
+    <row r="49" spans="5:7" x14ac:dyDescent="0.2">
+      <c r="E49" s="5"/>
+      <c r="F49" s="5"/>
+      <c r="G49" s="8"/>
+    </row>
+    <row r="50" spans="5:7" x14ac:dyDescent="0.2">
+      <c r="E50" s="5"/>
+      <c r="G50" s="9"/>
+    </row>
+    <row r="51" spans="5:7" x14ac:dyDescent="0.2">
+      <c r="E51" s="24"/>
     </row>
     <row r="52" spans="5:7" x14ac:dyDescent="0.2">
-      <c r="E52" s="25"/>
+      <c r="E52" s="5"/>
+      <c r="F52" s="5"/>
+      <c r="G52" s="8"/>
     </row>
     <row r="53" spans="5:7" x14ac:dyDescent="0.2">
       <c r="E53" s="5"/>
@@ -4348,75 +5104,43 @@
       <c r="F55" s="5"/>
       <c r="G55" s="8"/>
     </row>
-    <row r="56" spans="5:7" x14ac:dyDescent="0.2">
-      <c r="E56" s="5"/>
-      <c r="F56" s="5"/>
-      <c r="G56" s="8"/>
-    </row>
-    <row r="57" spans="5:7" x14ac:dyDescent="0.2">
-      <c r="E57" s="5"/>
-      <c r="G57" s="9"/>
-    </row>
-    <row r="58" spans="5:7" x14ac:dyDescent="0.2">
-      <c r="E58" s="25"/>
-    </row>
     <row r="59" spans="5:7" x14ac:dyDescent="0.2">
-      <c r="E59" s="5"/>
-      <c r="F59" s="5"/>
-      <c r="G59" s="8"/>
-    </row>
-    <row r="60" spans="5:7" x14ac:dyDescent="0.2">
-      <c r="E60" s="5"/>
-      <c r="F60" s="5"/>
-      <c r="G60" s="8"/>
-    </row>
-    <row r="61" spans="5:7" x14ac:dyDescent="0.2">
-      <c r="E61" s="5"/>
-      <c r="F61" s="5"/>
-      <c r="G61" s="8"/>
-    </row>
-    <row r="62" spans="5:7" x14ac:dyDescent="0.2">
-      <c r="E62" s="5"/>
-      <c r="F62" s="5"/>
-      <c r="G62" s="8"/>
+      <c r="E59" s="21"/>
+    </row>
+    <row r="64" spans="5:7" x14ac:dyDescent="0.2">
+      <c r="F64" s="6"/>
+      <c r="G64" s="6"/>
+    </row>
+    <row r="65" spans="5:7" x14ac:dyDescent="0.2">
+      <c r="F65" s="6"/>
+      <c r="G65" s="6"/>
     </row>
     <row r="66" spans="5:7" x14ac:dyDescent="0.2">
-      <c r="E66" s="22"/>
+      <c r="F66" s="6"/>
+      <c r="G66" s="6"/>
+    </row>
+    <row r="67" spans="5:7" x14ac:dyDescent="0.2">
+      <c r="E67" s="24"/>
+    </row>
+    <row r="68" spans="5:7" x14ac:dyDescent="0.2">
+      <c r="E68" s="5"/>
+    </row>
+    <row r="69" spans="5:7" x14ac:dyDescent="0.2">
+      <c r="E69" s="5"/>
+      <c r="F69" s="6"/>
+      <c r="G69" s="6"/>
+    </row>
+    <row r="70" spans="5:7" x14ac:dyDescent="0.2">
+      <c r="E70" s="5"/>
     </row>
     <row r="71" spans="5:7" x14ac:dyDescent="0.2">
-      <c r="F71" s="6"/>
-      <c r="G71" s="6"/>
-    </row>
-    <row r="72" spans="5:7" x14ac:dyDescent="0.2">
-      <c r="F72" s="6"/>
-      <c r="G72" s="6"/>
-    </row>
-    <row r="73" spans="5:7" x14ac:dyDescent="0.2">
-      <c r="F73" s="6"/>
-      <c r="G73" s="6"/>
-    </row>
-    <row r="74" spans="5:7" x14ac:dyDescent="0.2">
-      <c r="E74" s="25"/>
-    </row>
-    <row r="75" spans="5:7" x14ac:dyDescent="0.2">
-      <c r="E75" s="5"/>
-    </row>
-    <row r="76" spans="5:7" x14ac:dyDescent="0.2">
-      <c r="E76" s="5"/>
-      <c r="F76" s="6"/>
-      <c r="G76" s="6"/>
-    </row>
-    <row r="77" spans="5:7" x14ac:dyDescent="0.2">
-      <c r="E77" s="5"/>
-    </row>
-    <row r="78" spans="5:7" x14ac:dyDescent="0.2">
-      <c r="E78" s="22"/>
-      <c r="F78" s="26"/>
-      <c r="G78" s="26"/>
+      <c r="E71" s="21"/>
+      <c r="F71" s="25"/>
+      <c r="G71" s="25"/>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="J2:L89">
-    <sortCondition ref="J1:J89"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="J2:L82">
+    <sortCondition ref="J1:J82"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/FireMeta_Rproj/inputs/Studies_Summary/Fire_name_Lat_Long.xlsx
+++ b/FireMeta_Rproj/inputs/Studies_Summary/Fire_name_Lat_Long.xlsx
@@ -8,20 +8,19 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/cava304/GitHub/rc_sfa-rc-3-wenas-meta/FireMeta_Rproj/inputs/Studies_Summary/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{045E6EC6-8B81-324A-BA7E-F8BF9A8D0B72}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0727CC39-C012-5444-B327-0FEB1B79F189}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="740" windowWidth="30240" windowHeight="18900" activeTab="2" xr2:uid="{8C258C6F-044A-E849-9C14-F26FA5F5AA92}"/>
+    <workbookView xWindow="49640" yWindow="0" windowWidth="19000" windowHeight="24000" xr2:uid="{8C258C6F-044A-E849-9C14-F26FA5F5AA92}"/>
   </bookViews>
   <sheets>
     <sheet name="Temporal Normalization Studies" sheetId="1" r:id="rId1"/>
-    <sheet name="Katie_code_format" sheetId="3" r:id="rId2"/>
-    <sheet name="Fires we don’t have yet" sheetId="2" r:id="rId3"/>
+    <sheet name="Fires we don’t have yet" sheetId="2" r:id="rId2"/>
   </sheets>
   <externalReferences>
-    <externalReference r:id="rId4"/>
+    <externalReference r:id="rId3"/>
   </externalReferences>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">[1]studies_not_included_in_tempora!$A$46:$A$171</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">[1]studies_not_included_in_tempora!$A$44:$A$169</definedName>
   </definedNames>
   <calcPr calcId="181029"/>
   <extLst>
@@ -44,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="627" uniqueCount="205">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="690" uniqueCount="241">
   <si>
     <t>Study</t>
   </si>
@@ -414,15 +413,6 @@
     <t xml:space="preserve">44.578525	</t>
   </si>
   <si>
-    <t>site</t>
-  </si>
-  <si>
-    <t>latitude</t>
-  </si>
-  <si>
-    <t>longitude</t>
-  </si>
-  <si>
     <t>Have_HUC?</t>
   </si>
   <si>
@@ -466,9 +456,6 @@
   </si>
   <si>
     <t>Y_same COMID as upper</t>
-  </si>
-  <si>
-    <t>Not in the temporal normalization code due to filter process</t>
   </si>
   <si>
     <t>Abbott et al. 2021</t>
@@ -668,12 +655,6 @@
     <t>Klose et al. 2015</t>
   </si>
   <si>
-    <t>Partially burned</t>
-  </si>
-  <si>
-    <t>Burned</t>
-  </si>
-  <si>
     <t>Lost Creek (2003)</t>
   </si>
   <si>
@@ -730,6 +711,132 @@
   <si>
     <t>Y_report_Severity</t>
   </si>
+  <si>
+    <t>N_Alaska</t>
+  </si>
+  <si>
+    <t>El Capitan</t>
+  </si>
+  <si>
+    <t>Refugio</t>
+  </si>
+  <si>
+    <t>Romero</t>
+  </si>
+  <si>
+    <t>San Jose</t>
+  </si>
+  <si>
+    <t>San Ysidro</t>
+  </si>
+  <si>
+    <t>Cold Springs</t>
+  </si>
+  <si>
+    <t>Rattlesnake Lower</t>
+  </si>
+  <si>
+    <t>Rattlesnake Upper</t>
+  </si>
+  <si>
+    <t>San Roque</t>
+  </si>
+  <si>
+    <t>Mission BG</t>
+  </si>
+  <si>
+    <t>Misson Rocky Nook</t>
+  </si>
+  <si>
+    <t>San Antonio</t>
+  </si>
+  <si>
+    <t>Star</t>
+  </si>
+  <si>
+    <t>North York</t>
+  </si>
+  <si>
+    <t>South York</t>
+  </si>
+  <si>
+    <t>Lynx</t>
+  </si>
+  <si>
+    <t>Drum</t>
+  </si>
+  <si>
+    <t>Y but just slightly off, I think too small</t>
+  </si>
+  <si>
+    <t>Not in the temporal normalization code due to filter process but have fires</t>
+  </si>
+  <si>
+    <t>Not in the temporal normalization code due to filter process AND don’t have fires</t>
+  </si>
+  <si>
+    <t>Andres Sanchez et al. 2023</t>
+  </si>
+  <si>
+    <t>Thompson Ridge Wildfire (2013)</t>
+  </si>
+  <si>
+    <t>History_Grove</t>
+  </si>
+  <si>
+    <t>La_Jara</t>
+  </si>
+  <si>
+    <t>Upper_Jaramillo</t>
+  </si>
+  <si>
+    <t>Y_burn_severity</t>
+  </si>
+  <si>
+    <t>Chow et al. 2019</t>
+  </si>
+  <si>
+    <t>Hayman Fire (2002)</t>
+  </si>
+  <si>
+    <t>Hall &amp; Lombardozzi 2008</t>
+  </si>
+  <si>
+    <t>Harris et al. 2015</t>
+  </si>
+  <si>
+    <t>Hohner et al. 2016</t>
+  </si>
+  <si>
+    <t>Hewlett Gulch_High Park fire</t>
+  </si>
+  <si>
+    <t>Mast et al. 2016</t>
+  </si>
+  <si>
+    <t>Fern Lake (2012)</t>
+  </si>
+  <si>
+    <t>Rhea et al. 2021</t>
+  </si>
+  <si>
+    <t>Hayman Fire (2002)_High Park Fire (2012)</t>
+  </si>
+  <si>
+    <t>Rhoades et al. 2011</t>
+  </si>
+  <si>
+    <t>Rhoades et al. 2019</t>
+  </si>
+  <si>
+    <t>Santos et al. 2019</t>
+  </si>
+  <si>
+    <t>Stephan et al. 2015</t>
+  </si>
+  <si>
+    <t>Writer &amp; Murphy, 2012</t>
+  </si>
 </sst>
 </file>
 
@@ -738,7 +845,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.000"/>
   </numFmts>
-  <fonts count="16" x14ac:knownFonts="1">
+  <fonts count="17" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -843,8 +950,14 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="6">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -860,12 +973,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -915,28 +1022,18 @@
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="15" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="15" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="12" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="2">
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="1">
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -1273,11 +1370,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FE608700-CF3C-DE4E-8B7D-38FBD72A91DD}">
-  <dimension ref="A1:L148"/>
+  <dimension ref="A1:L178"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A104" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B140" sqref="B140"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A140" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C178" sqref="C178"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1295,7 +1392,7 @@
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
@@ -1328,7 +1425,7 @@
         <v>95</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
     </row>
     <row r="2" spans="1:12" s="12" customFormat="1" x14ac:dyDescent="0.2">
@@ -1370,7 +1467,7 @@
         <v>93</v>
       </c>
       <c r="L3" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.2">
@@ -1400,7 +1497,7 @@
         <v>93</v>
       </c>
       <c r="L4" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
     </row>
     <row r="5" spans="1:12" s="12" customFormat="1" x14ac:dyDescent="0.2">
@@ -1576,7 +1673,7 @@
         <v>98</v>
       </c>
       <c r="L11" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.2">
@@ -1606,7 +1703,7 @@
         <v>98</v>
       </c>
       <c r="L12" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.2">
@@ -1617,7 +1714,7 @@
       <c r="E13">
         <v>40.184012000000003</v>
       </c>
-      <c r="F13" s="28">
+      <c r="F13" s="26">
         <v>-111.647362</v>
       </c>
       <c r="G13">
@@ -1636,7 +1733,7 @@
         <v>98</v>
       </c>
       <c r="L13" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.2">
@@ -1726,7 +1823,7 @@
         <v>98</v>
       </c>
       <c r="L16" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.2">
@@ -1756,7 +1853,7 @@
         <v>98</v>
       </c>
       <c r="L17" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.2">
@@ -1816,7 +1913,7 @@
         <v>98</v>
       </c>
       <c r="L19" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
     </row>
     <row r="20" spans="1:12" x14ac:dyDescent="0.2">
@@ -1962,7 +2059,7 @@
         <v>98</v>
       </c>
       <c r="L25" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
     </row>
     <row r="26" spans="1:12" x14ac:dyDescent="0.2">
@@ -1992,7 +2089,7 @@
         <v>98</v>
       </c>
       <c r="L26" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
     </row>
     <row r="27" spans="1:12" x14ac:dyDescent="0.2">
@@ -2022,7 +2119,7 @@
         <v>98</v>
       </c>
       <c r="L27" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
     </row>
     <row r="28" spans="1:12" s="12" customFormat="1" x14ac:dyDescent="0.2">
@@ -2186,7 +2283,7 @@
         <v>97</v>
       </c>
       <c r="L33" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
     </row>
     <row r="34" spans="1:12" x14ac:dyDescent="0.2">
@@ -2308,7 +2405,7 @@
         <v>99</v>
       </c>
       <c r="I38" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="J38" t="s">
         <v>96</v>
@@ -2317,7 +2414,7 @@
         <v>98</v>
       </c>
       <c r="L38" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
     </row>
     <row r="39" spans="1:12" x14ac:dyDescent="0.2">
@@ -2338,7 +2435,7 @@
         <v>99</v>
       </c>
       <c r="I39" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="J39" t="s">
         <v>96</v>
@@ -2347,7 +2444,7 @@
         <v>98</v>
       </c>
       <c r="L39" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
     </row>
     <row r="40" spans="1:12" x14ac:dyDescent="0.2">
@@ -2368,7 +2465,7 @@
         <v>99</v>
       </c>
       <c r="I40" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="J40" t="s">
         <v>96</v>
@@ -2377,7 +2474,7 @@
         <v>98</v>
       </c>
       <c r="L40" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
     </row>
     <row r="41" spans="1:12" x14ac:dyDescent="0.2">
@@ -2398,7 +2495,7 @@
         <v>99</v>
       </c>
       <c r="I41" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="J41" t="s">
         <v>96</v>
@@ -2407,7 +2504,7 @@
         <v>98</v>
       </c>
       <c r="L41" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
     </row>
     <row r="42" spans="1:12" s="12" customFormat="1" x14ac:dyDescent="0.2">
@@ -2419,7 +2516,7 @@
       </c>
       <c r="C42" s="10"/>
       <c r="D42" s="11" t="s">
-        <v>194</v>
+        <v>188</v>
       </c>
       <c r="E42" s="15"/>
       <c r="F42" s="15"/>
@@ -2713,7 +2810,7 @@
         <v>98</v>
       </c>
       <c r="L52" s="5" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
     </row>
     <row r="53" spans="1:12" x14ac:dyDescent="0.2">
@@ -2886,7 +2983,7 @@
         <v>98</v>
       </c>
       <c r="L58" s="5" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
     </row>
     <row r="59" spans="1:12" s="12" customFormat="1" x14ac:dyDescent="0.2">
@@ -2964,7 +3061,7 @@
         <v>97</v>
       </c>
       <c r="L61" s="5" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
     </row>
     <row r="62" spans="1:12" s="12" customFormat="1" x14ac:dyDescent="0.2">
@@ -3006,7 +3103,7 @@
         <v>98</v>
       </c>
       <c r="L63" s="5" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
     </row>
     <row r="64" spans="1:12" x14ac:dyDescent="0.2">
@@ -3064,7 +3161,7 @@
         <v>98</v>
       </c>
       <c r="L65" s="5" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
     </row>
     <row r="66" spans="1:12" x14ac:dyDescent="0.2">
@@ -3094,7 +3191,7 @@
         <v>98</v>
       </c>
       <c r="L66" s="5" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
     </row>
     <row r="67" spans="1:12" s="12" customFormat="1" x14ac:dyDescent="0.2">
@@ -3211,7 +3308,7 @@
         <v>93</v>
       </c>
       <c r="L71" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
     </row>
     <row r="72" spans="1:12" x14ac:dyDescent="0.2">
@@ -3242,7 +3339,7 @@
         <v>93</v>
       </c>
       <c r="L72" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
     </row>
     <row r="73" spans="1:12" x14ac:dyDescent="0.2">
@@ -3271,7 +3368,7 @@
         <v>93</v>
       </c>
       <c r="L73" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
     </row>
     <row r="74" spans="1:12" s="12" customFormat="1" x14ac:dyDescent="0.2">
@@ -3345,7 +3442,7 @@
         <v>97</v>
       </c>
       <c r="L76" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
     </row>
     <row r="77" spans="1:12" x14ac:dyDescent="0.2">
@@ -3387,7 +3484,7 @@
       </c>
       <c r="C78" s="10"/>
       <c r="D78" s="12" t="s">
-        <v>187</v>
+        <v>183</v>
       </c>
     </row>
     <row r="79" spans="1:12" x14ac:dyDescent="0.2">
@@ -3445,7 +3542,7 @@
         <v>97</v>
       </c>
       <c r="L80" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
     </row>
     <row r="81" spans="2:12" x14ac:dyDescent="0.2">
@@ -3477,250 +3574,256 @@
         <v>93</v>
       </c>
     </row>
-    <row r="82" spans="2:12" s="29" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B82" s="30" t="s">
-        <v>135</v>
+    <row r="82" spans="2:12" s="27" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B82" s="28" t="s">
+        <v>218</v>
       </c>
     </row>
     <row r="83" spans="2:12" s="12" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B83" s="10" t="s">
-        <v>136</v>
-      </c>
-      <c r="D83" s="31" t="s">
-        <v>181</v>
+        <v>132</v>
+      </c>
+      <c r="D83" s="29" t="s">
+        <v>177</v>
       </c>
     </row>
     <row r="84" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="C84" s="32" t="s">
-        <v>137</v>
+      <c r="C84" t="s">
+        <v>133</v>
       </c>
     </row>
     <row r="85" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C85" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
     </row>
     <row r="86" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C86" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
     </row>
     <row r="87" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C87" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
     </row>
     <row r="88" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C88" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
     </row>
     <row r="89" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C89" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
     </row>
     <row r="90" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C90" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
     </row>
     <row r="91" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C91" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
     </row>
     <row r="92" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C92" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
     </row>
     <row r="93" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C93" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
     </row>
     <row r="94" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C94" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
     </row>
     <row r="95" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C95" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
     </row>
     <row r="96" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C96" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
     </row>
     <row r="97" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C97" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
     </row>
     <row r="98" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C98" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
     </row>
     <row r="99" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C99" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
     </row>
     <row r="100" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C100" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
     </row>
     <row r="101" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C101" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
     </row>
     <row r="102" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C102" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
     </row>
     <row r="103" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C103" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
     </row>
     <row r="104" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C104" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
     </row>
     <row r="105" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C105" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
     </row>
     <row r="106" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C106" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
     </row>
     <row r="107" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C107" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
     </row>
     <row r="108" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C108" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
     </row>
     <row r="109" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C109" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
     </row>
     <row r="110" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C110" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
     </row>
     <row r="111" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C111" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
     </row>
     <row r="112" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C112" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
     </row>
     <row r="113" spans="2:4" x14ac:dyDescent="0.2">
       <c r="C113" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
     </row>
     <row r="114" spans="2:4" x14ac:dyDescent="0.2">
       <c r="C114" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
     </row>
     <row r="115" spans="2:4" x14ac:dyDescent="0.2">
       <c r="C115" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
     </row>
     <row r="116" spans="2:4" x14ac:dyDescent="0.2">
       <c r="C116" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
     </row>
     <row r="117" spans="2:4" x14ac:dyDescent="0.2">
       <c r="C117" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
     </row>
     <row r="118" spans="2:4" x14ac:dyDescent="0.2">
       <c r="C118" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
     </row>
     <row r="119" spans="2:4" x14ac:dyDescent="0.2">
       <c r="C119" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
     </row>
     <row r="120" spans="2:4" x14ac:dyDescent="0.2">
       <c r="C120" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
     </row>
     <row r="121" spans="2:4" x14ac:dyDescent="0.2">
       <c r="C121" t="s">
-        <v>174</v>
+        <v>170</v>
       </c>
     </row>
     <row r="122" spans="2:4" x14ac:dyDescent="0.2">
       <c r="C122" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
     </row>
     <row r="123" spans="2:4" x14ac:dyDescent="0.2">
       <c r="C123" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
     </row>
     <row r="124" spans="2:4" x14ac:dyDescent="0.2">
       <c r="C124" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
     </row>
     <row r="125" spans="2:4" x14ac:dyDescent="0.2">
       <c r="C125" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
     </row>
     <row r="126" spans="2:4" x14ac:dyDescent="0.2">
       <c r="C126" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
     </row>
     <row r="127" spans="2:4" x14ac:dyDescent="0.2">
       <c r="C127" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
     </row>
     <row r="128" spans="2:4" s="12" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B128" s="10" t="s">
-        <v>182</v>
-      </c>
-      <c r="D128" s="31" t="s">
+        <v>178</v>
+      </c>
+      <c r="D128" s="29" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="129" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="129" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C129" t="s">
-        <v>183</v>
+        <v>179</v>
+      </c>
+      <c r="E129">
+        <v>65.156433000000007</v>
+      </c>
+      <c r="F129">
+        <v>-147.60959099999999</v>
       </c>
       <c r="G129">
         <v>6.7</v>
@@ -3737,10 +3840,19 @@
       <c r="K129" t="s">
         <v>96</v>
       </c>
-    </row>
-    <row r="130" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L129" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="130" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C130" t="s">
-        <v>184</v>
+        <v>180</v>
+      </c>
+      <c r="E130">
+        <v>65.159576999999999</v>
+      </c>
+      <c r="F130">
+        <v>-147.60817299999999</v>
       </c>
       <c r="G130">
         <v>5.2</v>
@@ -3757,10 +3869,19 @@
       <c r="K130" t="s">
         <v>96</v>
       </c>
-    </row>
-    <row r="131" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L130" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="131" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C131" t="s">
-        <v>185</v>
+        <v>181</v>
+      </c>
+      <c r="E131">
+        <v>65.158680000000004</v>
+      </c>
+      <c r="F131">
+        <v>-147.49834300000001</v>
       </c>
       <c r="G131">
         <v>10</v>
@@ -3777,10 +3898,19 @@
       <c r="K131" t="s">
         <v>96</v>
       </c>
-    </row>
-    <row r="132" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L131" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="132" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C132" t="s">
-        <v>186</v>
+        <v>182</v>
+      </c>
+      <c r="E132">
+        <v>65.180338000000006</v>
+      </c>
+      <c r="F132">
+        <v>-147.43898799999999</v>
       </c>
       <c r="G132">
         <v>7</v>
@@ -3797,223 +3927,897 @@
       <c r="K132" t="s">
         <v>96</v>
       </c>
-    </row>
-    <row r="133" spans="2:11" s="12" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="L132" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="133" spans="2:12" s="12" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B133" s="10" t="s">
+        <v>185</v>
+      </c>
+      <c r="D133" s="29" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="134" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="C134" t="s">
+        <v>33</v>
+      </c>
+      <c r="E134">
+        <v>34.489907000000002</v>
+      </c>
+      <c r="F134">
+        <v>-120.143013</v>
+      </c>
+      <c r="G134" t="s">
+        <v>96</v>
+      </c>
+      <c r="H134" t="s">
+        <v>99</v>
+      </c>
+      <c r="I134" t="s">
+        <v>96</v>
+      </c>
+      <c r="K134" t="s">
+        <v>93</v>
+      </c>
+      <c r="L134" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="135" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="C135" t="s">
+        <v>200</v>
+      </c>
+      <c r="E135">
+        <v>34.482937999999997</v>
+      </c>
+      <c r="F135">
+        <v>-120.017504</v>
+      </c>
+      <c r="G135" t="s">
+        <v>96</v>
+      </c>
+      <c r="H135" t="s">
+        <v>99</v>
+      </c>
+      <c r="I135" t="s">
+        <v>96</v>
+      </c>
+      <c r="K135" t="s">
+        <v>93</v>
+      </c>
+      <c r="L135" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="136" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="C136" t="s">
+        <v>201</v>
+      </c>
+      <c r="E136">
+        <v>34.506217999999997</v>
+      </c>
+      <c r="F136">
+        <v>-120.064933</v>
+      </c>
+      <c r="G136" t="s">
+        <v>96</v>
+      </c>
+      <c r="H136" t="s">
+        <v>99</v>
+      </c>
+      <c r="I136" t="s">
+        <v>96</v>
+      </c>
+      <c r="K136" t="s">
+        <v>93</v>
+      </c>
+      <c r="L136" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="137" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="C137" t="s">
+        <v>202</v>
+      </c>
+      <c r="E137">
+        <v>34.458570999999999</v>
+      </c>
+      <c r="F137">
+        <v>-119.591069</v>
+      </c>
+      <c r="G137" t="s">
+        <v>96</v>
+      </c>
+      <c r="H137" t="s">
+        <v>99</v>
+      </c>
+      <c r="I137" t="s">
+        <v>96</v>
+      </c>
+      <c r="K137" t="s">
+        <v>93</v>
+      </c>
+      <c r="L137" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="138" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="C138" t="s">
+        <v>203</v>
+      </c>
+      <c r="E138">
+        <v>34.492925</v>
+      </c>
+      <c r="F138">
+        <v>-119.803048</v>
+      </c>
+      <c r="G138" t="s">
+        <v>96</v>
+      </c>
+      <c r="H138" t="s">
+        <v>99</v>
+      </c>
+      <c r="I138" t="s">
+        <v>96</v>
+      </c>
+      <c r="K138" t="s">
+        <v>93</v>
+      </c>
+      <c r="L138" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="139" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="C139" t="s">
+        <v>31</v>
+      </c>
+      <c r="E139">
+        <v>34.481451</v>
+      </c>
+      <c r="F139">
+        <v>-120.18889799999999</v>
+      </c>
+      <c r="G139" t="s">
+        <v>96</v>
+      </c>
+      <c r="H139" t="s">
+        <v>99</v>
+      </c>
+      <c r="I139" t="s">
+        <v>96</v>
+      </c>
+      <c r="K139" t="s">
+        <v>93</v>
+      </c>
+      <c r="L139" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="140" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="C140" t="s">
+        <v>204</v>
+      </c>
+      <c r="E140">
+        <v>34.452924000000003</v>
+      </c>
+      <c r="F140">
+        <v>-119.62178400000001</v>
+      </c>
+      <c r="G140" t="s">
+        <v>96</v>
+      </c>
+      <c r="H140" t="s">
+        <v>99</v>
+      </c>
+      <c r="I140" t="s">
+        <v>96</v>
+      </c>
+      <c r="K140" t="s">
+        <v>93</v>
+      </c>
+      <c r="L140" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="141" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="C141" t="s">
+        <v>205</v>
+      </c>
+      <c r="E141">
+        <v>34.456563000000003</v>
+      </c>
+      <c r="F141">
+        <v>-119.65332600000001</v>
+      </c>
+      <c r="G141" t="s">
+        <v>96</v>
+      </c>
+      <c r="H141" t="s">
+        <v>99</v>
+      </c>
+      <c r="I141" t="s">
+        <v>96</v>
+      </c>
+      <c r="K141" t="s">
+        <v>93</v>
+      </c>
+      <c r="L141" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="142" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="C142" t="s">
+        <v>210</v>
+      </c>
+      <c r="E142">
+        <v>34.443747000000002</v>
+      </c>
+      <c r="F142">
+        <v>-119.70948300000001</v>
+      </c>
+      <c r="G142" t="s">
+        <v>96</v>
+      </c>
+      <c r="H142" t="s">
+        <v>99</v>
+      </c>
+      <c r="I142" t="s">
+        <v>96</v>
+      </c>
+      <c r="K142" t="s">
+        <v>93</v>
+      </c>
+      <c r="L142" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="143" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="C143" t="s">
+        <v>206</v>
+      </c>
+      <c r="E143">
+        <v>34.464474000000003</v>
+      </c>
+      <c r="F143">
+        <v>-119.687972</v>
+      </c>
+      <c r="G143" t="s">
+        <v>96</v>
+      </c>
+      <c r="H143" t="s">
+        <v>99</v>
+      </c>
+      <c r="I143" t="s">
+        <v>96</v>
+      </c>
+      <c r="K143" t="s">
+        <v>93</v>
+      </c>
+      <c r="L143" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="144" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="C144" t="s">
+        <v>207</v>
+      </c>
+      <c r="E144">
+        <v>34.470762999999998</v>
+      </c>
+      <c r="F144">
+        <v>-119.688856</v>
+      </c>
+      <c r="G144" t="s">
+        <v>96</v>
+      </c>
+      <c r="H144" t="s">
+        <v>99</v>
+      </c>
+      <c r="I144" t="s">
+        <v>96</v>
+      </c>
+      <c r="K144" t="s">
+        <v>93</v>
+      </c>
+      <c r="L144" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="145" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="C145" t="s">
+        <v>208</v>
+      </c>
+      <c r="E145">
+        <v>34.465553</v>
+      </c>
+      <c r="F145">
+        <v>-119.731284</v>
+      </c>
+      <c r="G145" t="s">
+        <v>96</v>
+      </c>
+      <c r="H145" t="s">
+        <v>99</v>
+      </c>
+      <c r="I145" t="s">
+        <v>96</v>
+      </c>
+      <c r="K145" t="s">
+        <v>93</v>
+      </c>
+      <c r="L145" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="146" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="C146" t="s">
+        <v>209</v>
+      </c>
+      <c r="E146">
+        <v>34.460483000000004</v>
+      </c>
+      <c r="F146">
+        <v>-119.71012</v>
+      </c>
+      <c r="G146" t="s">
+        <v>96</v>
+      </c>
+      <c r="H146" t="s">
+        <v>99</v>
+      </c>
+      <c r="I146" t="s">
+        <v>96</v>
+      </c>
+      <c r="K146" t="s">
+        <v>93</v>
+      </c>
+      <c r="L146" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="147" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="C147" t="s">
+        <v>211</v>
+      </c>
+      <c r="E147">
+        <v>34.467247999999998</v>
+      </c>
+      <c r="F147">
+        <v>-119.77312000000001</v>
+      </c>
+      <c r="G147" t="s">
+        <v>96</v>
+      </c>
+      <c r="H147" t="s">
+        <v>99</v>
+      </c>
+      <c r="I147" t="s">
+        <v>96</v>
+      </c>
+      <c r="K147" t="s">
+        <v>93</v>
+      </c>
+      <c r="L147" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="148" spans="2:12" s="12" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B148" s="10" t="s">
+        <v>187</v>
+      </c>
+      <c r="D148" s="29" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="149" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="C149" t="s">
+        <v>212</v>
+      </c>
+      <c r="G149">
+        <v>10.59</v>
+      </c>
+      <c r="H149" t="s">
+        <v>99</v>
+      </c>
+      <c r="I149" t="s">
+        <v>93</v>
+      </c>
+      <c r="J149" t="s">
+        <v>96</v>
+      </c>
+      <c r="K149" t="s">
+        <v>96</v>
+      </c>
+      <c r="L149" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="150" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="C150" t="s">
+        <v>213</v>
+      </c>
+      <c r="G150">
+        <v>8.2899999999999991</v>
+      </c>
+      <c r="H150" t="s">
+        <v>99</v>
+      </c>
+      <c r="I150" t="s">
+        <v>93</v>
+      </c>
+      <c r="J150" t="s">
+        <v>96</v>
+      </c>
+      <c r="K150" t="s">
+        <v>96</v>
+      </c>
+      <c r="L150" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="151" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="C151" t="s">
+        <v>214</v>
+      </c>
+      <c r="G151">
+        <v>3.59</v>
+      </c>
+      <c r="H151" t="s">
+        <v>99</v>
+      </c>
+      <c r="I151" t="s">
+        <v>93</v>
+      </c>
+      <c r="J151" t="s">
+        <v>96</v>
+      </c>
+      <c r="K151" t="s">
+        <v>96</v>
+      </c>
+      <c r="L151" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="152" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="C152" t="s">
+        <v>215</v>
+      </c>
+      <c r="G152">
+        <v>8.2100000000000009</v>
+      </c>
+      <c r="H152" t="s">
+        <v>99</v>
+      </c>
+      <c r="I152" t="s">
+        <v>93</v>
+      </c>
+      <c r="J152" t="s">
+        <v>96</v>
+      </c>
+      <c r="K152" t="s">
+        <v>96</v>
+      </c>
+      <c r="L152" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="153" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="C153" t="s">
+        <v>216</v>
+      </c>
+      <c r="G153">
+        <v>7.13</v>
+      </c>
+      <c r="H153" t="s">
+        <v>99</v>
+      </c>
+      <c r="I153" t="s">
+        <v>93</v>
+      </c>
+      <c r="J153" t="s">
+        <v>96</v>
+      </c>
+      <c r="K153" t="s">
+        <v>96</v>
+      </c>
+      <c r="L153" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="154" spans="2:12" s="12" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B154" s="10" t="s">
         <v>189</v>
       </c>
-      <c r="D133" s="31" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="134" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="C134" t="s">
-        <v>81</v>
-      </c>
-      <c r="I134" t="s">
-        <v>96</v>
-      </c>
-      <c r="K134" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="135" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="C135" t="s">
+      <c r="D154" s="29" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="155" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="C155" t="s">
         <v>190</v>
       </c>
-      <c r="I135" t="s">
-        <v>96</v>
-      </c>
-      <c r="K135" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="136" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="C136" t="s">
+      <c r="E155">
+        <v>35.173952</v>
+      </c>
+      <c r="F155">
+        <v>-83.515083000000004</v>
+      </c>
+      <c r="G155">
+        <v>2.2799999999999998</v>
+      </c>
+      <c r="I155" t="s">
+        <v>93</v>
+      </c>
+      <c r="J155" t="s">
+        <v>198</v>
+      </c>
+      <c r="K155" t="s">
+        <v>96</v>
+      </c>
+      <c r="L155" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="156" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="C156" t="s">
         <v>191</v>
       </c>
-      <c r="I136" t="s">
-        <v>96</v>
-      </c>
-      <c r="K136" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="137" spans="2:11" s="12" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B137" s="10" t="s">
+      <c r="E156">
+        <v>35.167361999999997</v>
+      </c>
+      <c r="F156">
+        <v>-83.541939999999997</v>
+      </c>
+      <c r="G156">
+        <v>3.43</v>
+      </c>
+      <c r="I156" t="s">
+        <v>93</v>
+      </c>
+      <c r="J156" t="s">
+        <v>198</v>
+      </c>
+      <c r="K156" t="s">
+        <v>96</v>
+      </c>
+      <c r="L156" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="157" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="C157" t="s">
+        <v>192</v>
+      </c>
+      <c r="E157">
+        <v>35.183095999999999</v>
+      </c>
+      <c r="F157">
+        <v>-83.520745000000005</v>
+      </c>
+      <c r="G157">
+        <v>0.28000000000000003</v>
+      </c>
+      <c r="I157" t="s">
+        <v>93</v>
+      </c>
+      <c r="J157" t="s">
+        <v>198</v>
+      </c>
+      <c r="K157" t="s">
+        <v>96</v>
+      </c>
+      <c r="L157" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="158" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="C158" t="s">
         <v>193</v>
       </c>
-      <c r="D137" s="31" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="138" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="C138" t="s">
-        <v>81</v>
-      </c>
-      <c r="G138">
-        <v>9.44</v>
-      </c>
-      <c r="I138" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="139" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="C139" t="s">
-        <v>191</v>
-      </c>
-      <c r="G139">
-        <v>6.31</v>
-      </c>
-      <c r="I139" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="140" spans="2:11" s="12" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B140" s="10" t="s">
+      <c r="E158">
+        <v>35.175843</v>
+      </c>
+      <c r="F158">
+        <v>-83.554608999999999</v>
+      </c>
+      <c r="G158">
+        <v>0.35</v>
+      </c>
+      <c r="I158" t="s">
+        <v>93</v>
+      </c>
+      <c r="J158" t="s">
+        <v>198</v>
+      </c>
+      <c r="K158" t="s">
+        <v>96</v>
+      </c>
+      <c r="L158" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="159" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="C159" t="s">
+        <v>194</v>
+      </c>
+      <c r="E159">
+        <v>35.260796999999997</v>
+      </c>
+      <c r="F159">
+        <v>-83.544175999999993</v>
+      </c>
+      <c r="G159">
+        <v>1.6</v>
+      </c>
+      <c r="I159" t="s">
+        <v>93</v>
+      </c>
+      <c r="J159" t="s">
+        <v>198</v>
+      </c>
+      <c r="K159" t="s">
+        <v>96</v>
+      </c>
+      <c r="L159" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="160" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="C160" t="s">
         <v>195</v>
       </c>
-      <c r="D140" s="31" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="141" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="C141" t="s">
+      <c r="E160">
+        <v>35.278956999999998</v>
+      </c>
+      <c r="F160">
+        <v>-83.553663999999998</v>
+      </c>
+      <c r="G160">
+        <v>1.58</v>
+      </c>
+      <c r="I160" t="s">
+        <v>93</v>
+      </c>
+      <c r="J160" t="s">
+        <v>198</v>
+      </c>
+      <c r="K160" t="s">
+        <v>96</v>
+      </c>
+      <c r="L160" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="161" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="C161" t="s">
         <v>196</v>
       </c>
-      <c r="G141">
-        <v>2.2799999999999998</v>
-      </c>
-      <c r="I141" t="s">
-        <v>93</v>
-      </c>
-      <c r="J141" t="s">
-        <v>204</v>
-      </c>
-      <c r="K141" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="142" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="C142" t="s">
+      <c r="E161">
+        <v>35.268053000000002</v>
+      </c>
+      <c r="F161">
+        <v>-83.564177000000001</v>
+      </c>
+      <c r="G161">
+        <v>0.63</v>
+      </c>
+      <c r="I161" t="s">
+        <v>93</v>
+      </c>
+      <c r="J161" t="s">
+        <v>198</v>
+      </c>
+      <c r="K161" t="s">
+        <v>96</v>
+      </c>
+      <c r="L161" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="162" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="C162" t="s">
         <v>197</v>
       </c>
-      <c r="G142">
-        <v>3.43</v>
-      </c>
-      <c r="I142" t="s">
-        <v>93</v>
-      </c>
-      <c r="J142" t="s">
-        <v>204</v>
-      </c>
-      <c r="K142" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="143" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="C143" t="s">
+      <c r="E162">
+        <v>35.271836999999998</v>
+      </c>
+      <c r="F162">
+        <v>-83.567497000000003</v>
+      </c>
+      <c r="G162">
+        <v>0.42</v>
+      </c>
+      <c r="I162" t="s">
+        <v>93</v>
+      </c>
+      <c r="J162" t="s">
         <v>198</v>
       </c>
-      <c r="G143">
-        <v>0.28000000000000003</v>
-      </c>
-      <c r="I143" t="s">
-        <v>93</v>
-      </c>
-      <c r="J143" t="s">
-        <v>204</v>
-      </c>
-      <c r="K143" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="144" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="C144" t="s">
-        <v>199</v>
-      </c>
-      <c r="G144">
-        <v>0.35</v>
-      </c>
-      <c r="I144" t="s">
-        <v>93</v>
-      </c>
-      <c r="J144" t="s">
-        <v>204</v>
-      </c>
-      <c r="K144" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="145" spans="3:11" x14ac:dyDescent="0.2">
-      <c r="C145" t="s">
-        <v>200</v>
-      </c>
-      <c r="G145">
-        <v>1.6</v>
-      </c>
-      <c r="I145" t="s">
-        <v>93</v>
-      </c>
-      <c r="J145" t="s">
-        <v>204</v>
-      </c>
-      <c r="K145" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="146" spans="3:11" x14ac:dyDescent="0.2">
-      <c r="C146" t="s">
-        <v>201</v>
-      </c>
-      <c r="G146">
-        <v>1.58</v>
-      </c>
-      <c r="I146" t="s">
-        <v>93</v>
-      </c>
-      <c r="J146" t="s">
-        <v>204</v>
-      </c>
-      <c r="K146" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="147" spans="3:11" x14ac:dyDescent="0.2">
-      <c r="C147" t="s">
-        <v>202</v>
-      </c>
-      <c r="G147">
-        <v>0.63</v>
-      </c>
-      <c r="I147" t="s">
-        <v>93</v>
-      </c>
-      <c r="J147" t="s">
-        <v>204</v>
-      </c>
-      <c r="K147" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="148" spans="3:11" x14ac:dyDescent="0.2">
-      <c r="C148" t="s">
-        <v>203</v>
-      </c>
-      <c r="G148">
-        <v>0.42</v>
-      </c>
-      <c r="I148" t="s">
-        <v>93</v>
-      </c>
-      <c r="J148" t="s">
-        <v>204</v>
-      </c>
-      <c r="K148" t="s">
-        <v>96</v>
+      <c r="K162" t="s">
+        <v>96</v>
+      </c>
+      <c r="L162" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="163" spans="2:12" s="12" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B163" s="10" t="s">
+        <v>220</v>
+      </c>
+      <c r="D163" s="17" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="164" spans="2:12" s="30" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B164" s="31"/>
+      <c r="C164" t="s">
+        <v>222</v>
+      </c>
+      <c r="D164" s="32"/>
+      <c r="E164">
+        <v>35.875900000000001</v>
+      </c>
+      <c r="F164">
+        <v>-106.5125</v>
+      </c>
+      <c r="G164">
+        <v>2.4209999999999998</v>
+      </c>
+      <c r="I164" s="30" t="s">
+        <v>93</v>
+      </c>
+      <c r="J164" s="30" t="s">
+        <v>225</v>
+      </c>
+      <c r="K164" s="30" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="165" spans="2:12" s="30" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="C165" t="s">
+        <v>223</v>
+      </c>
+      <c r="E165">
+        <v>35.866700000000002</v>
+      </c>
+      <c r="F165">
+        <v>-106.5215</v>
+      </c>
+      <c r="G165">
+        <v>3.6720000000000002</v>
+      </c>
+      <c r="I165" s="30" t="s">
+        <v>93</v>
+      </c>
+      <c r="J165" s="30" t="s">
+        <v>225</v>
+      </c>
+      <c r="K165" s="30" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="166" spans="2:12" s="30" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B166" s="31"/>
+      <c r="C166" t="s">
+        <v>224</v>
+      </c>
+      <c r="D166" s="32"/>
+      <c r="E166">
+        <v>35.909199999999998</v>
+      </c>
+      <c r="F166">
+        <v>-106.5304</v>
+      </c>
+      <c r="G166">
+        <v>3.0550000000000002</v>
+      </c>
+      <c r="I166" s="30" t="s">
+        <v>93</v>
+      </c>
+      <c r="J166" s="30" t="s">
+        <v>225</v>
+      </c>
+      <c r="K166" s="30" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="167" spans="2:12" s="12" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B167" s="10" t="s">
+        <v>226</v>
+      </c>
+      <c r="D167" s="11" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="168" spans="2:12" s="12" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B168" s="10" t="s">
+        <v>228</v>
+      </c>
+      <c r="D168" s="11" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="169" spans="2:12" s="12" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B169" s="10" t="s">
+        <v>230</v>
+      </c>
+      <c r="D169" s="11" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="170" spans="2:12" s="12" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B170" s="10" t="s">
+        <v>232</v>
+      </c>
+      <c r="D170" s="11" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="171" spans="2:12" s="12" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B171" s="10" t="s">
+        <v>234</v>
+      </c>
+      <c r="D171" s="11" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="172" spans="2:12" s="12" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B172" s="10" t="s">
+        <v>236</v>
+      </c>
+      <c r="D172" s="11" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="173" spans="2:12" s="12" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B173" s="10" t="s">
+        <v>237</v>
+      </c>
+      <c r="D173" s="11" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="174" spans="2:12" s="12" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B174" s="10" t="s">
+        <v>240</v>
+      </c>
+      <c r="D174" s="13" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="175" spans="2:12" s="27" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B175" s="28" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="176" spans="2:12" s="12" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B176" s="10" t="s">
+        <v>229</v>
+      </c>
+      <c r="D176" s="11" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="177" spans="2:4" s="12" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B177" s="10" t="s">
+        <v>238</v>
+      </c>
+      <c r="D177" s="11" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="178" spans="2:4" s="12" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B178" s="10" t="s">
+        <v>239</v>
+      </c>
+      <c r="D178" s="11" t="s">
+        <v>105</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="16" type="noConversion"/>
   <conditionalFormatting sqref="C84:C127">
     <cfRule type="duplicateValues" dxfId="0" priority="1"/>
   </conditionalFormatting>
@@ -4023,877 +4827,10 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A1F70F01-B0DC-C845-8599-5B62D652F3A7}">
-  <dimension ref="A1:I46"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E55" sqref="E55"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" width="21" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
-        <v>117</v>
-      </c>
-      <c r="B1" t="s">
-        <v>118</v>
-      </c>
-      <c r="C1" t="s">
-        <v>119</v>
-      </c>
-      <c r="G1" s="7" t="s">
-        <v>35</v>
-      </c>
-      <c r="H1" s="7">
-        <v>40.133513999999998</v>
-      </c>
-      <c r="I1" s="7">
-        <v>-111.771241</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
-        <v>56</v>
-      </c>
-      <c r="B2">
-        <v>48.814951999999998</v>
-      </c>
-      <c r="C2">
-        <v>-113.983313</v>
-      </c>
-      <c r="G2" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="H2" s="7">
-        <v>40.180647</v>
-      </c>
-      <c r="I2" s="7">
-        <v>-111.67166400000001</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
-        <v>58</v>
-      </c>
-      <c r="B3">
-        <v>48.936976000000001</v>
-      </c>
-      <c r="C3">
-        <v>-114.079685</v>
-      </c>
-      <c r="G3" t="s">
-        <v>37</v>
-      </c>
-      <c r="H3">
-        <v>40.191034999999999</v>
-      </c>
-      <c r="I3">
-        <v>-111.65993899999999</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
-        <v>59</v>
-      </c>
-      <c r="B4">
-        <v>48.866349</v>
-      </c>
-      <c r="C4">
-        <v>-114.02640599999999</v>
-      </c>
-      <c r="G4" t="s">
-        <v>38</v>
-      </c>
-      <c r="H4">
-        <v>40.158754000000002</v>
-      </c>
-      <c r="I4">
-        <v>-111.59730999999999</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
-        <v>60</v>
-      </c>
-      <c r="B5">
-        <v>38.883760000000002</v>
-      </c>
-      <c r="C5">
-        <v>-119.978005</v>
-      </c>
-      <c r="G5" t="s">
-        <v>39</v>
-      </c>
-      <c r="H5">
-        <v>40.200989</v>
-      </c>
-      <c r="I5">
-        <v>-111.659265</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A6" t="s">
-        <v>87</v>
-      </c>
-      <c r="B6">
-        <v>38.898688999999997</v>
-      </c>
-      <c r="C6">
-        <v>-119.948785</v>
-      </c>
-      <c r="G6" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="H6">
-        <v>40.192393000000003</v>
-      </c>
-      <c r="I6">
-        <v>-111.652799</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A7" t="s">
-        <v>61</v>
-      </c>
-      <c r="B7">
-        <v>38.958700999999998</v>
-      </c>
-      <c r="C7">
-        <v>-120.920501</v>
-      </c>
-      <c r="G7" s="7" t="s">
-        <v>41</v>
-      </c>
-      <c r="H7" s="7">
-        <v>39.987803999999997</v>
-      </c>
-      <c r="I7" s="7">
-        <v>-111.72989099999999</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A8" t="s">
-        <v>62</v>
-      </c>
-      <c r="B8">
-        <v>39.000053000000001</v>
-      </c>
-      <c r="C8">
-        <v>-120.93990700000001</v>
-      </c>
-      <c r="G8" s="26" t="s">
-        <v>42</v>
-      </c>
-      <c r="H8" s="27">
-        <v>40.234889000000003</v>
-      </c>
-      <c r="I8" s="27">
-        <v>-111.724869</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A9" t="s">
-        <v>63</v>
-      </c>
-      <c r="B9">
-        <v>39.906348000000001</v>
-      </c>
-      <c r="C9">
-        <v>-105.37748499999999</v>
-      </c>
-      <c r="G9" t="s">
-        <v>43</v>
-      </c>
-      <c r="H9">
-        <v>40.071703999999997</v>
-      </c>
-      <c r="I9">
-        <v>-111.57715</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A10" t="s">
-        <v>64</v>
-      </c>
-      <c r="B10">
-        <v>48.422220000000003</v>
-      </c>
-      <c r="C10">
-        <v>-113.70055549999999</v>
-      </c>
-      <c r="G10" s="27" t="s">
-        <v>44</v>
-      </c>
-      <c r="H10" s="27">
-        <v>40.071703999999997</v>
-      </c>
-      <c r="I10" s="27">
-        <v>-111.57715</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A11" t="s">
-        <v>65</v>
-      </c>
-      <c r="B11">
-        <v>48.54888888</v>
-      </c>
-      <c r="C11">
-        <v>-113.9858333</v>
-      </c>
-      <c r="G11" s="4" t="s">
-        <v>47</v>
-      </c>
-      <c r="H11">
-        <v>44.515999999999998</v>
-      </c>
-      <c r="I11">
-        <v>-110.05</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A12" t="s">
-        <v>66</v>
-      </c>
-      <c r="B12">
-        <v>48.635277780000003</v>
-      </c>
-      <c r="C12">
-        <v>-113.86694439999999</v>
-      </c>
-      <c r="G12" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="H12">
-        <v>44.555</v>
-      </c>
-      <c r="I12">
-        <v>-110.069</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A13" t="s">
-        <v>67</v>
-      </c>
-      <c r="B13">
-        <v>48.635277780000003</v>
-      </c>
-      <c r="C13">
-        <v>-113.86694439999999</v>
-      </c>
-      <c r="G13" t="s">
-        <v>52</v>
-      </c>
-      <c r="H13">
-        <v>48.81409</v>
-      </c>
-      <c r="I13">
-        <v>-114.39971</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A14" t="s">
-        <v>68</v>
-      </c>
-      <c r="B14" s="5">
-        <v>40.039045999999999</v>
-      </c>
-      <c r="C14" s="8">
-        <v>-105.393878</v>
-      </c>
-      <c r="G14" t="s">
-        <v>53</v>
-      </c>
-      <c r="H14">
-        <v>48.793787000000002</v>
-      </c>
-      <c r="I14">
-        <v>-114.49179100000001</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A15" t="s">
-        <v>69</v>
-      </c>
-      <c r="B15" s="5">
-        <v>40.041668000000001</v>
-      </c>
-      <c r="C15" s="8">
-        <v>-105.364823</v>
-      </c>
-      <c r="G15" t="s">
-        <v>54</v>
-      </c>
-      <c r="H15">
-        <v>48.802771999999997</v>
-      </c>
-      <c r="I15">
-        <v>-114.32894</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A16" t="s">
-        <v>70</v>
-      </c>
-      <c r="B16" s="5">
-        <v>40.015500000000003</v>
-      </c>
-      <c r="C16" s="8">
-        <v>-105.324566</v>
-      </c>
-      <c r="G16" t="s">
-        <v>55</v>
-      </c>
-      <c r="H16">
-        <v>48.688412999999997</v>
-      </c>
-      <c r="I16">
-        <v>-114.19973899999999</v>
-      </c>
-    </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A17" t="s">
-        <v>71</v>
-      </c>
-      <c r="B17" s="5">
-        <v>40.036102999999997</v>
-      </c>
-      <c r="C17" s="8">
-        <v>-105.43910099999999</v>
-      </c>
-      <c r="G17" t="s">
-        <v>57</v>
-      </c>
-      <c r="H17">
-        <v>48.902925000000003</v>
-      </c>
-      <c r="I17">
-        <v>-114.183566</v>
-      </c>
-    </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A18" t="s">
-        <v>72</v>
-      </c>
-      <c r="B18">
-        <v>40.037790999999999</v>
-      </c>
-      <c r="C18" s="9">
-        <v>-105.42124699999999</v>
-      </c>
-      <c r="G18" t="s">
-        <v>56</v>
-      </c>
-      <c r="H18">
-        <v>48.814951999999998</v>
-      </c>
-      <c r="I18">
-        <v>-113.983313</v>
-      </c>
-    </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A19" t="s">
-        <v>68</v>
-      </c>
-      <c r="B19" s="5">
-        <v>40.039045999999999</v>
-      </c>
-      <c r="C19" s="8">
-        <v>-105.393878</v>
-      </c>
-      <c r="G19" t="s">
-        <v>58</v>
-      </c>
-      <c r="H19">
-        <v>48.936976000000001</v>
-      </c>
-      <c r="I19">
-        <v>-114.079685</v>
-      </c>
-    </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A20" t="s">
-        <v>69</v>
-      </c>
-      <c r="B20" s="5">
-        <v>40.041668000000001</v>
-      </c>
-      <c r="C20" s="8">
-        <v>-105.364823</v>
-      </c>
-      <c r="G20" t="s">
-        <v>59</v>
-      </c>
-      <c r="H20">
-        <v>48.866349</v>
-      </c>
-      <c r="I20">
-        <v>-114.02640599999999</v>
-      </c>
-    </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A21" t="s">
-        <v>70</v>
-      </c>
-      <c r="B21" s="5">
-        <v>40.015500000000003</v>
-      </c>
-      <c r="C21" s="8">
-        <v>-105.324566</v>
-      </c>
-      <c r="G21" t="s">
-        <v>60</v>
-      </c>
-      <c r="H21">
-        <v>38.883760000000002</v>
-      </c>
-      <c r="I21">
-        <v>-119.978005</v>
-      </c>
-    </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A22" t="s">
-        <v>71</v>
-      </c>
-      <c r="B22" s="5">
-        <v>40.036102999999997</v>
-      </c>
-      <c r="C22" s="8">
-        <v>-105.43910099999999</v>
-      </c>
-      <c r="G22" t="s">
-        <v>87</v>
-      </c>
-      <c r="H22">
-        <v>38.898688999999997</v>
-      </c>
-      <c r="I22">
-        <v>-119.948785</v>
-      </c>
-    </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A23" s="4" t="s">
-        <v>74</v>
-      </c>
-      <c r="B23">
-        <v>34.937945999999997</v>
-      </c>
-      <c r="C23">
-        <v>-83.093596000000005</v>
-      </c>
-      <c r="G23" t="s">
-        <v>61</v>
-      </c>
-      <c r="H23">
-        <v>38.958700999999998</v>
-      </c>
-      <c r="I23">
-        <v>-120.920501</v>
-      </c>
-    </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A24" t="s">
-        <v>73</v>
-      </c>
-      <c r="B24">
-        <v>34.920959000000003</v>
-      </c>
-      <c r="C24">
-        <v>-83.092200000000005</v>
-      </c>
-      <c r="G24" t="s">
-        <v>62</v>
-      </c>
-      <c r="H24">
-        <v>39.000053000000001</v>
-      </c>
-      <c r="I24">
-        <v>-120.93990700000001</v>
-      </c>
-    </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A25" s="4" t="s">
-        <v>78</v>
-      </c>
-      <c r="B25">
-        <v>38.868000000000002</v>
-      </c>
-      <c r="C25">
-        <v>-120.062</v>
-      </c>
-      <c r="G25" t="s">
-        <v>63</v>
-      </c>
-      <c r="H25">
-        <v>39.906348000000001</v>
-      </c>
-      <c r="I25">
-        <v>-105.37748499999999</v>
-      </c>
-    </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A26" s="4" t="s">
-        <v>75</v>
-      </c>
-      <c r="B26">
-        <v>38.880000000000003</v>
-      </c>
-      <c r="C26">
-        <v>-120.041</v>
-      </c>
-      <c r="G26" t="s">
-        <v>64</v>
-      </c>
-      <c r="H26">
-        <v>48.422220000000003</v>
-      </c>
-      <c r="I26">
-        <v>-113.70055549999999</v>
-      </c>
-    </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A27" s="4" t="s">
-        <v>76</v>
-      </c>
-      <c r="B27">
-        <v>38.878999999999998</v>
-      </c>
-      <c r="C27">
-        <v>-120.03</v>
-      </c>
-      <c r="G27" t="s">
-        <v>65</v>
-      </c>
-      <c r="H27">
-        <v>48.54888888</v>
-      </c>
-      <c r="I27">
-        <v>-113.9858333</v>
-      </c>
-    </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A28" s="4" t="s">
-        <v>77</v>
-      </c>
-      <c r="B28">
-        <v>38.872999999999998</v>
-      </c>
-      <c r="C28">
-        <v>-120.01300000000001</v>
-      </c>
-      <c r="G28" t="s">
-        <v>66</v>
-      </c>
-      <c r="H28">
-        <v>48.635277780000003</v>
-      </c>
-      <c r="I28">
-        <v>-113.86694439999999</v>
-      </c>
-    </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A29" t="s">
-        <v>79</v>
-      </c>
-      <c r="B29" s="6"/>
-      <c r="C29" s="6"/>
-      <c r="G29" t="s">
-        <v>67</v>
-      </c>
-      <c r="H29">
-        <v>48.635277780000003</v>
-      </c>
-      <c r="I29">
-        <v>-113.86694439999999</v>
-      </c>
-    </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A30" t="s">
-        <v>80</v>
-      </c>
-      <c r="B30" s="6"/>
-      <c r="C30" s="6"/>
-      <c r="G30" t="s">
-        <v>68</v>
-      </c>
-      <c r="H30" s="5">
-        <v>40.039045999999999</v>
-      </c>
-      <c r="I30" s="8">
-        <v>-105.393878</v>
-      </c>
-    </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A31" t="s">
-        <v>81</v>
-      </c>
-      <c r="B31">
-        <v>38.451371999999999</v>
-      </c>
-      <c r="C31">
-        <v>122.056381</v>
-      </c>
-      <c r="G31" t="s">
-        <v>69</v>
-      </c>
-      <c r="H31" s="5">
-        <v>40.041668000000001</v>
-      </c>
-      <c r="I31" s="8">
-        <v>-105.364823</v>
-      </c>
-    </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A32" s="4" t="s">
-        <v>82</v>
-      </c>
-      <c r="B32" s="6">
-        <v>38.923563999999999</v>
-      </c>
-      <c r="C32" s="6">
-        <v>122.32647799999999</v>
-      </c>
-      <c r="G32" t="s">
-        <v>70</v>
-      </c>
-      <c r="H32" s="5">
-        <v>40.015500000000003</v>
-      </c>
-      <c r="I32" s="8">
-        <v>-105.324566</v>
-      </c>
-    </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A33" s="4" t="s">
-        <v>83</v>
-      </c>
-      <c r="B33">
-        <v>38.512031</v>
-      </c>
-      <c r="C33">
-        <v>122.097228</v>
-      </c>
-      <c r="G33" t="s">
-        <v>71</v>
-      </c>
-      <c r="H33" s="5">
-        <v>40.036102999999997</v>
-      </c>
-      <c r="I33" s="8">
-        <v>-105.43910099999999</v>
-      </c>
-    </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A34" s="4" t="s">
-        <v>84</v>
-      </c>
-      <c r="B34">
-        <v>40.728676</v>
-      </c>
-      <c r="C34">
-        <v>-105.844109</v>
-      </c>
-      <c r="G34" t="s">
-        <v>72</v>
-      </c>
-      <c r="H34">
-        <v>40.037790999999999</v>
-      </c>
-      <c r="I34" s="9">
-        <v>-105.42124699999999</v>
-      </c>
-    </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A35" s="4" t="s">
-        <v>85</v>
-      </c>
-      <c r="B35">
-        <v>40.709603999999999</v>
-      </c>
-      <c r="C35">
-        <v>-105.233305</v>
-      </c>
-      <c r="G35" s="4" t="s">
-        <v>74</v>
-      </c>
-      <c r="H35">
-        <v>34.937945999999997</v>
-      </c>
-      <c r="I35">
-        <v>-83.093596000000005</v>
-      </c>
-    </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A36" s="4" t="s">
-        <v>86</v>
-      </c>
-      <c r="B36">
-        <v>40.701225999999998</v>
-      </c>
-      <c r="C36">
-        <v>-105.757445</v>
-      </c>
-      <c r="G36" t="s">
-        <v>73</v>
-      </c>
-      <c r="H36">
-        <v>34.920959000000003</v>
-      </c>
-      <c r="I36">
-        <v>-83.092200000000005</v>
-      </c>
-    </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A37" s="4" t="s">
-        <v>84</v>
-      </c>
-      <c r="B37">
-        <v>40.728676</v>
-      </c>
-      <c r="C37">
-        <v>-105.844109</v>
-      </c>
-      <c r="G37" s="4" t="s">
-        <v>78</v>
-      </c>
-      <c r="H37">
-        <v>38.868000000000002</v>
-      </c>
-      <c r="I37">
-        <v>-120.062</v>
-      </c>
-    </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A38" s="4" t="s">
-        <v>86</v>
-      </c>
-      <c r="B38">
-        <v>40.709603999999999</v>
-      </c>
-      <c r="C38">
-        <v>-105.233305</v>
-      </c>
-      <c r="G38" s="4" t="s">
-        <v>75</v>
-      </c>
-      <c r="H38">
-        <v>38.880000000000003</v>
-      </c>
-      <c r="I38">
-        <v>-120.041</v>
-      </c>
-    </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A39" s="4" t="s">
-        <v>85</v>
-      </c>
-      <c r="B39">
-        <v>40.701225999999998</v>
-      </c>
-      <c r="C39">
-        <v>-105.757445</v>
-      </c>
-      <c r="G39" s="4" t="s">
-        <v>76</v>
-      </c>
-      <c r="H39">
-        <v>38.878999999999998</v>
-      </c>
-      <c r="I39">
-        <v>-120.03</v>
-      </c>
-    </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="G40" s="4" t="s">
-        <v>77</v>
-      </c>
-      <c r="H40">
-        <v>38.872999999999998</v>
-      </c>
-      <c r="I40">
-        <v>-120.01300000000001</v>
-      </c>
-    </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="G41" t="s">
-        <v>81</v>
-      </c>
-      <c r="H41">
-        <v>38.451371999999999</v>
-      </c>
-      <c r="I41">
-        <v>-122.056381</v>
-      </c>
-    </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="G42" s="4" t="s">
-        <v>82</v>
-      </c>
-      <c r="H42" s="6">
-        <v>38.923563999999999</v>
-      </c>
-      <c r="I42" s="6">
-        <v>-122.32647799999999</v>
-      </c>
-    </row>
-    <row r="43" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="G43" s="4" t="s">
-        <v>83</v>
-      </c>
-      <c r="H43">
-        <v>38.512031</v>
-      </c>
-      <c r="I43">
-        <v>-122.097228</v>
-      </c>
-    </row>
-    <row r="44" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="G44" s="4" t="s">
-        <v>84</v>
-      </c>
-      <c r="H44">
-        <v>40.728676</v>
-      </c>
-      <c r="I44">
-        <v>-105.844109</v>
-      </c>
-    </row>
-    <row r="45" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="G45" s="4" t="s">
-        <v>85</v>
-      </c>
-      <c r="H45">
-        <v>40.709603999999999</v>
-      </c>
-      <c r="I45">
-        <v>-105.233305</v>
-      </c>
-    </row>
-    <row r="46" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="G46" s="4" t="s">
-        <v>86</v>
-      </c>
-      <c r="H46">
-        <v>40.701225999999998</v>
-      </c>
-      <c r="I46">
-        <v>-105.757445</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C17DF85F-2C1F-F649-BAF1-80C86400E080}">
   <dimension ref="A1:L71"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A14" sqref="A14"/>
     </sheetView>
   </sheetViews>

--- a/FireMeta_Rproj/inputs/Studies_Summary/Fire_name_Lat_Long.xlsx
+++ b/FireMeta_Rproj/inputs/Studies_Summary/Fire_name_Lat_Long.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/cava304/GitHub/rc_sfa-rc-3-wenas-meta/FireMeta_Rproj/inputs/Studies_Summary/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0727CC39-C012-5444-B327-0FEB1B79F189}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ADBE0E33-C90E-744E-A7F6-97A777AC5850}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="49640" yWindow="0" windowWidth="19000" windowHeight="24000" xr2:uid="{8C258C6F-044A-E849-9C14-F26FA5F5AA92}"/>
+    <workbookView xWindow="30240" yWindow="0" windowWidth="38400" windowHeight="24000" xr2:uid="{8C258C6F-044A-E849-9C14-F26FA5F5AA92}"/>
   </bookViews>
   <sheets>
     <sheet name="Temporal Normalization Studies" sheetId="1" r:id="rId1"/>
@@ -447,9 +447,6 @@
   </si>
   <si>
     <t>Y_not quite the same watershed, and the sus points doesn’t get the exact one correctly</t>
-  </si>
-  <si>
-    <t>Y_pretty far off, looks like it is a subset of the Benjamin slough COMID</t>
   </si>
   <si>
     <t>Y_pretty far off, the sus points doesn’t get the correct watershed</t>
@@ -836,6 +833,9 @@
   </si>
   <si>
     <t>Writer &amp; Murphy, 2012</t>
+  </si>
+  <si>
+    <t>Y_pretty far off, looks like it is a subset of the Benjamin slough COMID, Had to change the comid and now we are good</t>
   </si>
 </sst>
 </file>
@@ -995,7 +995,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="33">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -1026,9 +1026,7 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="15" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="12" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1373,8 +1371,8 @@
   <dimension ref="A1:L178"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A140" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C178" sqref="C178"/>
+      <pane ySplit="1" topLeftCell="A28" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="L19" sqref="L19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1733,7 +1731,7 @@
         <v>98</v>
       </c>
       <c r="L13" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.2">
@@ -1853,7 +1851,7 @@
         <v>98</v>
       </c>
       <c r="L17" t="s">
-        <v>129</v>
+        <v>240</v>
       </c>
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.2">
@@ -1913,7 +1911,7 @@
         <v>98</v>
       </c>
       <c r="L19" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="20" spans="1:12" x14ac:dyDescent="0.2">
@@ -2516,7 +2514,7 @@
       </c>
       <c r="C42" s="10"/>
       <c r="D42" s="11" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="E42" s="15"/>
       <c r="F42" s="15"/>
@@ -3484,7 +3482,7 @@
       </c>
       <c r="C78" s="10"/>
       <c r="D78" s="12" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
     </row>
     <row r="79" spans="1:12" x14ac:dyDescent="0.2">
@@ -3576,240 +3574,240 @@
     </row>
     <row r="82" spans="2:12" s="27" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B82" s="28" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
     </row>
     <row r="83" spans="2:12" s="12" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B83" s="10" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="D83" s="29" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
     </row>
     <row r="84" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C84" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="85" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C85" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="86" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C86" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="87" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C87" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="88" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C88" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="89" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C89" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="90" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C90" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="91" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C91" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="92" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C92" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="93" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C93" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="94" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C94" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="95" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C95" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="96" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C96" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="97" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C97" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="98" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C98" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
     <row r="99" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C99" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="100" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C100" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="101" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C101" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
     </row>
     <row r="102" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C102" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="103" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C103" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="104" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C104" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="105" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C105" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="106" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C106" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="107" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C107" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="108" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C108" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="109" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C109" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="110" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C110" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="111" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C111" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="112" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C112" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="113" spans="2:4" x14ac:dyDescent="0.2">
       <c r="C113" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="114" spans="2:4" x14ac:dyDescent="0.2">
       <c r="C114" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="115" spans="2:4" x14ac:dyDescent="0.2">
       <c r="C115" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="116" spans="2:4" x14ac:dyDescent="0.2">
       <c r="C116" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="117" spans="2:4" x14ac:dyDescent="0.2">
       <c r="C117" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="118" spans="2:4" x14ac:dyDescent="0.2">
       <c r="C118" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="119" spans="2:4" x14ac:dyDescent="0.2">
       <c r="C119" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="120" spans="2:4" x14ac:dyDescent="0.2">
       <c r="C120" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="121" spans="2:4" x14ac:dyDescent="0.2">
       <c r="C121" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="122" spans="2:4" x14ac:dyDescent="0.2">
       <c r="C122" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="123" spans="2:4" x14ac:dyDescent="0.2">
       <c r="C123" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
     </row>
     <row r="124" spans="2:4" x14ac:dyDescent="0.2">
       <c r="C124" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
     </row>
     <row r="125" spans="2:4" x14ac:dyDescent="0.2">
       <c r="C125" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
     </row>
     <row r="126" spans="2:4" x14ac:dyDescent="0.2">
       <c r="C126" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
     </row>
     <row r="127" spans="2:4" x14ac:dyDescent="0.2">
       <c r="C127" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
     </row>
     <row r="128" spans="2:4" s="12" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B128" s="10" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="D128" s="29" t="s">
         <v>104</v>
@@ -3817,7 +3815,7 @@
     </row>
     <row r="129" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C129" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="E129">
         <v>65.156433000000007</v>
@@ -3841,12 +3839,12 @@
         <v>96</v>
       </c>
       <c r="L129" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
     </row>
     <row r="130" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C130" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="E130">
         <v>65.159576999999999</v>
@@ -3870,12 +3868,12 @@
         <v>96</v>
       </c>
       <c r="L130" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
     </row>
     <row r="131" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C131" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="E131">
         <v>65.158680000000004</v>
@@ -3899,12 +3897,12 @@
         <v>96</v>
       </c>
       <c r="L131" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
     </row>
     <row r="132" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C132" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="E132">
         <v>65.180338000000006</v>
@@ -3928,15 +3926,15 @@
         <v>96</v>
       </c>
       <c r="L132" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
     </row>
     <row r="133" spans="2:12" s="12" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B133" s="10" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="D133" s="29" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
     </row>
     <row r="134" spans="2:12" x14ac:dyDescent="0.2">
@@ -3967,7 +3965,7 @@
     </row>
     <row r="135" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C135" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="E135">
         <v>34.482937999999997</v>
@@ -3993,7 +3991,7 @@
     </row>
     <row r="136" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C136" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="E136">
         <v>34.506217999999997</v>
@@ -4019,7 +4017,7 @@
     </row>
     <row r="137" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C137" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="E137">
         <v>34.458570999999999</v>
@@ -4045,7 +4043,7 @@
     </row>
     <row r="138" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C138" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="E138">
         <v>34.492925</v>
@@ -4097,7 +4095,7 @@
     </row>
     <row r="140" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C140" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="E140">
         <v>34.452924000000003</v>
@@ -4123,7 +4121,7 @@
     </row>
     <row r="141" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C141" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="E141">
         <v>34.456563000000003</v>
@@ -4149,7 +4147,7 @@
     </row>
     <row r="142" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C142" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="E142">
         <v>34.443747000000002</v>
@@ -4175,7 +4173,7 @@
     </row>
     <row r="143" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C143" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="E143">
         <v>34.464474000000003</v>
@@ -4201,7 +4199,7 @@
     </row>
     <row r="144" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C144" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="E144">
         <v>34.470762999999998</v>
@@ -4227,7 +4225,7 @@
     </row>
     <row r="145" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C145" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="E145">
         <v>34.465553</v>
@@ -4253,7 +4251,7 @@
     </row>
     <row r="146" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C146" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="E146">
         <v>34.460483000000004</v>
@@ -4279,7 +4277,7 @@
     </row>
     <row r="147" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C147" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="E147">
         <v>34.467247999999998</v>
@@ -4305,15 +4303,15 @@
     </row>
     <row r="148" spans="2:12" s="12" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B148" s="10" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="D148" s="29" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
     </row>
     <row r="149" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C149" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="G149">
         <v>10.59</v>
@@ -4336,7 +4334,7 @@
     </row>
     <row r="150" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C150" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="G150">
         <v>8.2899999999999991</v>
@@ -4359,7 +4357,7 @@
     </row>
     <row r="151" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C151" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="G151">
         <v>3.59</v>
@@ -4382,7 +4380,7 @@
     </row>
     <row r="152" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C152" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="G152">
         <v>8.2100000000000009</v>
@@ -4405,7 +4403,7 @@
     </row>
     <row r="153" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C153" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="G153">
         <v>7.13</v>
@@ -4428,7 +4426,7 @@
     </row>
     <row r="154" spans="2:12" s="12" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B154" s="10" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="D154" s="29" t="s">
         <v>113</v>
@@ -4436,7 +4434,7 @@
     </row>
     <row r="155" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C155" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="E155">
         <v>35.173952</v>
@@ -4451,18 +4449,18 @@
         <v>93</v>
       </c>
       <c r="J155" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="K155" t="s">
         <v>96</v>
       </c>
       <c r="L155" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
     </row>
     <row r="156" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C156" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="E156">
         <v>35.167361999999997</v>
@@ -4477,18 +4475,18 @@
         <v>93</v>
       </c>
       <c r="J156" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="K156" t="s">
         <v>96</v>
       </c>
       <c r="L156" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
     </row>
     <row r="157" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C157" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="E157">
         <v>35.183095999999999</v>
@@ -4503,18 +4501,18 @@
         <v>93</v>
       </c>
       <c r="J157" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="K157" t="s">
         <v>96</v>
       </c>
       <c r="L157" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
     </row>
     <row r="158" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C158" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="E158">
         <v>35.175843</v>
@@ -4529,18 +4527,18 @@
         <v>93</v>
       </c>
       <c r="J158" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="K158" t="s">
         <v>96</v>
       </c>
       <c r="L158" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
     </row>
     <row r="159" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C159" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="E159">
         <v>35.260796999999997</v>
@@ -4555,18 +4553,18 @@
         <v>93</v>
       </c>
       <c r="J159" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="K159" t="s">
         <v>96</v>
       </c>
       <c r="L159" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
     </row>
     <row r="160" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C160" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="E160">
         <v>35.278956999999998</v>
@@ -4581,18 +4579,18 @@
         <v>93</v>
       </c>
       <c r="J160" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="K160" t="s">
         <v>96</v>
       </c>
       <c r="L160" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
     </row>
     <row r="161" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C161" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="E161">
         <v>35.268053000000002</v>
@@ -4607,18 +4605,18 @@
         <v>93</v>
       </c>
       <c r="J161" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="K161" t="s">
         <v>96</v>
       </c>
       <c r="L161" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
     </row>
     <row r="162" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C162" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="E162">
         <v>35.271836999999998</v>
@@ -4633,29 +4631,29 @@
         <v>93</v>
       </c>
       <c r="J162" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="K162" t="s">
         <v>96</v>
       </c>
       <c r="L162" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
     </row>
     <row r="163" spans="2:12" s="12" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B163" s="10" t="s">
+        <v>219</v>
+      </c>
+      <c r="D163" s="17" t="s">
         <v>220</v>
       </c>
-      <c r="D163" s="17" t="s">
+    </row>
+    <row r="164" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B164" s="4"/>
+      <c r="C164" t="s">
         <v>221</v>
       </c>
-    </row>
-    <row r="164" spans="2:12" s="30" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B164" s="31"/>
-      <c r="C164" t="s">
-        <v>222</v>
-      </c>
-      <c r="D164" s="32"/>
+      <c r="D164" s="30"/>
       <c r="E164">
         <v>35.875900000000001</v>
       </c>
@@ -4665,19 +4663,19 @@
       <c r="G164">
         <v>2.4209999999999998</v>
       </c>
-      <c r="I164" s="30" t="s">
-        <v>93</v>
-      </c>
-      <c r="J164" s="30" t="s">
-        <v>225</v>
-      </c>
-      <c r="K164" s="30" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="165" spans="2:12" s="30" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="I164" t="s">
+        <v>93</v>
+      </c>
+      <c r="J164" t="s">
+        <v>224</v>
+      </c>
+      <c r="K164" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="165" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C165" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="E165">
         <v>35.866700000000002</v>
@@ -4688,22 +4686,22 @@
       <c r="G165">
         <v>3.6720000000000002</v>
       </c>
-      <c r="I165" s="30" t="s">
-        <v>93</v>
-      </c>
-      <c r="J165" s="30" t="s">
-        <v>225</v>
-      </c>
-      <c r="K165" s="30" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="166" spans="2:12" s="30" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B166" s="31"/>
+      <c r="I165" t="s">
+        <v>93</v>
+      </c>
+      <c r="J165" t="s">
+        <v>224</v>
+      </c>
+      <c r="K165" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="166" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B166" s="4"/>
       <c r="C166" t="s">
-        <v>224</v>
-      </c>
-      <c r="D166" s="32"/>
+        <v>223</v>
+      </c>
+      <c r="D166" s="30"/>
       <c r="E166">
         <v>35.909199999999998</v>
       </c>
@@ -4713,75 +4711,75 @@
       <c r="G166">
         <v>3.0550000000000002</v>
       </c>
-      <c r="I166" s="30" t="s">
-        <v>93</v>
-      </c>
-      <c r="J166" s="30" t="s">
-        <v>225</v>
-      </c>
-      <c r="K166" s="30" t="s">
+      <c r="I166" t="s">
+        <v>93</v>
+      </c>
+      <c r="J166" t="s">
+        <v>224</v>
+      </c>
+      <c r="K166" t="s">
         <v>93</v>
       </c>
     </row>
     <row r="167" spans="2:12" s="12" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B167" s="10" t="s">
+        <v>225</v>
+      </c>
+      <c r="D167" s="11" t="s">
         <v>226</v>
-      </c>
-      <c r="D167" s="11" t="s">
-        <v>227</v>
       </c>
     </row>
     <row r="168" spans="2:12" s="12" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B168" s="10" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="D168" s="11" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
     </row>
     <row r="169" spans="2:12" s="12" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B169" s="10" t="s">
+        <v>229</v>
+      </c>
+      <c r="D169" s="11" t="s">
         <v>230</v>
-      </c>
-      <c r="D169" s="11" t="s">
-        <v>231</v>
       </c>
     </row>
     <row r="170" spans="2:12" s="12" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B170" s="10" t="s">
+        <v>231</v>
+      </c>
+      <c r="D170" s="11" t="s">
         <v>232</v>
-      </c>
-      <c r="D170" s="11" t="s">
-        <v>233</v>
       </c>
     </row>
     <row r="171" spans="2:12" s="12" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B171" s="10" t="s">
+        <v>233</v>
+      </c>
+      <c r="D171" s="11" t="s">
         <v>234</v>
-      </c>
-      <c r="D171" s="11" t="s">
-        <v>235</v>
       </c>
     </row>
     <row r="172" spans="2:12" s="12" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B172" s="10" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="D172" s="11" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
     </row>
     <row r="173" spans="2:12" s="12" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B173" s="10" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="D173" s="11" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
     </row>
     <row r="174" spans="2:12" s="12" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B174" s="10" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="D174" s="13" t="s">
         <v>18</v>
@@ -4789,12 +4787,12 @@
     </row>
     <row r="175" spans="2:12" s="27" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B175" s="28" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
     </row>
     <row r="176" spans="2:12" s="12" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B176" s="10" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="D176" s="11" t="s">
         <v>106</v>
@@ -4802,7 +4800,7 @@
     </row>
     <row r="177" spans="2:4" s="12" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B177" s="10" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="D177" s="11" t="s">
         <v>107</v>
@@ -4810,7 +4808,7 @@
     </row>
     <row r="178" spans="2:4" s="12" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B178" s="10" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="D178" s="11" t="s">
         <v>105</v>

--- a/FireMeta_Rproj/inputs/Studies_Summary/Fire_name_Lat_Long.xlsx
+++ b/FireMeta_Rproj/inputs/Studies_Summary/Fire_name_Lat_Long.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/cava304/GitHub/rc_sfa-rc-3-wenas-meta/FireMeta_Rproj/inputs/Studies_Summary/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ADBE0E33-C90E-744E-A7F6-97A777AC5850}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CB05BBE4-0CED-D54A-8504-70CBDBC80A03}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="30240" yWindow="0" windowWidth="38400" windowHeight="24000" xr2:uid="{8C258C6F-044A-E849-9C14-F26FA5F5AA92}"/>
+    <workbookView xWindow="30240" yWindow="500" windowWidth="38400" windowHeight="23500" xr2:uid="{8C258C6F-044A-E849-9C14-F26FA5F5AA92}"/>
   </bookViews>
   <sheets>
     <sheet name="Temporal Normalization Studies" sheetId="1" r:id="rId1"/>
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="690" uniqueCount="241">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="754" uniqueCount="241">
   <si>
     <t>Study</t>
   </si>
@@ -1371,8 +1371,8 @@
   <dimension ref="A1:L178"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A28" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="L19" sqref="L19"/>
+      <pane ySplit="1" topLeftCell="A34" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B78" sqref="B78:B81"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1439,7 +1439,9 @@
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="B3" s="4"/>
+      <c r="B3" s="10" t="s">
+        <v>4</v>
+      </c>
       <c r="C3" t="s">
         <v>45</v>
       </c>
@@ -1469,7 +1471,9 @@
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="B4" s="4"/>
+      <c r="B4" s="10" t="s">
+        <v>4</v>
+      </c>
       <c r="C4" t="s">
         <v>46</v>
       </c>
@@ -1511,7 +1515,9 @@
       </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="B6" s="4"/>
+      <c r="B6" s="10" t="s">
+        <v>6</v>
+      </c>
       <c r="C6" s="4" t="s">
         <v>31</v>
       </c>
@@ -1541,7 +1547,9 @@
       </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="B7" s="4"/>
+      <c r="B7" s="10" t="s">
+        <v>6</v>
+      </c>
       <c r="C7" s="4" t="s">
         <v>32</v>
       </c>
@@ -1571,7 +1579,9 @@
       </c>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="B8" s="4"/>
+      <c r="B8" s="10" t="s">
+        <v>6</v>
+      </c>
       <c r="C8" t="s">
         <v>33</v>
       </c>
@@ -1601,7 +1611,9 @@
       </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="B9" s="4"/>
+      <c r="B9" s="10" t="s">
+        <v>6</v>
+      </c>
       <c r="C9" s="4" t="s">
         <v>34</v>
       </c>
@@ -1645,7 +1657,9 @@
       <c r="F10" s="13"/>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="B11" s="4"/>
+      <c r="B11" s="10" t="s">
+        <v>8</v>
+      </c>
       <c r="C11" t="s">
         <v>35</v>
       </c>
@@ -1675,7 +1689,9 @@
       </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="B12" s="4"/>
+      <c r="B12" s="10" t="s">
+        <v>8</v>
+      </c>
       <c r="C12" t="s">
         <v>36</v>
       </c>
@@ -1705,7 +1721,9 @@
       </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="B13" s="4"/>
+      <c r="B13" s="10" t="s">
+        <v>8</v>
+      </c>
       <c r="C13" t="s">
         <v>37</v>
       </c>
@@ -1735,7 +1753,9 @@
       </c>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="B14" s="4"/>
+      <c r="B14" s="10" t="s">
+        <v>8</v>
+      </c>
       <c r="C14" t="s">
         <v>38</v>
       </c>
@@ -1765,7 +1785,9 @@
       </c>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="B15" s="4"/>
+      <c r="B15" s="10" t="s">
+        <v>8</v>
+      </c>
       <c r="C15" t="s">
         <v>39</v>
       </c>
@@ -1795,7 +1817,9 @@
       </c>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="B16" s="4"/>
+      <c r="B16" s="10" t="s">
+        <v>8</v>
+      </c>
       <c r="C16" s="4" t="s">
         <v>40</v>
       </c>
@@ -1825,7 +1849,9 @@
       </c>
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="B17" s="4"/>
+      <c r="B17" s="10" t="s">
+        <v>8</v>
+      </c>
       <c r="C17" t="s">
         <v>41</v>
       </c>
@@ -1855,7 +1881,9 @@
       </c>
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="B18" s="4"/>
+      <c r="B18" s="10" t="s">
+        <v>8</v>
+      </c>
       <c r="C18" s="4" t="s">
         <v>42</v>
       </c>
@@ -1885,7 +1913,9 @@
       </c>
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="B19" s="4"/>
+      <c r="B19" s="10" t="s">
+        <v>8</v>
+      </c>
       <c r="C19" t="s">
         <v>43</v>
       </c>
@@ -1915,7 +1945,9 @@
       </c>
     </row>
     <row r="20" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="B20" s="4"/>
+      <c r="B20" s="10" t="s">
+        <v>8</v>
+      </c>
       <c r="C20" t="s">
         <v>44</v>
       </c>
@@ -1957,7 +1989,9 @@
       </c>
     </row>
     <row r="22" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="B22" s="4"/>
+      <c r="B22" s="10" t="s">
+        <v>9</v>
+      </c>
       <c r="C22" s="4" t="s">
         <v>47</v>
       </c>
@@ -1987,7 +2021,9 @@
       </c>
     </row>
     <row r="23" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="B23" s="4"/>
+      <c r="B23" s="10" t="s">
+        <v>9</v>
+      </c>
       <c r="C23" s="4" t="s">
         <v>48</v>
       </c>
@@ -2031,7 +2067,9 @@
       <c r="F24" s="15"/>
     </row>
     <row r="25" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="B25" s="4"/>
+      <c r="B25" s="14" t="s">
+        <v>11</v>
+      </c>
       <c r="C25" s="4" t="s">
         <v>49</v>
       </c>
@@ -2061,7 +2099,9 @@
       </c>
     </row>
     <row r="26" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="B26" s="4"/>
+      <c r="B26" s="14" t="s">
+        <v>11</v>
+      </c>
       <c r="C26" s="4" t="s">
         <v>50</v>
       </c>
@@ -2091,7 +2131,9 @@
       </c>
     </row>
     <row r="27" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="B27" s="4"/>
+      <c r="B27" s="14" t="s">
+        <v>11</v>
+      </c>
       <c r="C27" s="4" t="s">
         <v>51</v>
       </c>
@@ -2135,7 +2177,9 @@
       <c r="F28" s="16"/>
     </row>
     <row r="29" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="B29" s="4"/>
+      <c r="B29" s="10" t="s">
+        <v>13</v>
+      </c>
       <c r="C29" t="s">
         <v>52</v>
       </c>
@@ -2165,7 +2209,9 @@
       </c>
     </row>
     <row r="30" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="B30" s="4"/>
+      <c r="B30" s="10" t="s">
+        <v>13</v>
+      </c>
       <c r="C30" t="s">
         <v>53</v>
       </c>
@@ -2195,7 +2241,9 @@
       </c>
     </row>
     <row r="31" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="B31" s="4"/>
+      <c r="B31" s="10" t="s">
+        <v>13</v>
+      </c>
       <c r="C31" t="s">
         <v>54</v>
       </c>
@@ -2225,7 +2273,9 @@
       </c>
     </row>
     <row r="32" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="B32" s="4"/>
+      <c r="B32" s="10" t="s">
+        <v>13</v>
+      </c>
       <c r="C32" t="s">
         <v>55</v>
       </c>
@@ -2255,7 +2305,9 @@
       </c>
     </row>
     <row r="33" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="B33" s="4"/>
+      <c r="B33" s="10" t="s">
+        <v>13</v>
+      </c>
       <c r="C33" t="s">
         <v>57</v>
       </c>
@@ -2285,7 +2337,9 @@
       </c>
     </row>
     <row r="34" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="B34" s="4"/>
+      <c r="B34" s="10" t="s">
+        <v>13</v>
+      </c>
       <c r="C34" t="s">
         <v>56</v>
       </c>
@@ -2315,7 +2369,9 @@
       </c>
     </row>
     <row r="35" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="B35" s="4"/>
+      <c r="B35" s="10" t="s">
+        <v>13</v>
+      </c>
       <c r="C35" t="s">
         <v>58</v>
       </c>
@@ -2345,7 +2401,9 @@
       </c>
     </row>
     <row r="36" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="B36" s="4"/>
+      <c r="B36" s="10" t="s">
+        <v>13</v>
+      </c>
       <c r="C36" t="s">
         <v>59</v>
       </c>
@@ -2386,7 +2444,9 @@
       </c>
     </row>
     <row r="38" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="B38" s="4"/>
+      <c r="B38" s="14" t="s">
+        <v>15</v>
+      </c>
       <c r="C38" t="s">
         <v>60</v>
       </c>
@@ -2416,7 +2476,9 @@
       </c>
     </row>
     <row r="39" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="B39" s="4"/>
+      <c r="B39" s="14" t="s">
+        <v>15</v>
+      </c>
       <c r="C39" t="s">
         <v>87</v>
       </c>
@@ -2446,7 +2508,9 @@
       </c>
     </row>
     <row r="40" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="B40" s="4"/>
+      <c r="B40" s="14" t="s">
+        <v>15</v>
+      </c>
       <c r="C40" t="s">
         <v>61</v>
       </c>
@@ -2476,7 +2540,9 @@
       </c>
     </row>
     <row r="41" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="B41" s="4"/>
+      <c r="B41" s="14" t="s">
+        <v>15</v>
+      </c>
       <c r="C41" t="s">
         <v>62</v>
       </c>
@@ -2520,7 +2586,9 @@
       <c r="F42" s="15"/>
     </row>
     <row r="43" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="B43" s="4"/>
+      <c r="B43" s="10" t="s">
+        <v>16</v>
+      </c>
       <c r="C43" t="s">
         <v>63</v>
       </c>
@@ -2550,7 +2618,9 @@
       </c>
     </row>
     <row r="44" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="B44" s="4"/>
+      <c r="B44" s="10" t="s">
+        <v>16</v>
+      </c>
       <c r="C44" t="s">
         <v>64</v>
       </c>
@@ -2580,7 +2650,9 @@
       </c>
     </row>
     <row r="45" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="B45" s="4"/>
+      <c r="B45" s="10" t="s">
+        <v>16</v>
+      </c>
       <c r="C45" t="s">
         <v>65</v>
       </c>
@@ -2610,7 +2682,9 @@
       </c>
     </row>
     <row r="46" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="B46" s="4"/>
+      <c r="B46" s="10" t="s">
+        <v>16</v>
+      </c>
       <c r="C46" t="s">
         <v>66</v>
       </c>
@@ -2640,7 +2714,9 @@
       </c>
     </row>
     <row r="47" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="B47" s="4"/>
+      <c r="B47" s="10" t="s">
+        <v>16</v>
+      </c>
       <c r="C47" t="s">
         <v>67</v>
       </c>
@@ -2688,7 +2764,9 @@
       </c>
     </row>
     <row r="49" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="B49" s="4"/>
+      <c r="B49" s="14" t="s">
+        <v>17</v>
+      </c>
       <c r="C49" t="s">
         <v>68</v>
       </c>
@@ -2719,7 +2797,9 @@
       </c>
     </row>
     <row r="50" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="B50" s="4"/>
+      <c r="B50" s="14" t="s">
+        <v>17</v>
+      </c>
       <c r="C50" t="s">
         <v>69</v>
       </c>
@@ -2750,7 +2830,9 @@
       </c>
     </row>
     <row r="51" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="B51" s="4"/>
+      <c r="B51" s="14" t="s">
+        <v>17</v>
+      </c>
       <c r="C51" t="s">
         <v>70</v>
       </c>
@@ -2781,7 +2863,9 @@
       </c>
     </row>
     <row r="52" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="B52" s="4"/>
+      <c r="B52" s="14" t="s">
+        <v>17</v>
+      </c>
       <c r="C52" t="s">
         <v>71</v>
       </c>
@@ -2812,7 +2896,9 @@
       </c>
     </row>
     <row r="53" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="B53" s="4"/>
+      <c r="B53" s="14" t="s">
+        <v>17</v>
+      </c>
       <c r="C53" t="s">
         <v>72</v>
       </c>
@@ -2861,7 +2947,9 @@
       </c>
     </row>
     <row r="55" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="B55" s="4"/>
+      <c r="B55" s="14" t="s">
+        <v>19</v>
+      </c>
       <c r="C55" t="s">
         <v>68</v>
       </c>
@@ -2892,7 +2980,9 @@
       </c>
     </row>
     <row r="56" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="B56" s="4"/>
+      <c r="B56" s="14" t="s">
+        <v>19</v>
+      </c>
       <c r="C56" t="s">
         <v>69</v>
       </c>
@@ -2923,7 +3013,9 @@
       </c>
     </row>
     <row r="57" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="B57" s="4"/>
+      <c r="B57" s="14" t="s">
+        <v>19</v>
+      </c>
       <c r="C57" t="s">
         <v>70</v>
       </c>
@@ -2954,7 +3046,9 @@
       </c>
     </row>
     <row r="58" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="B58" s="4"/>
+      <c r="B58" s="14" t="s">
+        <v>19</v>
+      </c>
       <c r="C58" t="s">
         <v>71</v>
       </c>
@@ -3003,7 +3097,9 @@
       </c>
     </row>
     <row r="60" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="B60" s="4"/>
+      <c r="B60" s="10" t="s">
+        <v>20</v>
+      </c>
       <c r="C60" s="4" t="s">
         <v>74</v>
       </c>
@@ -3033,7 +3129,9 @@
       </c>
     </row>
     <row r="61" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="B61" s="4"/>
+      <c r="B61" s="10" t="s">
+        <v>20</v>
+      </c>
       <c r="C61" t="s">
         <v>73</v>
       </c>
@@ -3075,7 +3173,9 @@
       </c>
     </row>
     <row r="63" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="B63" s="4"/>
+      <c r="B63" s="14" t="s">
+        <v>21</v>
+      </c>
       <c r="C63" s="4" t="s">
         <v>78</v>
       </c>
@@ -3105,7 +3205,9 @@
       </c>
     </row>
     <row r="64" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="B64" s="4"/>
+      <c r="B64" s="14" t="s">
+        <v>21</v>
+      </c>
       <c r="C64" s="4" t="s">
         <v>75</v>
       </c>
@@ -3133,7 +3235,9 @@
       </c>
     </row>
     <row r="65" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="B65" s="4"/>
+      <c r="B65" s="14" t="s">
+        <v>21</v>
+      </c>
       <c r="C65" s="4" t="s">
         <v>76</v>
       </c>
@@ -3163,7 +3267,9 @@
       </c>
     </row>
     <row r="66" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="B66" s="4"/>
+      <c r="B66" s="14" t="s">
+        <v>21</v>
+      </c>
       <c r="C66" s="4" t="s">
         <v>77</v>
       </c>
@@ -3207,7 +3313,9 @@
       <c r="F67" s="18"/>
     </row>
     <row r="68" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="B68" s="4"/>
+      <c r="B68" s="14" t="s">
+        <v>23</v>
+      </c>
       <c r="C68" t="s">
         <v>79</v>
       </c>
@@ -3237,7 +3345,9 @@
       </c>
     </row>
     <row r="69" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="B69" s="4"/>
+      <c r="B69" s="14" t="s">
+        <v>23</v>
+      </c>
       <c r="C69" t="s">
         <v>80</v>
       </c>
@@ -3279,7 +3389,9 @@
       </c>
     </row>
     <row r="71" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="B71" s="4"/>
+      <c r="B71" s="14" t="s">
+        <v>25</v>
+      </c>
       <c r="C71" t="s">
         <v>81</v>
       </c>
@@ -3310,7 +3422,9 @@
       </c>
     </row>
     <row r="72" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="B72" s="4"/>
+      <c r="B72" s="14" t="s">
+        <v>25</v>
+      </c>
       <c r="C72" s="4" t="s">
         <v>82</v>
       </c>
@@ -3341,7 +3455,9 @@
       </c>
     </row>
     <row r="73" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="B73" s="4"/>
+      <c r="B73" s="14" t="s">
+        <v>25</v>
+      </c>
       <c r="C73" s="4" t="s">
         <v>83</v>
       </c>
@@ -3384,7 +3500,9 @@
       <c r="F74" s="19"/>
     </row>
     <row r="75" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="B75" s="4"/>
+      <c r="B75" s="14" t="s">
+        <v>27</v>
+      </c>
       <c r="C75" s="4" t="s">
         <v>84</v>
       </c>
@@ -3414,7 +3532,9 @@
       </c>
     </row>
     <row r="76" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="B76" s="4"/>
+      <c r="B76" s="14" t="s">
+        <v>27</v>
+      </c>
       <c r="C76" s="4" t="s">
         <v>85</v>
       </c>
@@ -3444,7 +3564,9 @@
       </c>
     </row>
     <row r="77" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="B77" s="4"/>
+      <c r="B77" s="14" t="s">
+        <v>27</v>
+      </c>
       <c r="C77" s="4" t="s">
         <v>86</v>
       </c>
@@ -3486,6 +3608,9 @@
       </c>
     </row>
     <row r="79" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="B79" s="10" t="s">
+        <v>29</v>
+      </c>
       <c r="C79" s="4" t="s">
         <v>84</v>
       </c>
@@ -3515,6 +3640,9 @@
       </c>
     </row>
     <row r="80" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="B80" s="10" t="s">
+        <v>29</v>
+      </c>
       <c r="C80" s="4" t="s">
         <v>86</v>
       </c>
@@ -3544,6 +3672,9 @@
       </c>
     </row>
     <row r="81" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B81" s="10" t="s">
+        <v>29</v>
+      </c>
       <c r="C81" s="4" t="s">
         <v>85</v>
       </c>
